--- a/HIF-data.xlsx
+++ b/HIF-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaspermundt/Dataanalyse/Hvidovre IF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0B50AE-10D6-5B43-A24A-D6E073BE68B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDB8A93-0B21-8142-94D6-CD661FA21CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="33600" windowHeight="19080" activeTab="1" xr2:uid="{83688B59-0C36-8B41-9C3B-4425A1AB13A0}"/>
+    <workbookView xWindow="18160" yWindow="600" windowWidth="15440" windowHeight="19080" activeTab="3" xr2:uid="{83688B59-0C36-8B41-9C3B-4425A1AB13A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Kampdata" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2050" uniqueCount="1012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="1011">
   <si>
     <t>0.15</t>
   </si>
@@ -3074,9 +3074,6 @@
   <si>
     <t>0.9</t>
   </si>
-  <si>
-    <t>0.86</t>
-  </si>
 </sst>
 </file>
 
@@ -4096,7 +4093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D862F0F-0EEE-9440-91B3-AAA98CD25C37}">
   <dimension ref="A1:ES229"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="BU1" workbookViewId="0">
+    <sheetView showZeros="0" workbookViewId="0">
       <selection activeCell="CN1" sqref="CN1"/>
     </sheetView>
   </sheetViews>
@@ -98452,7 +98449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C67265B9-DC88-E245-A662-507C2CA294D8}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -99608,8 +99605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB5CC042-7A75-A548-AB82-06D110DF2783}">
   <dimension ref="A1:DN26"/>
   <sheetViews>
-    <sheetView topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -99626,6 +99623,8 @@
     <col min="11" max="11" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.5" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="26" bestFit="1" customWidth="1"/>
     <col min="83" max="83" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -100717,263 +100716,263 @@
         <v>150</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K4">
+        <v>762</v>
+      </c>
+      <c r="L4">
+        <v>762</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>10</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>8</v>
+      </c>
+      <c r="V4">
+        <v>155</v>
+      </c>
+      <c r="W4">
+        <v>69</v>
+      </c>
+      <c r="X4">
+        <v>44</v>
+      </c>
+      <c r="Y4">
+        <v>12</v>
+      </c>
+      <c r="Z4">
+        <v>99</v>
+      </c>
+      <c r="AA4">
+        <v>53</v>
+      </c>
+      <c r="AB4">
+        <v>8</v>
+      </c>
+      <c r="AC4">
+        <v>3</v>
+      </c>
+      <c r="AD4">
+        <v>4</v>
+      </c>
+      <c r="AE4">
+        <v>176</v>
+      </c>
+      <c r="AF4">
+        <v>118</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>12</v>
+      </c>
+      <c r="AJ4">
+        <v>7</v>
+      </c>
+      <c r="AK4">
+        <v>23</v>
+      </c>
+      <c r="AL4">
+        <v>6</v>
+      </c>
+      <c r="AM4">
+        <v>48</v>
+      </c>
+      <c r="AN4">
+        <v>27</v>
+      </c>
+      <c r="AO4">
+        <v>45</v>
+      </c>
+      <c r="AP4">
+        <v>39</v>
+      </c>
+      <c r="AQ4">
+        <v>1</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>2</v>
+      </c>
+      <c r="AT4">
+        <v>2</v>
+      </c>
+      <c r="AU4">
+        <v>55</v>
+      </c>
+      <c r="AV4">
+        <v>37</v>
+      </c>
+      <c r="AW4">
+        <v>7</v>
+      </c>
+      <c r="AX4">
+        <v>4</v>
+      </c>
+      <c r="AY4">
+        <v>54</v>
+      </c>
+      <c r="AZ4">
+        <v>43</v>
+      </c>
+      <c r="BA4">
+        <v>23</v>
+      </c>
+      <c r="BB4">
+        <v>67</v>
+      </c>
+      <c r="BC4">
         <v>52</v>
       </c>
-      <c r="L4">
-        <v>52</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
+      <c r="BD4">
+        <v>87</v>
+      </c>
+      <c r="BE4">
+        <v>36</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>6</v>
+      </c>
+      <c r="BM4">
+        <v>3</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
         <v>4</v>
       </c>
-      <c r="W4">
-        <v>1</v>
-      </c>
-      <c r="X4">
-        <v>2</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>1</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>1</v>
-      </c>
-      <c r="AC4">
-        <v>1</v>
-      </c>
-      <c r="AD4">
-        <v>1</v>
-      </c>
-      <c r="AE4">
+      <c r="BQ4">
+        <v>1</v>
+      </c>
+      <c r="BR4">
+        <v>2</v>
+      </c>
+      <c r="BS4">
+        <v>5</v>
+      </c>
+      <c r="BT4">
+        <v>2</v>
+      </c>
+      <c r="BU4">
+        <v>34</v>
+      </c>
+      <c r="BV4">
+        <v>13</v>
+      </c>
+      <c r="BW4">
+        <v>2</v>
+      </c>
+      <c r="BX4">
+        <v>82</v>
+      </c>
+      <c r="BY4">
+        <v>23</v>
+      </c>
+      <c r="BZ4">
+        <v>4</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>457</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>805</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>136</v>
+      </c>
+      <c r="CE4">
+        <v>25</v>
+      </c>
+      <c r="CF4">
+        <v>38</v>
+      </c>
+      <c r="CG4">
+        <v>1</v>
+      </c>
+      <c r="CH4">
+        <v>2</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>2</v>
+      </c>
+      <c r="CL4">
+        <v>5</v>
+      </c>
+      <c r="CM4">
+        <v>32</v>
+      </c>
+      <c r="CN4">
         <v>14</v>
       </c>
-      <c r="AF4">
-        <v>12</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>5</v>
-      </c>
-      <c r="AN4">
-        <v>3</v>
-      </c>
-      <c r="AO4">
-        <v>2</v>
-      </c>
-      <c r="AP4">
-        <v>2</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>7</v>
-      </c>
-      <c r="AV4">
-        <v>7</v>
-      </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
-      <c r="AZ4">
-        <v>0</v>
-      </c>
-      <c r="BA4">
-        <v>0</v>
-      </c>
-      <c r="BB4">
-        <v>2</v>
-      </c>
-      <c r="BC4">
-        <v>1</v>
-      </c>
-      <c r="BD4">
-        <v>0</v>
-      </c>
-      <c r="BE4">
-        <v>0</v>
-      </c>
-      <c r="BF4">
-        <v>0</v>
-      </c>
-      <c r="BG4">
-        <v>0</v>
-      </c>
-      <c r="BH4">
-        <v>0</v>
-      </c>
-      <c r="BI4">
-        <v>0</v>
-      </c>
-      <c r="BJ4">
-        <v>0</v>
-      </c>
-      <c r="BK4">
-        <v>0</v>
-      </c>
-      <c r="BL4">
-        <v>0</v>
-      </c>
-      <c r="BM4">
-        <v>0</v>
-      </c>
-      <c r="BN4">
-        <v>0</v>
-      </c>
-      <c r="BO4">
-        <v>0</v>
-      </c>
-      <c r="BP4">
-        <v>0</v>
-      </c>
-      <c r="BQ4">
-        <v>0</v>
-      </c>
-      <c r="BR4">
-        <v>1</v>
-      </c>
-      <c r="BS4">
-        <v>0</v>
-      </c>
-      <c r="BT4">
-        <v>0</v>
-      </c>
-      <c r="BU4">
-        <v>3</v>
-      </c>
-      <c r="BV4">
-        <v>0</v>
-      </c>
-      <c r="BW4">
-        <v>0</v>
-      </c>
-      <c r="BX4">
-        <v>4</v>
-      </c>
-      <c r="BY4">
-        <v>2</v>
-      </c>
-      <c r="BZ4">
-        <v>0</v>
-      </c>
-      <c r="CA4">
-        <v>0</v>
-      </c>
-      <c r="CB4">
-        <v>0</v>
-      </c>
-      <c r="CC4">
-        <v>0</v>
-      </c>
-      <c r="CD4">
-        <v>6</v>
-      </c>
-      <c r="CE4">
-        <v>0</v>
-      </c>
-      <c r="CF4">
-        <v>0</v>
-      </c>
-      <c r="CG4">
-        <v>0</v>
-      </c>
-      <c r="CH4">
-        <v>0</v>
-      </c>
-      <c r="CI4">
-        <v>0</v>
-      </c>
-      <c r="CJ4">
-        <v>0</v>
-      </c>
-      <c r="CK4">
-        <v>0</v>
-      </c>
-      <c r="CL4">
-        <v>0</v>
-      </c>
-      <c r="CM4">
-        <v>2</v>
-      </c>
-      <c r="CN4">
-        <v>0</v>
-      </c>
       <c r="CO4">
         <v>0</v>
       </c>
@@ -100981,10 +100980,10 @@
         <v>0</v>
       </c>
       <c r="CQ4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="CR4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CS4">
         <v>0</v>
@@ -100993,10 +100992,10 @@
         <v>0</v>
       </c>
       <c r="CU4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CV4">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="CW4">
         <v>0</v>
@@ -101005,10 +101004,10 @@
         <v>0</v>
       </c>
       <c r="CY4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="CZ4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DA4">
         <v>0</v>
@@ -101035,22 +101034,22 @@
         <v>0</v>
       </c>
       <c r="DI4">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="DJ4">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="DK4">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="DL4">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="DM4">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="DN4">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:118" x14ac:dyDescent="0.2">
@@ -101785,157 +101784,157 @@
         <v>150</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K7">
+        <v>762</v>
+      </c>
+      <c r="L7">
+        <v>762</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>10</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>8</v>
+      </c>
+      <c r="V7">
+        <v>155</v>
+      </c>
+      <c r="W7">
+        <v>69</v>
+      </c>
+      <c r="X7">
+        <v>44</v>
+      </c>
+      <c r="Y7">
         <v>12</v>
       </c>
-      <c r="L7">
+      <c r="Z7">
+        <v>99</v>
+      </c>
+      <c r="AA7">
+        <v>53</v>
+      </c>
+      <c r="AB7">
+        <v>8</v>
+      </c>
+      <c r="AC7">
+        <v>3</v>
+      </c>
+      <c r="AD7">
+        <v>4</v>
+      </c>
+      <c r="AE7">
+        <v>176</v>
+      </c>
+      <c r="AF7">
+        <v>118</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
         <v>12</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>2</v>
-      </c>
-      <c r="W7">
-        <v>1</v>
-      </c>
-      <c r="X7">
-        <v>1</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>1</v>
-      </c>
-      <c r="AA7">
-        <v>1</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
+      <c r="AJ7">
+        <v>7</v>
+      </c>
+      <c r="AK7">
+        <v>23</v>
+      </c>
+      <c r="AL7">
+        <v>6</v>
+      </c>
+      <c r="AM7">
+        <v>48</v>
+      </c>
+      <c r="AN7">
+        <v>27</v>
+      </c>
+      <c r="AO7">
+        <v>45</v>
+      </c>
+      <c r="AP7">
+        <v>39</v>
+      </c>
+      <c r="AQ7">
+        <v>1</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>2</v>
+      </c>
+      <c r="AT7">
+        <v>2</v>
+      </c>
+      <c r="AU7">
+        <v>55</v>
+      </c>
+      <c r="AV7">
+        <v>37</v>
+      </c>
+      <c r="AW7">
+        <v>7</v>
+      </c>
+      <c r="AX7">
         <v>4</v>
       </c>
-      <c r="AF7">
-        <v>2</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>1</v>
-      </c>
-      <c r="AJ7">
-        <v>1</v>
-      </c>
-      <c r="AK7">
-        <v>1</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AM7">
-        <v>2</v>
-      </c>
-      <c r="AN7">
-        <v>2</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>0</v>
-      </c>
-      <c r="AS7">
-        <v>0</v>
-      </c>
-      <c r="AT7">
-        <v>0</v>
-      </c>
-      <c r="AU7">
-        <v>1</v>
-      </c>
-      <c r="AV7">
-        <v>0</v>
-      </c>
-      <c r="AW7">
-        <v>0</v>
-      </c>
-      <c r="AX7">
-        <v>0</v>
-      </c>
       <c r="AY7">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="AZ7">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="BA7">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="BB7">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="BC7">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="BD7">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="BE7">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="BF7">
         <v>0</v>
@@ -101956,10 +101955,10 @@
         <v>0</v>
       </c>
       <c r="BL7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BM7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BN7">
         <v>0</v>
@@ -101968,61 +101967,61 @@
         <v>0</v>
       </c>
       <c r="BP7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BQ7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BS7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BT7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BU7">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="BV7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="BW7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BX7">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="BY7">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="BZ7">
-        <v>1</v>
-      </c>
-      <c r="CA7">
-        <v>0</v>
-      </c>
-      <c r="CB7">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>457</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>805</v>
       </c>
       <c r="CC7">
         <v>0</v>
       </c>
       <c r="CD7">
-        <v>2</v>
+        <v>136</v>
       </c>
       <c r="CE7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="CF7">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="CG7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CI7">
         <v>0</v>
@@ -102031,16 +102030,16 @@
         <v>0</v>
       </c>
       <c r="CK7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CL7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CM7">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="CN7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="CO7">
         <v>0</v>
@@ -102049,10 +102048,10 @@
         <v>0</v>
       </c>
       <c r="CQ7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="CR7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CS7">
         <v>0</v>
@@ -102061,10 +102060,10 @@
         <v>0</v>
       </c>
       <c r="CU7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CV7">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="CW7">
         <v>0</v>
@@ -102073,10 +102072,10 @@
         <v>0</v>
       </c>
       <c r="CY7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CZ7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DA7">
         <v>0</v>
@@ -102103,22 +102102,22 @@
         <v>0</v>
       </c>
       <c r="DI7">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="DJ7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="DK7">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="DL7">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="DM7">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="DN7">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:118" x14ac:dyDescent="0.2">
@@ -104989,287 +104988,287 @@
         <v>150</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K16">
+        <v>762</v>
+      </c>
+      <c r="L16">
+        <v>762</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>10</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>8</v>
+      </c>
+      <c r="V16">
+        <v>155</v>
+      </c>
+      <c r="W16">
+        <v>69</v>
+      </c>
+      <c r="X16">
+        <v>44</v>
+      </c>
+      <c r="Y16">
+        <v>12</v>
+      </c>
+      <c r="Z16">
+        <v>99</v>
+      </c>
+      <c r="AA16">
+        <v>53</v>
+      </c>
+      <c r="AB16">
+        <v>8</v>
+      </c>
+      <c r="AC16">
+        <v>3</v>
+      </c>
+      <c r="AD16">
+        <v>4</v>
+      </c>
+      <c r="AE16">
+        <v>176</v>
+      </c>
+      <c r="AF16">
+        <v>118</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>12</v>
+      </c>
+      <c r="AJ16">
+        <v>7</v>
+      </c>
+      <c r="AK16">
+        <v>23</v>
+      </c>
+      <c r="AL16">
+        <v>6</v>
+      </c>
+      <c r="AM16">
+        <v>48</v>
+      </c>
+      <c r="AN16">
+        <v>27</v>
+      </c>
+      <c r="AO16">
+        <v>45</v>
+      </c>
+      <c r="AP16">
+        <v>39</v>
+      </c>
+      <c r="AQ16">
+        <v>1</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>2</v>
+      </c>
+      <c r="AT16">
+        <v>2</v>
+      </c>
+      <c r="AU16">
+        <v>55</v>
+      </c>
+      <c r="AV16">
+        <v>37</v>
+      </c>
+      <c r="AW16">
+        <v>7</v>
+      </c>
+      <c r="AX16">
+        <v>4</v>
+      </c>
+      <c r="AY16">
+        <v>54</v>
+      </c>
+      <c r="AZ16">
+        <v>43</v>
+      </c>
+      <c r="BA16">
+        <v>23</v>
+      </c>
+      <c r="BB16">
+        <v>67</v>
+      </c>
+      <c r="BC16">
+        <v>52</v>
+      </c>
+      <c r="BD16">
+        <v>87</v>
+      </c>
+      <c r="BE16">
+        <v>36</v>
+      </c>
+      <c r="BF16">
+        <v>0</v>
+      </c>
+      <c r="BG16">
+        <v>0</v>
+      </c>
+      <c r="BH16">
+        <v>0</v>
+      </c>
+      <c r="BI16">
+        <v>0</v>
+      </c>
+      <c r="BJ16">
+        <v>0</v>
+      </c>
+      <c r="BK16">
+        <v>0</v>
+      </c>
+      <c r="BL16">
+        <v>6</v>
+      </c>
+      <c r="BM16">
+        <v>3</v>
+      </c>
+      <c r="BN16">
+        <v>0</v>
+      </c>
+      <c r="BO16">
+        <v>0</v>
+      </c>
+      <c r="BP16">
+        <v>4</v>
+      </c>
+      <c r="BQ16">
+        <v>1</v>
+      </c>
+      <c r="BR16">
+        <v>2</v>
+      </c>
+      <c r="BS16">
+        <v>5</v>
+      </c>
+      <c r="BT16">
+        <v>2</v>
+      </c>
+      <c r="BU16">
+        <v>34</v>
+      </c>
+      <c r="BV16">
+        <v>13</v>
+      </c>
+      <c r="BW16">
+        <v>2</v>
+      </c>
+      <c r="BX16">
+        <v>82</v>
+      </c>
+      <c r="BY16">
+        <v>23</v>
+      </c>
+      <c r="BZ16">
+        <v>4</v>
+      </c>
+      <c r="CA16" t="s">
+        <v>457</v>
+      </c>
+      <c r="CB16" t="s">
+        <v>805</v>
+      </c>
+      <c r="CC16">
+        <v>0</v>
+      </c>
+      <c r="CD16">
+        <v>136</v>
+      </c>
+      <c r="CE16">
+        <v>25</v>
+      </c>
+      <c r="CF16">
+        <v>38</v>
+      </c>
+      <c r="CG16">
+        <v>1</v>
+      </c>
+      <c r="CH16">
+        <v>2</v>
+      </c>
+      <c r="CI16">
+        <v>0</v>
+      </c>
+      <c r="CJ16">
+        <v>0</v>
+      </c>
+      <c r="CK16">
+        <v>2</v>
+      </c>
+      <c r="CL16">
+        <v>5</v>
+      </c>
+      <c r="CM16">
+        <v>32</v>
+      </c>
+      <c r="CN16">
+        <v>14</v>
+      </c>
+      <c r="CO16">
+        <v>0</v>
+      </c>
+      <c r="CP16">
+        <v>0</v>
+      </c>
+      <c r="CQ16">
+        <v>9</v>
+      </c>
+      <c r="CR16">
+        <v>3</v>
+      </c>
+      <c r="CS16">
+        <v>0</v>
+      </c>
+      <c r="CT16">
+        <v>0</v>
+      </c>
+      <c r="CU16">
+        <v>3</v>
+      </c>
+      <c r="CV16">
         <v>21</v>
       </c>
-      <c r="L16">
-        <v>21</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>7</v>
-      </c>
-      <c r="W16">
-        <v>1</v>
-      </c>
-      <c r="X16">
-        <v>1</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>3</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>2</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>2</v>
-      </c>
-      <c r="AF16">
-        <v>1</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16">
-        <v>0</v>
-      </c>
-      <c r="AI16">
-        <v>0</v>
-      </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16">
-        <v>0</v>
-      </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
-      <c r="AM16">
-        <v>0</v>
-      </c>
-      <c r="AN16">
-        <v>0</v>
-      </c>
-      <c r="AO16">
-        <v>0</v>
-      </c>
-      <c r="AP16">
-        <v>0</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <v>0</v>
-      </c>
-      <c r="AS16">
-        <v>0</v>
-      </c>
-      <c r="AT16">
-        <v>0</v>
-      </c>
-      <c r="AU16">
-        <v>1</v>
-      </c>
-      <c r="AV16">
-        <v>1</v>
-      </c>
-      <c r="AW16">
-        <v>0</v>
-      </c>
-      <c r="AX16">
-        <v>0</v>
-      </c>
-      <c r="AY16">
-        <v>1</v>
-      </c>
-      <c r="AZ16">
-        <v>0</v>
-      </c>
-      <c r="BA16">
-        <v>0</v>
-      </c>
-      <c r="BB16">
-        <v>1</v>
-      </c>
-      <c r="BC16">
-        <v>1</v>
-      </c>
-      <c r="BD16">
-        <v>1</v>
-      </c>
-      <c r="BE16">
-        <v>0</v>
-      </c>
-      <c r="BF16">
-        <v>0</v>
-      </c>
-      <c r="BG16">
-        <v>0</v>
-      </c>
-      <c r="BH16">
-        <v>0</v>
-      </c>
-      <c r="BI16">
-        <v>0</v>
-      </c>
-      <c r="BJ16">
-        <v>1</v>
-      </c>
-      <c r="BK16">
-        <v>0</v>
-      </c>
-      <c r="BL16">
-        <v>0</v>
-      </c>
-      <c r="BM16">
-        <v>1</v>
-      </c>
-      <c r="BN16">
-        <v>0</v>
-      </c>
-      <c r="BO16">
-        <v>0</v>
-      </c>
-      <c r="BP16">
-        <v>1</v>
-      </c>
-      <c r="BQ16">
-        <v>1</v>
-      </c>
-      <c r="BR16">
-        <v>0</v>
-      </c>
-      <c r="BS16">
-        <v>0</v>
-      </c>
-      <c r="BT16">
-        <v>0</v>
-      </c>
-      <c r="BU16">
-        <v>1</v>
-      </c>
-      <c r="BV16">
-        <v>1</v>
-      </c>
-      <c r="BW16">
-        <v>0</v>
-      </c>
-      <c r="BX16">
-        <v>4</v>
-      </c>
-      <c r="BY16">
-        <v>3</v>
-      </c>
-      <c r="BZ16">
-        <v>0</v>
-      </c>
-      <c r="CA16">
-        <v>0</v>
-      </c>
-      <c r="CB16">
-        <v>0</v>
-      </c>
-      <c r="CC16">
-        <v>0</v>
-      </c>
-      <c r="CD16">
-        <v>2</v>
-      </c>
-      <c r="CE16">
-        <v>0</v>
-      </c>
-      <c r="CF16">
-        <v>0</v>
-      </c>
-      <c r="CG16">
-        <v>0</v>
-      </c>
-      <c r="CH16">
-        <v>0</v>
-      </c>
-      <c r="CI16">
-        <v>0</v>
-      </c>
-      <c r="CJ16">
-        <v>0</v>
-      </c>
-      <c r="CK16">
-        <v>0</v>
-      </c>
-      <c r="CL16">
-        <v>1</v>
-      </c>
-      <c r="CM16">
-        <v>0</v>
-      </c>
-      <c r="CN16">
-        <v>1</v>
-      </c>
-      <c r="CO16">
-        <v>0</v>
-      </c>
-      <c r="CP16">
-        <v>0</v>
-      </c>
-      <c r="CQ16">
-        <v>0</v>
-      </c>
-      <c r="CR16">
-        <v>0</v>
-      </c>
-      <c r="CS16">
-        <v>0</v>
-      </c>
-      <c r="CT16">
-        <v>0</v>
-      </c>
-      <c r="CU16">
-        <v>0</v>
-      </c>
-      <c r="CV16">
-        <v>0</v>
-      </c>
       <c r="CW16">
         <v>0</v>
       </c>
@@ -105277,10 +105276,10 @@
         <v>0</v>
       </c>
       <c r="CY16">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="CZ16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DA16">
         <v>0</v>
@@ -105307,22 +105306,22 @@
         <v>0</v>
       </c>
       <c r="DI16">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="DJ16">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="DK16">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="DL16">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="DM16">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="DN16">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:118" x14ac:dyDescent="0.2">
@@ -108549,25 +108548,25 @@
         <v>150</v>
       </c>
       <c r="G26">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K26">
-        <v>189</v>
+        <v>592</v>
       </c>
       <c r="L26">
-        <v>189</v>
+        <v>592</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -108576,7 +108575,7 @@
         <v>3</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -108591,257 +108590,257 @@
         <v>0</v>
       </c>
       <c r="U26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="W26">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="X26">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="Y26">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Z26">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="AA26">
+        <v>2</v>
+      </c>
+      <c r="AB26">
+        <v>13</v>
+      </c>
+      <c r="AC26">
+        <v>8</v>
+      </c>
+      <c r="AD26">
         <v>6</v>
       </c>
-      <c r="AB26">
+      <c r="AE26">
+        <v>353</v>
+      </c>
+      <c r="AF26">
+        <v>293</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>33</v>
+      </c>
+      <c r="AJ26">
+        <v>18</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>133</v>
+      </c>
+      <c r="AN26">
+        <v>80</v>
+      </c>
+      <c r="AO26">
+        <v>19</v>
+      </c>
+      <c r="AP26">
+        <v>18</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
+        <v>0</v>
+      </c>
+      <c r="AT26">
+        <v>0</v>
+      </c>
+      <c r="AU26">
+        <v>182</v>
+      </c>
+      <c r="AV26">
+        <v>178</v>
+      </c>
+      <c r="AW26">
+        <v>55</v>
+      </c>
+      <c r="AX26">
+        <v>24</v>
+      </c>
+      <c r="AY26">
+        <v>0</v>
+      </c>
+      <c r="AZ26">
+        <v>0</v>
+      </c>
+      <c r="BA26">
+        <v>39</v>
+      </c>
+      <c r="BB26">
+        <v>75</v>
+      </c>
+      <c r="BC26">
+        <v>67</v>
+      </c>
+      <c r="BD26">
+        <v>3</v>
+      </c>
+      <c r="BE26">
+        <v>2</v>
+      </c>
+      <c r="BF26">
+        <v>0</v>
+      </c>
+      <c r="BG26">
+        <v>0</v>
+      </c>
+      <c r="BH26">
+        <v>0</v>
+      </c>
+      <c r="BI26">
+        <v>0</v>
+      </c>
+      <c r="BJ26">
+        <v>0</v>
+      </c>
+      <c r="BK26">
+        <v>0</v>
+      </c>
+      <c r="BL26">
+        <v>0</v>
+      </c>
+      <c r="BM26">
+        <v>0</v>
+      </c>
+      <c r="BN26">
+        <v>0</v>
+      </c>
+      <c r="BO26">
+        <v>0</v>
+      </c>
+      <c r="BP26">
+        <v>9</v>
+      </c>
+      <c r="BQ26">
+        <v>6</v>
+      </c>
+      <c r="BR26">
+        <v>2</v>
+      </c>
+      <c r="BS26">
+        <v>0</v>
+      </c>
+      <c r="BT26">
+        <v>0</v>
+      </c>
+      <c r="BU26">
+        <v>52</v>
+      </c>
+      <c r="BV26">
+        <v>6</v>
+      </c>
+      <c r="BW26">
+        <v>0</v>
+      </c>
+      <c r="BX26">
+        <v>67</v>
+      </c>
+      <c r="BY26">
+        <v>37</v>
+      </c>
+      <c r="BZ26">
+        <v>3</v>
+      </c>
+      <c r="CA26" t="s">
+        <v>789</v>
+      </c>
+      <c r="CB26">
+        <v>0</v>
+      </c>
+      <c r="CC26">
+        <v>0</v>
+      </c>
+      <c r="CD26">
+        <v>234</v>
+      </c>
+      <c r="CE26">
+        <v>7</v>
+      </c>
+      <c r="CF26">
+        <v>2</v>
+      </c>
+      <c r="CG26">
+        <v>1</v>
+      </c>
+      <c r="CH26">
+        <v>23</v>
+      </c>
+      <c r="CI26">
+        <v>0</v>
+      </c>
+      <c r="CJ26">
+        <v>0</v>
+      </c>
+      <c r="CK26">
+        <v>6</v>
+      </c>
+      <c r="CL26">
+        <v>2</v>
+      </c>
+      <c r="CM26">
+        <v>60</v>
+      </c>
+      <c r="CN26">
+        <v>23</v>
+      </c>
+      <c r="CO26">
+        <v>2</v>
+      </c>
+      <c r="CP26">
+        <v>1</v>
+      </c>
+      <c r="CQ26">
+        <v>7</v>
+      </c>
+      <c r="CR26">
+        <v>4</v>
+      </c>
+      <c r="CS26">
+        <v>1</v>
+      </c>
+      <c r="CT26">
+        <v>0</v>
+      </c>
+      <c r="CU26">
+        <v>2</v>
+      </c>
+      <c r="CV26">
+        <v>30</v>
+      </c>
+      <c r="CW26">
+        <v>1</v>
+      </c>
+      <c r="CX26">
+        <v>1</v>
+      </c>
+      <c r="CY26">
+        <v>13</v>
+      </c>
+      <c r="CZ26">
         <v>8</v>
       </c>
-      <c r="AC26">
-        <v>2</v>
-      </c>
-      <c r="AD26">
-        <v>2</v>
-      </c>
-      <c r="AE26">
-        <v>19</v>
-      </c>
-      <c r="AF26">
-        <v>13</v>
-      </c>
-      <c r="AG26">
-        <v>0</v>
-      </c>
-      <c r="AH26">
-        <v>0</v>
-      </c>
-      <c r="AI26">
-        <v>2</v>
-      </c>
-      <c r="AJ26">
-        <v>1</v>
-      </c>
-      <c r="AK26">
-        <v>0</v>
-      </c>
-      <c r="AL26">
-        <v>0</v>
-      </c>
-      <c r="AM26">
-        <v>2</v>
-      </c>
-      <c r="AN26">
-        <v>1</v>
-      </c>
-      <c r="AO26">
-        <v>9</v>
-      </c>
-      <c r="AP26">
-        <v>8</v>
-      </c>
-      <c r="AQ26">
-        <v>0</v>
-      </c>
-      <c r="AR26">
-        <v>0</v>
-      </c>
-      <c r="AS26">
-        <v>0</v>
-      </c>
-      <c r="AT26">
-        <v>0</v>
-      </c>
-      <c r="AU26">
-        <v>4</v>
-      </c>
-      <c r="AV26">
-        <v>2</v>
-      </c>
-      <c r="AW26">
-        <v>0</v>
-      </c>
-      <c r="AX26">
-        <v>0</v>
-      </c>
-      <c r="AY26">
-        <v>4</v>
-      </c>
-      <c r="AZ26">
-        <v>1</v>
-      </c>
-      <c r="BA26">
-        <v>2</v>
-      </c>
-      <c r="BB26">
-        <v>15</v>
-      </c>
-      <c r="BC26">
-        <v>12</v>
-      </c>
-      <c r="BD26">
-        <v>7</v>
-      </c>
-      <c r="BE26">
-        <v>1</v>
-      </c>
-      <c r="BF26">
-        <v>0</v>
-      </c>
-      <c r="BG26">
-        <v>0</v>
-      </c>
-      <c r="BH26">
-        <v>0</v>
-      </c>
-      <c r="BI26">
-        <v>0</v>
-      </c>
-      <c r="BJ26">
-        <v>0</v>
-      </c>
-      <c r="BK26">
-        <v>0</v>
-      </c>
-      <c r="BL26">
-        <v>0</v>
-      </c>
-      <c r="BM26">
-        <v>0</v>
-      </c>
-      <c r="BN26">
-        <v>7</v>
-      </c>
-      <c r="BO26">
-        <v>0</v>
-      </c>
-      <c r="BP26">
-        <v>16</v>
-      </c>
-      <c r="BQ26">
-        <v>1</v>
-      </c>
-      <c r="BR26">
-        <v>4</v>
-      </c>
-      <c r="BS26">
-        <v>0</v>
-      </c>
-      <c r="BT26">
-        <v>0</v>
-      </c>
-      <c r="BU26">
-        <v>9</v>
-      </c>
-      <c r="BV26">
-        <v>5</v>
-      </c>
-      <c r="BW26">
-        <v>1</v>
-      </c>
-      <c r="BX26">
-        <v>21</v>
-      </c>
-      <c r="BY26">
-        <v>8</v>
-      </c>
-      <c r="BZ26">
-        <v>1</v>
-      </c>
-      <c r="CA26" t="s">
-        <v>1011</v>
-      </c>
-      <c r="CB26">
-        <v>0</v>
-      </c>
-      <c r="CC26">
-        <v>0</v>
-      </c>
-      <c r="CD26">
-        <v>9</v>
-      </c>
-      <c r="CE26">
-        <v>4</v>
-      </c>
-      <c r="CF26">
-        <v>1</v>
-      </c>
-      <c r="CG26">
-        <v>1</v>
-      </c>
-      <c r="CH26">
-        <v>1</v>
-      </c>
-      <c r="CI26">
-        <v>0</v>
-      </c>
-      <c r="CJ26">
-        <v>0</v>
-      </c>
-      <c r="CK26">
-        <v>0</v>
-      </c>
-      <c r="CL26">
-        <v>4</v>
-      </c>
-      <c r="CM26">
-        <v>1</v>
-      </c>
-      <c r="CN26">
-        <v>7</v>
-      </c>
-      <c r="CO26">
-        <v>1</v>
-      </c>
-      <c r="CP26">
-        <v>0</v>
-      </c>
-      <c r="CQ26">
-        <v>1</v>
-      </c>
-      <c r="CR26">
-        <v>1</v>
-      </c>
-      <c r="CS26">
-        <v>0</v>
-      </c>
-      <c r="CT26">
-        <v>0</v>
-      </c>
-      <c r="CU26">
-        <v>0</v>
-      </c>
-      <c r="CV26">
-        <v>0</v>
-      </c>
-      <c r="CW26">
-        <v>1</v>
-      </c>
-      <c r="CX26">
-        <v>0</v>
-      </c>
-      <c r="CY26">
-        <v>8</v>
-      </c>
-      <c r="CZ26">
-        <v>2</v>
-      </c>
       <c r="DA26">
         <v>0</v>
       </c>
@@ -108867,22 +108866,22 @@
         <v>0</v>
       </c>
       <c r="DI26">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="DJ26">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="DK26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="DL26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DM26">
-        <v>4</v>
+        <v>182</v>
       </c>
       <c r="DN26">
-        <v>2</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/HIF-data.xlsx
+++ b/HIF-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaspermundt/Dataanalyse/Hvidovre IF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDB8A93-0B21-8142-94D6-CD661FA21CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB8A748-7EA7-9143-A1E1-5FB8E690AFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18160" yWindow="600" windowWidth="15440" windowHeight="19080" activeTab="3" xr2:uid="{83688B59-0C36-8B41-9C3B-4425A1AB13A0}"/>
+    <workbookView xWindow="7280" yWindow="600" windowWidth="26320" windowHeight="19080" activeTab="2" xr2:uid="{83688B59-0C36-8B41-9C3B-4425A1AB13A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Kampdata" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="1011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2201" uniqueCount="1011">
   <si>
     <t>0.15</t>
   </si>
@@ -3290,7 +3290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3381,12 +3381,18 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{678A4781-0035-124F-927F-8A2FA4B2578B}"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="17">
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm/yy"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -3749,26 +3755,138 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FCA24030-CF89-1140-8A23-62B46ACBEC59}" name="Tabel1" displayName="Tabel1" ref="A1:L26" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
-  <autoFilter ref="A1:L26" xr:uid="{FCA24030-CF89-1140-8A23-62B46ACBEC59}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FCA24030-CF89-1140-8A23-62B46ACBEC59}" name="Tabel1" displayName="Tabel1" ref="A1:DT26" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+  <autoFilter ref="A1:DT26" xr:uid="{FCA24030-CF89-1140-8A23-62B46ACBEC59}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L26">
     <sortCondition ref="F1:F26"/>
   </sortState>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{7D0B3E1B-5632-964F-903F-7FB8C4201610}" name="PLAYER_WYID" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{2F15AFE9-43E8-8240-9677-3C3736E8AACE}" name="FIRSTNAME" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{64E33AEC-9F90-B84D-96E5-BCF3C11A62A8}" name="LASTNAME" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{9D2F2188-F8E5-9946-86DA-D8BCF976F766}" name="NAVN" dataDxfId="8">
+  <tableColumns count="124">
+    <tableColumn id="1" xr3:uid="{7D0B3E1B-5632-964F-903F-7FB8C4201610}" name="PLAYER_WYID" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{2F15AFE9-43E8-8240-9677-3C3736E8AACE}" name="FIRSTNAME" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{64E33AEC-9F90-B84D-96E5-BCF3C11A62A8}" name="LASTNAME" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{9D2F2188-F8E5-9946-86DA-D8BCF976F766}" name="NAVN" dataDxfId="9">
       <calculatedColumnFormula>B2&amp;" "&amp;C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{093BC782-A632-A641-BDE9-2F34073C12E4}" name="ROLECODE3" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{1BD83695-FD74-214A-B1F0-E0FD77AEDF75}" name="BIRTHDATE" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{B4F86C7F-33C8-1144-A8BD-F17FCEBFDBE7}" name="TEAMNAME" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{356956B6-69E2-644E-B79C-0AD42E47875D}" name="HEIGHT" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{762CDBB5-A6C3-FF46-8DA6-91DED09A03F8}" name="FOD" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{5DAC7ADD-7DE2-FC4D-8BE6-AF9D52C96DA4}" name="CONTRACT" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{234EE748-7C60-E94A-8168-20981178A9D6}" name="POS" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{2A24146D-AA81-4D46-B8C8-8CC3D118794E}" name="PRIOR" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{093BC782-A632-A641-BDE9-2F34073C12E4}" name="ROLECODE3" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{1BD83695-FD74-214A-B1F0-E0FD77AEDF75}" name="BIRTHDATE" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{B4F86C7F-33C8-1144-A8BD-F17FCEBFDBE7}" name="TEAMNAME" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{356956B6-69E2-644E-B79C-0AD42E47875D}" name="HEIGHT" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{762CDBB5-A6C3-FF46-8DA6-91DED09A03F8}" name="FOD" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{5DAC7ADD-7DE2-FC4D-8BE6-AF9D52C96DA4}" name="CONTRACT" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{234EE748-7C60-E94A-8168-20981178A9D6}" name="POS" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{2A24146D-AA81-4D46-B8C8-8CC3D118794E}" name="PRIOR" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{0DD7A527-F115-7346-8840-304C3C834134}" name="KAMPE"/>
+    <tableColumn id="14" xr3:uid="{C66B277D-2F35-1B4F-9CBA-03CEEDC07DD7}" name="MATCHESINSTART"/>
+    <tableColumn id="15" xr3:uid="{2246D02E-56DD-4E4C-81ED-70B78679BA08}" name="MATCHESSUBSTITUTED"/>
+    <tableColumn id="16" xr3:uid="{769B9280-4BA5-E641-A600-03AC784D3A05}" name="MATCHESCOMINGOFF"/>
+    <tableColumn id="17" xr3:uid="{563C3D29-B204-6241-B19D-780B22436C69}" name="MINUTESONFIELD"/>
+    <tableColumn id="18" xr3:uid="{39285147-CF03-9A4B-B82A-CC5BC58000D5}" name="MINUTESTAGGED"/>
+    <tableColumn id="19" xr3:uid="{FC7E687C-30AE-854C-9F3C-2475E1FDDCDE}" name="GOALS"/>
+    <tableColumn id="20" xr3:uid="{61737365-87C7-FE49-8989-2DE8DD7D2CEC}" name="ASSISTS"/>
+    <tableColumn id="21" xr3:uid="{C4634FBB-51D3-7C40-8EE7-06C675659728}" name="SHOTS"/>
+    <tableColumn id="22" xr3:uid="{5610D02E-0A27-314B-94FE-16647878F6C7}" name="HEADSHOTS"/>
+    <tableColumn id="23" xr3:uid="{0F3FF61E-95CC-6C49-8680-ABCCE1D91330}" name="YELLOWCARDS"/>
+    <tableColumn id="24" xr3:uid="{C261EE30-B3F3-BA4E-B68E-91DE44FF68D3}" name="REDCARDS"/>
+    <tableColumn id="25" xr3:uid="{DF80CB01-37A1-C54D-B4DE-6F8D0538516F}" name="DIRECTREDCARDS"/>
+    <tableColumn id="26" xr3:uid="{A981A1DD-4C2C-CC46-A936-DF4F16E1636F}" name="PENALTIES"/>
+    <tableColumn id="27" xr3:uid="{DED98A4D-B551-5948-83CB-5F52651C3560}" name="LINKUPPLAYS"/>
+    <tableColumn id="28" xr3:uid="{C8E4834D-3353-FA44-899B-06E4AA3DAEBC}" name="DUELS"/>
+    <tableColumn id="29" xr3:uid="{0A11E990-28FE-3242-AEE0-10075C524CB5}" name="DUELSWON"/>
+    <tableColumn id="30" xr3:uid="{0DAF0173-28B4-1F48-B45A-4E94B25B9E19}" name="DEFENSIVEDUELS"/>
+    <tableColumn id="31" xr3:uid="{9ACB90A3-8A2C-694B-BC01-A2C1421AD8F1}" name="DEFENSIVEDUELSWON"/>
+    <tableColumn id="32" xr3:uid="{75038D00-A8B7-F14D-AA10-5568FBD0083A}" name="OFFENSIVEDUELS"/>
+    <tableColumn id="33" xr3:uid="{D8B85D39-5A79-4C48-ABA0-1F19B1AE3111}" name="OFFENSIVEDUELSWON"/>
+    <tableColumn id="34" xr3:uid="{0F82405F-94B7-DC4B-9981-D7D6BC1548C1}" name="AERIALDUELS"/>
+    <tableColumn id="35" xr3:uid="{1346C00C-42CD-1547-9E0F-CE7AC767ABBF}" name="AERIALDUELSWON"/>
+    <tableColumn id="36" xr3:uid="{005726DF-613C-A946-84AA-AA760B6C17A4}" name="FOULS"/>
+    <tableColumn id="37" xr3:uid="{0BB82C5F-16EB-CA4F-A05B-77E2B0820E3C}" name="PASSES"/>
+    <tableColumn id="38" xr3:uid="{580C41BB-9559-734A-ACEF-2EAA2BB3B25E}" name="SUCCESSFULPASSES"/>
+    <tableColumn id="39" xr3:uid="{BA7F7831-D9C1-4A40-B85B-BAFE900DF6CA}" name="SMARTPASSES"/>
+    <tableColumn id="40" xr3:uid="{269319DA-7353-3546-8B1F-E7E506EE7C7C}" name="SUCCESSFULSMARTPASSES"/>
+    <tableColumn id="41" xr3:uid="{9493F99D-65E9-3645-B4D3-1E498BFF241E}" name="PASSESTOFINALTHIRD"/>
+    <tableColumn id="42" xr3:uid="{A98D2319-B04B-1F45-8E13-6D91D355594B}" name="SUCCESSFULPASSESTOFINALTHIRD"/>
+    <tableColumn id="43" xr3:uid="{A6BCB964-BAA7-584C-A657-C88730D77CFE}" name="CROSSES"/>
+    <tableColumn id="44" xr3:uid="{AFBE70C0-DD89-0B4F-8360-BEAE2B1AF348}" name="SUCCESSFULCROSSES"/>
+    <tableColumn id="45" xr3:uid="{221D5BB3-E62D-AD4D-B40B-84A9492E5D78}" name="FORWARDPASSES"/>
+    <tableColumn id="46" xr3:uid="{771D5F89-9394-1E48-B61C-EC3A7D62201E}" name="SUCCESSFULFORWARDPASSES"/>
+    <tableColumn id="47" xr3:uid="{70297A25-21B3-9541-A5FD-DC711FF06AF2}" name="BACKPASSES"/>
+    <tableColumn id="48" xr3:uid="{31347550-A379-1745-A4AA-8C522E9711E5}" name="SUCCESSFULBACKPASSES"/>
+    <tableColumn id="49" xr3:uid="{1B716198-FDC3-AD43-AB94-C566A58B9FDA}" name="THROUGHPASSES"/>
+    <tableColumn id="50" xr3:uid="{E2362D2F-986A-0B43-8822-C89A4904C80E}" name="SUCCESSFULTHROUGHPASSES"/>
+    <tableColumn id="51" xr3:uid="{655CFD4F-06E4-E948-BA43-23FCC32CF9FA}" name="KEYPASSES"/>
+    <tableColumn id="52" xr3:uid="{0BFDB7A3-6065-F14C-879C-61BED8E7BB81}" name="SUCCESSFULKEYPASSES"/>
+    <tableColumn id="53" xr3:uid="{BD0F30D3-6917-654B-8288-B8405C3AFB70}" name="VERTICALPASSES"/>
+    <tableColumn id="54" xr3:uid="{8F59A0BD-54F0-C84B-B0A0-B30B32C7793A}" name="SUCCESSFULVERTICALPASSES"/>
+    <tableColumn id="55" xr3:uid="{6CACD3D8-69BE-E445-A120-3F5B26038756}" name="LONGPASSES"/>
+    <tableColumn id="56" xr3:uid="{A31AE8E5-6367-C949-9793-E64309F8E592}" name="SUCCESSFULLONGPASSES"/>
+    <tableColumn id="57" xr3:uid="{432C7BB5-9080-8C40-BF8C-9637A8DD2B7B}" name="DRIBBLES"/>
+    <tableColumn id="58" xr3:uid="{F21EDEAF-438B-9743-9BA6-C14D9E844299}" name="SUCCESSFULDRIBBLES"/>
+    <tableColumn id="59" xr3:uid="{D5A90073-2132-C347-937A-B0077BA8E738}" name="INTERCEPTIONS"/>
+    <tableColumn id="60" xr3:uid="{AFA2362C-73BB-C94F-9D9E-813B941AEA24}" name="DEFENSIVEACTIONS"/>
+    <tableColumn id="61" xr3:uid="{210BBFD2-C41D-D347-9E68-6EF7336850D4}" name="SUCCESSFULDEFENSIVEACTION"/>
+    <tableColumn id="62" xr3:uid="{E64FBE1B-05C5-BE44-A9F8-2460FE90170E}" name="ATTACKINGACTIONS"/>
+    <tableColumn id="63" xr3:uid="{17730B75-29D8-CA44-8F91-B864D491DCA7}" name="SUCCESSFULATTACKINGACTIONS"/>
+    <tableColumn id="64" xr3:uid="{57BC49CA-CA52-F842-A5B0-638A75821F23}" name="FREEKICKS"/>
+    <tableColumn id="65" xr3:uid="{75F2A29F-ABC8-B44C-AF7E-C402C1728AF2}" name="FREEKICKSONTARGET"/>
+    <tableColumn id="66" xr3:uid="{FE1BA0BB-801E-C748-A95C-6F95B555AE28}" name="DIRECTFREEKICKS"/>
+    <tableColumn id="67" xr3:uid="{F7A6356F-E814-B348-9B71-1A3753965021}" name="DIRECTFREEKICKSONTARGET"/>
+    <tableColumn id="68" xr3:uid="{1C0A1B05-A00D-D645-AC70-ACC5C64CF4A4}" name="CORNERS"/>
+    <tableColumn id="69" xr3:uid="{8A5AF242-9C49-FC4E-B1AA-193C863C5EA1}" name="SUCCESSFULPENALTIES"/>
+    <tableColumn id="70" xr3:uid="{ADEF826C-6B78-D34C-8B1F-FFB3879DB081}" name="SUCCESSFULLINKUPPLAYS"/>
+    <tableColumn id="71" xr3:uid="{F5564D1C-6D67-F64E-B363-224C4478273C}" name="ACCELERATIONS"/>
+    <tableColumn id="72" xr3:uid="{155C67E2-1651-D043-ADED-A0BB352E562E}" name="PRESSINGDUELS"/>
+    <tableColumn id="73" xr3:uid="{FDADDC80-5743-724A-AC69-C89FDE53CD15}" name="PRESSINGDUELSWON"/>
+    <tableColumn id="74" xr3:uid="{A8F25DC2-BB8C-9C45-836C-A0AC8269C1A3}" name="LOOSEBALLDUELS"/>
+    <tableColumn id="75" xr3:uid="{D826B136-38A3-3A44-9C53-5A6E1E115BA3}" name="LOOSEBALLDUELSWON"/>
+    <tableColumn id="76" xr3:uid="{5B13B666-8DB4-D640-BA8C-D1172F35F8D1}" name="MISSEDBALLS"/>
+    <tableColumn id="77" xr3:uid="{15F00E97-81B4-FE42-BBA0-6FD11BD1F13D}" name="SHOTASSISTS"/>
+    <tableColumn id="78" xr3:uid="{F4045163-E5DE-154E-877C-F77AD80CF743}" name="SHOTONTARGETASSISTS"/>
+    <tableColumn id="79" xr3:uid="{C95E3F7B-9959-024B-B31E-F47A1C943EE1}" name="RECOVERIES"/>
+    <tableColumn id="80" xr3:uid="{954D5751-BA0E-A84A-B720-D1B617FF1C43}" name="OPPONENTHALFRECOVERIES"/>
+    <tableColumn id="81" xr3:uid="{2A993429-1CED-014C-A828-A881914DAB63}" name="DANGEROUSOPPONENTHALFRECOVERIES"/>
+    <tableColumn id="82" xr3:uid="{53F5B1C9-7530-264A-A99D-13D537051627}" name="LOSSES"/>
+    <tableColumn id="83" xr3:uid="{74BF0909-70ED-944C-A69F-92371AE1F86F}" name="OWNHALFLOSSES"/>
+    <tableColumn id="84" xr3:uid="{8010733A-4212-C24B-9366-691C1E2BD857}" name="DANGEROUSOWNHALFLOSSES"/>
+    <tableColumn id="85" xr3:uid="{6FDED4D3-38B9-3E48-81A8-77088DE9F4C6}" name="XGSHOT" dataDxfId="0"/>
+    <tableColumn id="86" xr3:uid="{32B69521-47EA-7E49-B51D-C7AD1C68ED06}" name="XGASSIST"/>
+    <tableColumn id="87" xr3:uid="{800C8D1C-C93C-C846-8AF8-7D76C52EE666}" name="XGSAVE"/>
+    <tableColumn id="88" xr3:uid="{81DC7BAE-9BCC-A147-BB3A-417A3C649539}" name="RECEIVEDPASS"/>
+    <tableColumn id="89" xr3:uid="{74A9E091-632D-4D47-AEC0-8F1ABFF18214}" name="TOUCHINBOX"/>
+    <tableColumn id="90" xr3:uid="{ED6E6088-147E-F345-B5B6-E55C5022CF75}" name="PROGRESSIVERUN"/>
+    <tableColumn id="91" xr3:uid="{0D5B8DFC-C8A1-2547-95C3-E8980CCED341}" name="OFFSIDES"/>
+    <tableColumn id="92" xr3:uid="{D6A3488E-5C79-4F42-8F01-7703AC22B8A3}" name="CLEARANCES"/>
+    <tableColumn id="93" xr3:uid="{11E5CFF9-0842-1342-96AB-F47281506E34}" name="SECONDASSISTS"/>
+    <tableColumn id="94" xr3:uid="{0FCBCF57-2552-804D-AE40-CC3D59914F95}" name="THIRDASSISTS"/>
+    <tableColumn id="95" xr3:uid="{79DAAAE4-3668-B341-AD61-5940973E7466}" name="SHOTSBLOCKED"/>
+    <tableColumn id="96" xr3:uid="{2723AB90-6B04-DC44-B9F5-9E84BF0B3959}" name="FOULSSUFFERED"/>
+    <tableColumn id="97" xr3:uid="{0C4CF78A-30AD-DD4B-B343-7F6A9EE067B2}" name="PROGRESSIVEPASSES"/>
+    <tableColumn id="98" xr3:uid="{1031AD0E-63A0-CF47-800B-36237C6A0369}" name="COUNTERPRESSINGRECOVERIES"/>
+    <tableColumn id="99" xr3:uid="{4353FB0D-B8A9-3046-BCA9-74909B934D4F}" name="SLIDINGTACKLES"/>
+    <tableColumn id="100" xr3:uid="{9E79B621-7436-7C4D-B3A9-A7192A9EFA1E}" name="GOALKICKS"/>
+    <tableColumn id="101" xr3:uid="{3B5D084E-FA86-2149-9390-3BAF1906F864}" name="DRIBBLESAGAINST"/>
+    <tableColumn id="102" xr3:uid="{0518CE8C-2D4B-C44B-88F1-AC069E12F485}" name="DRIBBLESAGAINSTWON"/>
+    <tableColumn id="103" xr3:uid="{2CD3BE69-7CA8-8A45-AF1B-927035D5A9E4}" name="GOALKICKSSHORT"/>
+    <tableColumn id="104" xr3:uid="{C4E04A04-B61C-0747-A793-28E00013EE45}" name="GOALKICKSLONG"/>
+    <tableColumn id="105" xr3:uid="{1FA3129F-719B-864A-8AB5-C97ADFABF8E3}" name="SHOTSONTARGET"/>
+    <tableColumn id="106" xr3:uid="{BA59B994-0B90-194D-9C83-552A96777E18}" name="SUCCESSFULPROGRESSIVEPASSES"/>
+    <tableColumn id="107" xr3:uid="{9A2EFF9B-3D39-D040-A2B6-8DA3F1E281B2}" name="SUCCESSFULSLIDINGTACKLES"/>
+    <tableColumn id="108" xr3:uid="{8EEB5A0F-A978-CC4F-ACBA-E828CA820FCD}" name="SUCCESSFULGOALKICKS"/>
+    <tableColumn id="109" xr3:uid="{F3679E9F-6794-AA43-87EE-0EA2A597BD4C}" name="FIELDAERIALDUELS"/>
+    <tableColumn id="110" xr3:uid="{347AE293-48CA-CB4F-856D-FD19C8D21FE5}" name="FIELDAERIALDUELSWON"/>
+    <tableColumn id="111" xr3:uid="{7F91B7B3-A564-1C42-892B-F19D8DF13669}" name="GKCLEANSHEETS"/>
+    <tableColumn id="112" xr3:uid="{2935B3E8-FE29-114F-B41C-3CF14A466FFA}" name="GKCONCEDEDGOALS"/>
+    <tableColumn id="113" xr3:uid="{BC5D0862-7E76-AD44-81EE-80CCB537D7D5}" name="GKSHOTSAGAINST"/>
+    <tableColumn id="114" xr3:uid="{68B18AB9-A946-4F4A-83C6-7C610F2762E3}" name="GKEXITS"/>
+    <tableColumn id="115" xr3:uid="{DAA57A19-A948-F74E-8C3F-834CCD90379A}" name="GKSUCCESSFULEXITS"/>
+    <tableColumn id="116" xr3:uid="{5488BB63-5CD1-3247-BF83-1D78F0CE9424}" name="GKAERIALDUELS"/>
+    <tableColumn id="117" xr3:uid="{FBAA702D-D362-3542-8890-53AD0A6A106B}" name="GKAERIALDUELSWON"/>
+    <tableColumn id="118" xr3:uid="{4F02DE9D-CEBB-4348-813E-4E93E12AD708}" name="GKSAVES"/>
+    <tableColumn id="119" xr3:uid="{88012361-0626-8843-A7DE-FC56908C096C}" name="NEWDUELSWON"/>
+    <tableColumn id="120" xr3:uid="{22081610-06B5-1343-BAD8-FC8067F34E81}" name="NEWDEFENSIVEDUELSWON"/>
+    <tableColumn id="121" xr3:uid="{390B6D95-021D-7545-AA35-E54EADF65FC7}" name="NEWOFFENSIVEDUELSWON"/>
+    <tableColumn id="122" xr3:uid="{E670728E-154B-5148-BDBE-B79E80C0F11C}" name="NEWSUCCESSFULDRIBBLES"/>
+    <tableColumn id="123" xr3:uid="{199EC4BF-2383-9C43-96D3-A2E89B8ED802}" name="LATERALPASSES"/>
+    <tableColumn id="124" xr3:uid="{DF8AE563-AB96-4C45-814A-A05F4A212531}" name="SUCCESSFULLATERALPASSES"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -98610,10 +98728,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1AC1AD1-D849-1143-97E3-C16788AF0B64}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:DT26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -98631,7 +98749,7 @@
     <col min="11" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>4</v>
       </c>
@@ -98668,8 +98786,344 @@
       <c r="L1" s="24" t="s">
         <v>917</v>
       </c>
+      <c r="M1" s="38" t="s">
+        <v>835</v>
+      </c>
+      <c r="N1" s="38" t="s">
+        <v>836</v>
+      </c>
+      <c r="O1" s="38" t="s">
+        <v>837</v>
+      </c>
+      <c r="P1" s="38" t="s">
+        <v>838</v>
+      </c>
+      <c r="Q1" s="38" t="s">
+        <v>839</v>
+      </c>
+      <c r="R1" s="38" t="s">
+        <v>840</v>
+      </c>
+      <c r="S1" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="U1" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" s="38" t="s">
+        <v>841</v>
+      </c>
+      <c r="W1" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" s="38" t="s">
+        <v>842</v>
+      </c>
+      <c r="Z1" s="38" t="s">
+        <v>843</v>
+      </c>
+      <c r="AA1" s="38" t="s">
+        <v>844</v>
+      </c>
+      <c r="AB1" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC1" s="38" t="s">
+        <v>845</v>
+      </c>
+      <c r="AD1" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE1" s="38" t="s">
+        <v>846</v>
+      </c>
+      <c r="AF1" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG1" s="38" t="s">
+        <v>847</v>
+      </c>
+      <c r="AH1" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI1" s="38" t="s">
+        <v>848</v>
+      </c>
+      <c r="AJ1" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK1" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL1" s="38" t="s">
+        <v>849</v>
+      </c>
+      <c r="AM1" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN1" s="38" t="s">
+        <v>850</v>
+      </c>
+      <c r="AO1" s="38" t="s">
+        <v>851</v>
+      </c>
+      <c r="AP1" s="38" t="s">
+        <v>852</v>
+      </c>
+      <c r="AQ1" s="38" t="s">
+        <v>853</v>
+      </c>
+      <c r="AR1" s="38" t="s">
+        <v>854</v>
+      </c>
+      <c r="AS1" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT1" s="38" t="s">
+        <v>855</v>
+      </c>
+      <c r="AU1" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV1" s="38" t="s">
+        <v>856</v>
+      </c>
+      <c r="AW1" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX1" s="38" t="s">
+        <v>857</v>
+      </c>
+      <c r="AY1" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="AZ1" s="38" t="s">
+        <v>858</v>
+      </c>
+      <c r="BA1" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="BB1" s="38" t="s">
+        <v>859</v>
+      </c>
+      <c r="BC1" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="BD1" s="38" t="s">
+        <v>860</v>
+      </c>
+      <c r="BE1" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="BF1" s="38" t="s">
+        <v>861</v>
+      </c>
+      <c r="BG1" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="BH1" s="38" t="s">
+        <v>862</v>
+      </c>
+      <c r="BI1" s="38" t="s">
+        <v>863</v>
+      </c>
+      <c r="BJ1" s="38" t="s">
+        <v>864</v>
+      </c>
+      <c r="BK1" s="38" t="s">
+        <v>865</v>
+      </c>
+      <c r="BL1" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="BM1" s="38" t="s">
+        <v>866</v>
+      </c>
+      <c r="BN1" s="38" t="s">
+        <v>867</v>
+      </c>
+      <c r="BO1" s="38" t="s">
+        <v>868</v>
+      </c>
+      <c r="BP1" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="BQ1" s="38" t="s">
+        <v>869</v>
+      </c>
+      <c r="BR1" s="38" t="s">
+        <v>870</v>
+      </c>
+      <c r="BS1" s="38" t="s">
+        <v>871</v>
+      </c>
+      <c r="BT1" s="38" t="s">
+        <v>872</v>
+      </c>
+      <c r="BU1" s="38" t="s">
+        <v>873</v>
+      </c>
+      <c r="BV1" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="BW1" s="38" t="s">
+        <v>874</v>
+      </c>
+      <c r="BX1" s="38" t="s">
+        <v>875</v>
+      </c>
+      <c r="BY1" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="BZ1" s="38" t="s">
+        <v>876</v>
+      </c>
+      <c r="CA1" s="38" t="s">
+        <v>877</v>
+      </c>
+      <c r="CB1" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="CC1" s="38" t="s">
+        <v>878</v>
+      </c>
+      <c r="CD1" s="38" t="s">
+        <v>879</v>
+      </c>
+      <c r="CE1" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="CF1" s="38" t="s">
+        <v>880</v>
+      </c>
+      <c r="CG1" s="38" t="s">
+        <v>881</v>
+      </c>
+      <c r="CH1" s="38" t="s">
+        <v>882</v>
+      </c>
+      <c r="CI1" s="38" t="s">
+        <v>883</v>
+      </c>
+      <c r="CJ1" s="38" t="s">
+        <v>884</v>
+      </c>
+      <c r="CK1" s="38" t="s">
+        <v>885</v>
+      </c>
+      <c r="CL1" s="38" t="s">
+        <v>886</v>
+      </c>
+      <c r="CM1" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="CN1" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="CO1" s="38" t="s">
+        <v>887</v>
+      </c>
+      <c r="CP1" s="38" t="s">
+        <v>888</v>
+      </c>
+      <c r="CQ1" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="CR1" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="CS1" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT1" s="38" t="s">
+        <v>889</v>
+      </c>
+      <c r="CU1" s="38" t="s">
+        <v>890</v>
+      </c>
+      <c r="CV1" s="38" t="s">
+        <v>891</v>
+      </c>
+      <c r="CW1" s="38" t="s">
+        <v>892</v>
+      </c>
+      <c r="CX1" s="38" t="s">
+        <v>893</v>
+      </c>
+      <c r="CY1" s="38" t="s">
+        <v>894</v>
+      </c>
+      <c r="CZ1" s="38" t="s">
+        <v>895</v>
+      </c>
+      <c r="DA1" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="DB1" s="38" t="s">
+        <v>896</v>
+      </c>
+      <c r="DC1" s="38" t="s">
+        <v>897</v>
+      </c>
+      <c r="DD1" s="38" t="s">
+        <v>898</v>
+      </c>
+      <c r="DE1" s="38" t="s">
+        <v>899</v>
+      </c>
+      <c r="DF1" s="38" t="s">
+        <v>900</v>
+      </c>
+      <c r="DG1" s="38" t="s">
+        <v>901</v>
+      </c>
+      <c r="DH1" s="38" t="s">
+        <v>902</v>
+      </c>
+      <c r="DI1" s="38" t="s">
+        <v>903</v>
+      </c>
+      <c r="DJ1" s="38" t="s">
+        <v>904</v>
+      </c>
+      <c r="DK1" s="38" t="s">
+        <v>905</v>
+      </c>
+      <c r="DL1" s="38" t="s">
+        <v>906</v>
+      </c>
+      <c r="DM1" s="38" t="s">
+        <v>907</v>
+      </c>
+      <c r="DN1" s="38" t="s">
+        <v>908</v>
+      </c>
+      <c r="DO1" s="38" t="s">
+        <v>909</v>
+      </c>
+      <c r="DP1" s="38" t="s">
+        <v>910</v>
+      </c>
+      <c r="DQ1" s="38" t="s">
+        <v>911</v>
+      </c>
+      <c r="DR1" s="38" t="s">
+        <v>912</v>
+      </c>
+      <c r="DS1" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="DT1" s="38" t="s">
+        <v>913</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>765998</v>
       </c>
@@ -98705,8 +99159,344 @@
       <c r="L2" s="14" t="s">
         <v>918</v>
       </c>
+      <c r="M2">
+        <v>6</v>
+      </c>
+      <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <v>407</v>
+      </c>
+      <c r="R2">
+        <v>407</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>3</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>2</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>93</v>
+      </c>
+      <c r="AC2">
+        <v>37</v>
+      </c>
+      <c r="AD2">
+        <v>50</v>
+      </c>
+      <c r="AE2">
+        <v>15</v>
+      </c>
+      <c r="AF2">
+        <v>24</v>
+      </c>
+      <c r="AG2">
+        <v>12</v>
+      </c>
+      <c r="AH2">
+        <v>7</v>
+      </c>
+      <c r="AI2">
+        <v>5</v>
+      </c>
+      <c r="AJ2">
+        <v>12</v>
+      </c>
+      <c r="AK2">
+        <v>155</v>
+      </c>
+      <c r="AL2">
+        <v>128</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>13</v>
+      </c>
+      <c r="AP2">
+        <v>10</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>39</v>
+      </c>
+      <c r="AT2">
+        <v>29</v>
+      </c>
+      <c r="AU2">
+        <v>35</v>
+      </c>
+      <c r="AV2">
+        <v>33</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>46</v>
+      </c>
+      <c r="BB2">
+        <v>38</v>
+      </c>
+      <c r="BC2">
+        <v>13</v>
+      </c>
+      <c r="BD2">
+        <v>7</v>
+      </c>
+      <c r="BE2">
+        <v>3</v>
+      </c>
+      <c r="BF2">
+        <v>2</v>
+      </c>
+      <c r="BG2">
+        <v>17</v>
+      </c>
+      <c r="BH2">
+        <v>70</v>
+      </c>
+      <c r="BI2">
+        <v>51</v>
+      </c>
+      <c r="BJ2">
+        <v>6</v>
+      </c>
+      <c r="BK2">
+        <v>2</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>1</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>1</v>
+      </c>
+      <c r="BT2">
+        <v>6</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>12</v>
+      </c>
+      <c r="BW2">
+        <v>5</v>
+      </c>
+      <c r="BX2">
+        <v>2</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>50</v>
+      </c>
+      <c r="CB2">
+        <v>13</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>44</v>
+      </c>
+      <c r="CE2">
+        <v>22</v>
+      </c>
+      <c r="CF2">
+        <v>1</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>549</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>93</v>
+      </c>
+      <c r="CK2">
+        <v>2</v>
+      </c>
+      <c r="CL2">
+        <v>2</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>4</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>1</v>
+      </c>
+      <c r="CQ2">
+        <v>1</v>
+      </c>
+      <c r="CR2">
+        <v>5</v>
+      </c>
+      <c r="CS2">
+        <v>20</v>
+      </c>
+      <c r="CT2">
+        <v>27</v>
+      </c>
+      <c r="CU2">
+        <v>3</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>6</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="CZ2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>2</v>
+      </c>
+      <c r="DB2">
+        <v>11</v>
+      </c>
+      <c r="DC2">
+        <v>1</v>
+      </c>
+      <c r="DD2">
+        <v>0</v>
+      </c>
+      <c r="DE2">
+        <v>7</v>
+      </c>
+      <c r="DF2">
+        <v>5</v>
+      </c>
+      <c r="DG2">
+        <v>0</v>
+      </c>
+      <c r="DH2">
+        <v>0</v>
+      </c>
+      <c r="DI2">
+        <v>0</v>
+      </c>
+      <c r="DJ2">
+        <v>0</v>
+      </c>
+      <c r="DK2">
+        <v>0</v>
+      </c>
+      <c r="DL2">
+        <v>0</v>
+      </c>
+      <c r="DM2">
+        <v>0</v>
+      </c>
+      <c r="DN2">
+        <v>0</v>
+      </c>
+      <c r="DO2">
+        <v>48</v>
+      </c>
+      <c r="DP2">
+        <v>31</v>
+      </c>
+      <c r="DQ2">
+        <v>7</v>
+      </c>
+      <c r="DR2">
+        <v>0</v>
+      </c>
+      <c r="DS2">
+        <v>46</v>
+      </c>
+      <c r="DT2">
+        <v>38</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>861969</v>
       </c>
@@ -98740,8 +99530,344 @@
       <c r="L3" s="14" t="s">
         <v>918</v>
       </c>
+      <c r="M3">
+        <v>9</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3">
+        <v>6</v>
+      </c>
+      <c r="Q3">
+        <v>355</v>
+      </c>
+      <c r="R3">
+        <v>355</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>2</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>3</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>59</v>
+      </c>
+      <c r="AC3">
+        <v>24</v>
+      </c>
+      <c r="AD3">
+        <v>14</v>
+      </c>
+      <c r="AE3">
+        <v>2</v>
+      </c>
+      <c r="AF3">
+        <v>21</v>
+      </c>
+      <c r="AG3">
+        <v>12</v>
+      </c>
+      <c r="AH3">
+        <v>9</v>
+      </c>
+      <c r="AI3">
+        <v>5</v>
+      </c>
+      <c r="AJ3">
+        <v>5</v>
+      </c>
+      <c r="AK3">
+        <v>139</v>
+      </c>
+      <c r="AL3">
+        <v>102</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>13</v>
+      </c>
+      <c r="AP3">
+        <v>8</v>
+      </c>
+      <c r="AQ3">
+        <v>12</v>
+      </c>
+      <c r="AR3">
+        <v>2</v>
+      </c>
+      <c r="AS3">
+        <v>40</v>
+      </c>
+      <c r="AT3">
+        <v>25</v>
+      </c>
+      <c r="AU3">
+        <v>33</v>
+      </c>
+      <c r="AV3">
+        <v>31</v>
+      </c>
+      <c r="AW3">
+        <v>1</v>
+      </c>
+      <c r="AX3">
+        <v>1</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>42</v>
+      </c>
+      <c r="BB3">
+        <v>28</v>
+      </c>
+      <c r="BC3">
+        <v>12</v>
+      </c>
+      <c r="BD3">
+        <v>10</v>
+      </c>
+      <c r="BE3">
+        <v>5</v>
+      </c>
+      <c r="BF3">
+        <v>3</v>
+      </c>
+      <c r="BG3">
+        <v>13</v>
+      </c>
+      <c r="BH3">
+        <v>29</v>
+      </c>
+      <c r="BI3">
+        <v>22</v>
+      </c>
+      <c r="BJ3">
+        <v>19</v>
+      </c>
+      <c r="BK3">
+        <v>5</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>5</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>2</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>15</v>
+      </c>
+      <c r="BW3">
+        <v>5</v>
+      </c>
+      <c r="BX3">
+        <v>4</v>
+      </c>
+      <c r="BY3">
+        <v>1</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>28</v>
+      </c>
+      <c r="CB3">
+        <v>10</v>
+      </c>
+      <c r="CC3">
+        <v>1</v>
+      </c>
+      <c r="CD3">
+        <v>49</v>
+      </c>
+      <c r="CE3">
+        <v>16</v>
+      </c>
+      <c r="CF3">
+        <v>3</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>999</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>706</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>102</v>
+      </c>
+      <c r="CK3">
+        <v>4</v>
+      </c>
+      <c r="CL3">
+        <v>9</v>
+      </c>
+      <c r="CM3">
+        <v>1</v>
+      </c>
+      <c r="CN3">
+        <v>2</v>
+      </c>
+      <c r="CO3">
+        <v>0</v>
+      </c>
+      <c r="CP3">
+        <v>0</v>
+      </c>
+      <c r="CQ3">
+        <v>1</v>
+      </c>
+      <c r="CR3">
+        <v>8</v>
+      </c>
+      <c r="CS3">
+        <v>21</v>
+      </c>
+      <c r="CT3">
+        <v>13</v>
+      </c>
+      <c r="CU3">
+        <v>2</v>
+      </c>
+      <c r="CV3">
+        <v>0</v>
+      </c>
+      <c r="CW3">
+        <v>6</v>
+      </c>
+      <c r="CX3">
+        <v>3</v>
+      </c>
+      <c r="CY3">
+        <v>0</v>
+      </c>
+      <c r="CZ3">
+        <v>0</v>
+      </c>
+      <c r="DA3">
+        <v>1</v>
+      </c>
+      <c r="DB3">
+        <v>12</v>
+      </c>
+      <c r="DC3">
+        <v>0</v>
+      </c>
+      <c r="DD3">
+        <v>0</v>
+      </c>
+      <c r="DE3">
+        <v>9</v>
+      </c>
+      <c r="DF3">
+        <v>5</v>
+      </c>
+      <c r="DG3">
+        <v>0</v>
+      </c>
+      <c r="DH3">
+        <v>0</v>
+      </c>
+      <c r="DI3">
+        <v>0</v>
+      </c>
+      <c r="DJ3">
+        <v>0</v>
+      </c>
+      <c r="DK3">
+        <v>0</v>
+      </c>
+      <c r="DL3">
+        <v>0</v>
+      </c>
+      <c r="DM3">
+        <v>0</v>
+      </c>
+      <c r="DN3">
+        <v>0</v>
+      </c>
+      <c r="DO3">
+        <v>28</v>
+      </c>
+      <c r="DP3">
+        <v>7</v>
+      </c>
+      <c r="DQ3">
+        <v>11</v>
+      </c>
+      <c r="DR3">
+        <v>2</v>
+      </c>
+      <c r="DS3">
+        <v>42</v>
+      </c>
+      <c r="DT3">
+        <v>28</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>846919</v>
       </c>
@@ -98777,8 +99903,344 @@
       <c r="L4" s="14" t="s">
         <v>919</v>
       </c>
+      <c r="M4">
+        <v>13</v>
+      </c>
+      <c r="N4">
+        <v>9</v>
+      </c>
+      <c r="O4">
+        <v>8</v>
+      </c>
+      <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <v>762</v>
+      </c>
+      <c r="R4">
+        <v>762</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>10</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>8</v>
+      </c>
+      <c r="AB4">
+        <v>155</v>
+      </c>
+      <c r="AC4">
+        <v>69</v>
+      </c>
+      <c r="AD4">
+        <v>44</v>
+      </c>
+      <c r="AE4">
+        <v>12</v>
+      </c>
+      <c r="AF4">
+        <v>99</v>
+      </c>
+      <c r="AG4">
+        <v>53</v>
+      </c>
+      <c r="AH4">
+        <v>8</v>
+      </c>
+      <c r="AI4">
+        <v>3</v>
+      </c>
+      <c r="AJ4">
+        <v>4</v>
+      </c>
+      <c r="AK4">
+        <v>176</v>
+      </c>
+      <c r="AL4">
+        <v>118</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>12</v>
+      </c>
+      <c r="AP4">
+        <v>7</v>
+      </c>
+      <c r="AQ4">
+        <v>23</v>
+      </c>
+      <c r="AR4">
+        <v>6</v>
+      </c>
+      <c r="AS4">
+        <v>48</v>
+      </c>
+      <c r="AT4">
+        <v>27</v>
+      </c>
+      <c r="AU4">
+        <v>45</v>
+      </c>
+      <c r="AV4">
+        <v>39</v>
+      </c>
+      <c r="AW4">
+        <v>1</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>2</v>
+      </c>
+      <c r="AZ4">
+        <v>2</v>
+      </c>
+      <c r="BA4">
+        <v>55</v>
+      </c>
+      <c r="BB4">
+        <v>37</v>
+      </c>
+      <c r="BC4">
+        <v>7</v>
+      </c>
+      <c r="BD4">
+        <v>4</v>
+      </c>
+      <c r="BE4">
+        <v>54</v>
+      </c>
+      <c r="BF4">
+        <v>43</v>
+      </c>
+      <c r="BG4">
+        <v>23</v>
+      </c>
+      <c r="BH4">
+        <v>67</v>
+      </c>
+      <c r="BI4">
+        <v>52</v>
+      </c>
+      <c r="BJ4">
+        <v>87</v>
+      </c>
+      <c r="BK4">
+        <v>36</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>6</v>
+      </c>
+      <c r="BS4">
+        <v>3</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>4</v>
+      </c>
+      <c r="BW4">
+        <v>1</v>
+      </c>
+      <c r="BX4">
+        <v>2</v>
+      </c>
+      <c r="BY4">
+        <v>5</v>
+      </c>
+      <c r="BZ4">
+        <v>2</v>
+      </c>
+      <c r="CA4">
+        <v>34</v>
+      </c>
+      <c r="CB4">
+        <v>13</v>
+      </c>
+      <c r="CC4">
+        <v>2</v>
+      </c>
+      <c r="CD4">
+        <v>82</v>
+      </c>
+      <c r="CE4">
+        <v>23</v>
+      </c>
+      <c r="CF4">
+        <v>4</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>457</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>805</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>136</v>
+      </c>
+      <c r="CK4">
+        <v>25</v>
+      </c>
+      <c r="CL4">
+        <v>38</v>
+      </c>
+      <c r="CM4">
+        <v>1</v>
+      </c>
+      <c r="CN4">
+        <v>2</v>
+      </c>
+      <c r="CO4">
+        <v>0</v>
+      </c>
+      <c r="CP4">
+        <v>0</v>
+      </c>
+      <c r="CQ4">
+        <v>2</v>
+      </c>
+      <c r="CR4">
+        <v>5</v>
+      </c>
+      <c r="CS4">
+        <v>32</v>
+      </c>
+      <c r="CT4">
+        <v>14</v>
+      </c>
+      <c r="CU4">
+        <v>0</v>
+      </c>
+      <c r="CV4">
+        <v>0</v>
+      </c>
+      <c r="CW4">
+        <v>9</v>
+      </c>
+      <c r="CX4">
+        <v>3</v>
+      </c>
+      <c r="CY4">
+        <v>0</v>
+      </c>
+      <c r="CZ4">
+        <v>0</v>
+      </c>
+      <c r="DA4">
+        <v>3</v>
+      </c>
+      <c r="DB4">
+        <v>21</v>
+      </c>
+      <c r="DC4">
+        <v>0</v>
+      </c>
+      <c r="DD4">
+        <v>0</v>
+      </c>
+      <c r="DE4">
+        <v>8</v>
+      </c>
+      <c r="DF4">
+        <v>3</v>
+      </c>
+      <c r="DG4">
+        <v>0</v>
+      </c>
+      <c r="DH4">
+        <v>0</v>
+      </c>
+      <c r="DI4">
+        <v>0</v>
+      </c>
+      <c r="DJ4">
+        <v>0</v>
+      </c>
+      <c r="DK4">
+        <v>0</v>
+      </c>
+      <c r="DL4">
+        <v>0</v>
+      </c>
+      <c r="DM4">
+        <v>0</v>
+      </c>
+      <c r="DN4">
+        <v>0</v>
+      </c>
+      <c r="DO4">
+        <v>71</v>
+      </c>
+      <c r="DP4">
+        <v>29</v>
+      </c>
+      <c r="DQ4">
+        <v>38</v>
+      </c>
+      <c r="DR4">
+        <v>27</v>
+      </c>
+      <c r="DS4">
+        <v>55</v>
+      </c>
+      <c r="DT4">
+        <v>37</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>926845</v>
       </c>
@@ -98814,8 +100276,344 @@
       <c r="L5" s="14" t="s">
         <v>918</v>
       </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>302</v>
+      </c>
+      <c r="R5">
+        <v>302</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>3</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>51</v>
+      </c>
+      <c r="AC5">
+        <v>30</v>
+      </c>
+      <c r="AD5">
+        <v>15</v>
+      </c>
+      <c r="AE5">
+        <v>4</v>
+      </c>
+      <c r="AF5">
+        <v>15</v>
+      </c>
+      <c r="AG5">
+        <v>11</v>
+      </c>
+      <c r="AH5">
+        <v>16</v>
+      </c>
+      <c r="AI5">
+        <v>11</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>206</v>
+      </c>
+      <c r="AL5">
+        <v>176</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>32</v>
+      </c>
+      <c r="AP5">
+        <v>19</v>
+      </c>
+      <c r="AQ5">
+        <v>1</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>79</v>
+      </c>
+      <c r="AT5">
+        <v>60</v>
+      </c>
+      <c r="AU5">
+        <v>15</v>
+      </c>
+      <c r="AV5">
+        <v>14</v>
+      </c>
+      <c r="AW5">
+        <v>4</v>
+      </c>
+      <c r="AX5">
+        <v>2</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>93</v>
+      </c>
+      <c r="BB5">
+        <v>87</v>
+      </c>
+      <c r="BC5">
+        <v>30</v>
+      </c>
+      <c r="BD5">
+        <v>14</v>
+      </c>
+      <c r="BE5">
+        <v>2</v>
+      </c>
+      <c r="BF5">
+        <v>2</v>
+      </c>
+      <c r="BG5">
+        <v>17</v>
+      </c>
+      <c r="BH5">
+        <v>33</v>
+      </c>
+      <c r="BI5">
+        <v>29</v>
+      </c>
+      <c r="BJ5">
+        <v>6</v>
+      </c>
+      <c r="BK5">
+        <v>4</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>5</v>
+      </c>
+      <c r="BW5">
+        <v>4</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>39</v>
+      </c>
+      <c r="CB5">
+        <v>6</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>47</v>
+      </c>
+      <c r="CE5">
+        <v>22</v>
+      </c>
+      <c r="CF5">
+        <v>4</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>1000</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <v>150</v>
+      </c>
+      <c r="CK5">
+        <v>1</v>
+      </c>
+      <c r="CL5">
+        <v>9</v>
+      </c>
+      <c r="CM5">
+        <v>0</v>
+      </c>
+      <c r="CN5">
+        <v>10</v>
+      </c>
+      <c r="CO5">
+        <v>0</v>
+      </c>
+      <c r="CP5">
+        <v>0</v>
+      </c>
+      <c r="CQ5">
+        <v>1</v>
+      </c>
+      <c r="CR5">
+        <v>7</v>
+      </c>
+      <c r="CS5">
+        <v>48</v>
+      </c>
+      <c r="CT5">
+        <v>13</v>
+      </c>
+      <c r="CU5">
+        <v>1</v>
+      </c>
+      <c r="CV5">
+        <v>7</v>
+      </c>
+      <c r="CW5">
+        <v>9</v>
+      </c>
+      <c r="CX5">
+        <v>5</v>
+      </c>
+      <c r="CY5">
+        <v>7</v>
+      </c>
+      <c r="CZ5">
+        <v>0</v>
+      </c>
+      <c r="DA5">
+        <v>2</v>
+      </c>
+      <c r="DB5">
+        <v>36</v>
+      </c>
+      <c r="DC5">
+        <v>1</v>
+      </c>
+      <c r="DD5">
+        <v>7</v>
+      </c>
+      <c r="DE5">
+        <v>16</v>
+      </c>
+      <c r="DF5">
+        <v>11</v>
+      </c>
+      <c r="DG5">
+        <v>0</v>
+      </c>
+      <c r="DH5">
+        <v>0</v>
+      </c>
+      <c r="DI5">
+        <v>0</v>
+      </c>
+      <c r="DJ5">
+        <v>0</v>
+      </c>
+      <c r="DK5">
+        <v>0</v>
+      </c>
+      <c r="DL5">
+        <v>0</v>
+      </c>
+      <c r="DM5">
+        <v>0</v>
+      </c>
+      <c r="DN5">
+        <v>0</v>
+      </c>
+      <c r="DO5">
+        <v>35</v>
+      </c>
+      <c r="DP5">
+        <v>11</v>
+      </c>
+      <c r="DQ5">
+        <v>9</v>
+      </c>
+      <c r="DR5">
+        <v>2</v>
+      </c>
+      <c r="DS5">
+        <v>93</v>
+      </c>
+      <c r="DT5">
+        <v>87</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>846920</v>
       </c>
@@ -98851,8 +100649,344 @@
       <c r="L6" s="14" t="s">
         <v>920</v>
       </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <v>37</v>
+      </c>
+      <c r="R6">
+        <v>37</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>3</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>2</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>9</v>
+      </c>
+      <c r="AL6">
+        <v>7</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>1</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>1</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>3</v>
+      </c>
+      <c r="AT6">
+        <v>3</v>
+      </c>
+      <c r="AU6">
+        <v>1</v>
+      </c>
+      <c r="AV6">
+        <v>1</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>5</v>
+      </c>
+      <c r="BB6">
+        <v>3</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>3</v>
+      </c>
+      <c r="BH6">
+        <v>5</v>
+      </c>
+      <c r="BI6">
+        <v>5</v>
+      </c>
+      <c r="BJ6">
+        <v>1</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>1</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>2</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>3</v>
+      </c>
+      <c r="CB6">
+        <v>1</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>6</v>
+      </c>
+      <c r="CE6">
+        <v>3</v>
+      </c>
+      <c r="CF6">
+        <v>1</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>6</v>
+      </c>
+      <c r="CK6">
+        <v>0</v>
+      </c>
+      <c r="CL6">
+        <v>0</v>
+      </c>
+      <c r="CM6">
+        <v>0</v>
+      </c>
+      <c r="CN6">
+        <v>0</v>
+      </c>
+      <c r="CO6">
+        <v>0</v>
+      </c>
+      <c r="CP6">
+        <v>0</v>
+      </c>
+      <c r="CQ6">
+        <v>0</v>
+      </c>
+      <c r="CR6">
+        <v>0</v>
+      </c>
+      <c r="CS6">
+        <v>2</v>
+      </c>
+      <c r="CT6">
+        <v>2</v>
+      </c>
+      <c r="CU6">
+        <v>0</v>
+      </c>
+      <c r="CV6">
+        <v>0</v>
+      </c>
+      <c r="CW6">
+        <v>1</v>
+      </c>
+      <c r="CX6">
+        <v>1</v>
+      </c>
+      <c r="CY6">
+        <v>0</v>
+      </c>
+      <c r="CZ6">
+        <v>0</v>
+      </c>
+      <c r="DA6">
+        <v>0</v>
+      </c>
+      <c r="DB6">
+        <v>2</v>
+      </c>
+      <c r="DC6">
+        <v>0</v>
+      </c>
+      <c r="DD6">
+        <v>0</v>
+      </c>
+      <c r="DE6">
+        <v>0</v>
+      </c>
+      <c r="DF6">
+        <v>0</v>
+      </c>
+      <c r="DG6">
+        <v>0</v>
+      </c>
+      <c r="DH6">
+        <v>0</v>
+      </c>
+      <c r="DI6">
+        <v>0</v>
+      </c>
+      <c r="DJ6">
+        <v>0</v>
+      </c>
+      <c r="DK6">
+        <v>0</v>
+      </c>
+      <c r="DL6">
+        <v>0</v>
+      </c>
+      <c r="DM6">
+        <v>0</v>
+      </c>
+      <c r="DN6">
+        <v>0</v>
+      </c>
+      <c r="DO6">
+        <v>2</v>
+      </c>
+      <c r="DP6">
+        <v>2</v>
+      </c>
+      <c r="DQ6">
+        <v>0</v>
+      </c>
+      <c r="DR6">
+        <v>0</v>
+      </c>
+      <c r="DS6">
+        <v>5</v>
+      </c>
+      <c r="DT6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>1019505</v>
       </c>
@@ -98890,8 +101024,344 @@
       <c r="L7" s="14" t="s">
         <v>919</v>
       </c>
+      <c r="M7">
+        <v>13</v>
+      </c>
+      <c r="N7">
+        <v>12</v>
+      </c>
+      <c r="O7">
+        <v>8</v>
+      </c>
+      <c r="P7">
+        <v>4</v>
+      </c>
+      <c r="Q7">
+        <v>762</v>
+      </c>
+      <c r="R7">
+        <v>762</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>10</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>8</v>
+      </c>
+      <c r="AB7">
+        <v>155</v>
+      </c>
+      <c r="AC7">
+        <v>69</v>
+      </c>
+      <c r="AD7">
+        <v>44</v>
+      </c>
+      <c r="AE7">
+        <v>12</v>
+      </c>
+      <c r="AF7">
+        <v>99</v>
+      </c>
+      <c r="AG7">
+        <v>53</v>
+      </c>
+      <c r="AH7">
+        <v>8</v>
+      </c>
+      <c r="AI7">
+        <v>3</v>
+      </c>
+      <c r="AJ7">
+        <v>4</v>
+      </c>
+      <c r="AK7">
+        <v>176</v>
+      </c>
+      <c r="AL7">
+        <v>118</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>12</v>
+      </c>
+      <c r="AP7">
+        <v>7</v>
+      </c>
+      <c r="AQ7">
+        <v>23</v>
+      </c>
+      <c r="AR7">
+        <v>6</v>
+      </c>
+      <c r="AS7">
+        <v>48</v>
+      </c>
+      <c r="AT7">
+        <v>27</v>
+      </c>
+      <c r="AU7">
+        <v>45</v>
+      </c>
+      <c r="AV7">
+        <v>39</v>
+      </c>
+      <c r="AW7">
+        <v>1</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>2</v>
+      </c>
+      <c r="AZ7">
+        <v>2</v>
+      </c>
+      <c r="BA7">
+        <v>55</v>
+      </c>
+      <c r="BB7">
+        <v>37</v>
+      </c>
+      <c r="BC7">
+        <v>7</v>
+      </c>
+      <c r="BD7">
+        <v>4</v>
+      </c>
+      <c r="BE7">
+        <v>54</v>
+      </c>
+      <c r="BF7">
+        <v>43</v>
+      </c>
+      <c r="BG7">
+        <v>23</v>
+      </c>
+      <c r="BH7">
+        <v>67</v>
+      </c>
+      <c r="BI7">
+        <v>52</v>
+      </c>
+      <c r="BJ7">
+        <v>87</v>
+      </c>
+      <c r="BK7">
+        <v>36</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <v>6</v>
+      </c>
+      <c r="BS7">
+        <v>3</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BU7">
+        <v>0</v>
+      </c>
+      <c r="BV7">
+        <v>4</v>
+      </c>
+      <c r="BW7">
+        <v>1</v>
+      </c>
+      <c r="BX7">
+        <v>2</v>
+      </c>
+      <c r="BY7">
+        <v>5</v>
+      </c>
+      <c r="BZ7">
+        <v>2</v>
+      </c>
+      <c r="CA7">
+        <v>34</v>
+      </c>
+      <c r="CB7">
+        <v>13</v>
+      </c>
+      <c r="CC7">
+        <v>2</v>
+      </c>
+      <c r="CD7">
+        <v>82</v>
+      </c>
+      <c r="CE7">
+        <v>23</v>
+      </c>
+      <c r="CF7">
+        <v>4</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>457</v>
+      </c>
+      <c r="CH7" t="s">
+        <v>805</v>
+      </c>
+      <c r="CI7">
+        <v>0</v>
+      </c>
+      <c r="CJ7">
+        <v>136</v>
+      </c>
+      <c r="CK7">
+        <v>25</v>
+      </c>
+      <c r="CL7">
+        <v>38</v>
+      </c>
+      <c r="CM7">
+        <v>1</v>
+      </c>
+      <c r="CN7">
+        <v>2</v>
+      </c>
+      <c r="CO7">
+        <v>0</v>
+      </c>
+      <c r="CP7">
+        <v>0</v>
+      </c>
+      <c r="CQ7">
+        <v>2</v>
+      </c>
+      <c r="CR7">
+        <v>5</v>
+      </c>
+      <c r="CS7">
+        <v>32</v>
+      </c>
+      <c r="CT7">
+        <v>14</v>
+      </c>
+      <c r="CU7">
+        <v>0</v>
+      </c>
+      <c r="CV7">
+        <v>0</v>
+      </c>
+      <c r="CW7">
+        <v>9</v>
+      </c>
+      <c r="CX7">
+        <v>3</v>
+      </c>
+      <c r="CY7">
+        <v>0</v>
+      </c>
+      <c r="CZ7">
+        <v>0</v>
+      </c>
+      <c r="DA7">
+        <v>3</v>
+      </c>
+      <c r="DB7">
+        <v>21</v>
+      </c>
+      <c r="DC7">
+        <v>0</v>
+      </c>
+      <c r="DD7">
+        <v>0</v>
+      </c>
+      <c r="DE7">
+        <v>8</v>
+      </c>
+      <c r="DF7">
+        <v>3</v>
+      </c>
+      <c r="DG7">
+        <v>0</v>
+      </c>
+      <c r="DH7">
+        <v>0</v>
+      </c>
+      <c r="DI7">
+        <v>0</v>
+      </c>
+      <c r="DJ7">
+        <v>0</v>
+      </c>
+      <c r="DK7">
+        <v>0</v>
+      </c>
+      <c r="DL7">
+        <v>0</v>
+      </c>
+      <c r="DM7">
+        <v>0</v>
+      </c>
+      <c r="DN7">
+        <v>0</v>
+      </c>
+      <c r="DO7">
+        <v>71</v>
+      </c>
+      <c r="DP7">
+        <v>29</v>
+      </c>
+      <c r="DQ7">
+        <v>38</v>
+      </c>
+      <c r="DR7">
+        <v>27</v>
+      </c>
+      <c r="DS7">
+        <v>55</v>
+      </c>
+      <c r="DT7">
+        <v>37</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>1233226</v>
       </c>
@@ -98929,8 +101399,344 @@
       <c r="L8" s="14" t="s">
         <v>918</v>
       </c>
+      <c r="M8">
+        <v>13</v>
+      </c>
+      <c r="N8">
+        <v>10</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="Q8">
+        <v>1002</v>
+      </c>
+      <c r="R8">
+        <v>1002</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>3</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>2</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>150</v>
+      </c>
+      <c r="AC8">
+        <v>66</v>
+      </c>
+      <c r="AD8">
+        <v>65</v>
+      </c>
+      <c r="AE8">
+        <v>19</v>
+      </c>
+      <c r="AF8">
+        <v>33</v>
+      </c>
+      <c r="AG8">
+        <v>18</v>
+      </c>
+      <c r="AH8">
+        <v>17</v>
+      </c>
+      <c r="AI8">
+        <v>8</v>
+      </c>
+      <c r="AJ8">
+        <v>12</v>
+      </c>
+      <c r="AK8">
+        <v>464</v>
+      </c>
+      <c r="AL8">
+        <v>412</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>37</v>
+      </c>
+      <c r="AP8">
+        <v>28</v>
+      </c>
+      <c r="AQ8">
+        <v>4</v>
+      </c>
+      <c r="AR8">
+        <v>1</v>
+      </c>
+      <c r="AS8">
+        <v>124</v>
+      </c>
+      <c r="AT8">
+        <v>91</v>
+      </c>
+      <c r="AU8">
+        <v>60</v>
+      </c>
+      <c r="AV8">
+        <v>60</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>236</v>
+      </c>
+      <c r="BB8">
+        <v>226</v>
+      </c>
+      <c r="BC8">
+        <v>41</v>
+      </c>
+      <c r="BD8">
+        <v>20</v>
+      </c>
+      <c r="BE8">
+        <v>8</v>
+      </c>
+      <c r="BF8">
+        <v>6</v>
+      </c>
+      <c r="BG8">
+        <v>43</v>
+      </c>
+      <c r="BH8">
+        <v>110</v>
+      </c>
+      <c r="BI8">
+        <v>90</v>
+      </c>
+      <c r="BJ8">
+        <v>15</v>
+      </c>
+      <c r="BK8">
+        <v>9</v>
+      </c>
+      <c r="BL8">
+        <v>0</v>
+      </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
+        <v>0</v>
+      </c>
+      <c r="BO8">
+        <v>0</v>
+      </c>
+      <c r="BP8">
+        <v>0</v>
+      </c>
+      <c r="BQ8">
+        <v>0</v>
+      </c>
+      <c r="BR8">
+        <v>0</v>
+      </c>
+      <c r="BS8">
+        <v>0</v>
+      </c>
+      <c r="BT8">
+        <v>1</v>
+      </c>
+      <c r="BU8">
+        <v>0</v>
+      </c>
+      <c r="BV8">
+        <v>35</v>
+      </c>
+      <c r="BW8">
+        <v>21</v>
+      </c>
+      <c r="BX8">
+        <v>3</v>
+      </c>
+      <c r="BY8">
+        <v>2</v>
+      </c>
+      <c r="BZ8">
+        <v>0</v>
+      </c>
+      <c r="CA8">
+        <v>97</v>
+      </c>
+      <c r="CB8">
+        <v>22</v>
+      </c>
+      <c r="CC8">
+        <v>1</v>
+      </c>
+      <c r="CD8">
+        <v>67</v>
+      </c>
+      <c r="CE8">
+        <v>31</v>
+      </c>
+      <c r="CF8">
+        <v>6</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>432</v>
+      </c>
+      <c r="CH8" t="s">
+        <v>1001</v>
+      </c>
+      <c r="CI8">
+        <v>0</v>
+      </c>
+      <c r="CJ8">
+        <v>296</v>
+      </c>
+      <c r="CK8">
+        <v>3</v>
+      </c>
+      <c r="CL8">
+        <v>7</v>
+      </c>
+      <c r="CM8">
+        <v>0</v>
+      </c>
+      <c r="CN8">
+        <v>13</v>
+      </c>
+      <c r="CO8">
+        <v>0</v>
+      </c>
+      <c r="CP8">
+        <v>0</v>
+      </c>
+      <c r="CQ8">
+        <v>3</v>
+      </c>
+      <c r="CR8">
+        <v>5</v>
+      </c>
+      <c r="CS8">
+        <v>60</v>
+      </c>
+      <c r="CT8">
+        <v>39</v>
+      </c>
+      <c r="CU8">
+        <v>2</v>
+      </c>
+      <c r="CV8">
+        <v>5</v>
+      </c>
+      <c r="CW8">
+        <v>9</v>
+      </c>
+      <c r="CX8">
+        <v>5</v>
+      </c>
+      <c r="CY8">
+        <v>5</v>
+      </c>
+      <c r="CZ8">
+        <v>0</v>
+      </c>
+      <c r="DA8">
+        <v>2</v>
+      </c>
+      <c r="DB8">
+        <v>35</v>
+      </c>
+      <c r="DC8">
+        <v>1</v>
+      </c>
+      <c r="DD8">
+        <v>5</v>
+      </c>
+      <c r="DE8">
+        <v>17</v>
+      </c>
+      <c r="DF8">
+        <v>8</v>
+      </c>
+      <c r="DG8">
+        <v>0</v>
+      </c>
+      <c r="DH8">
+        <v>0</v>
+      </c>
+      <c r="DI8">
+        <v>0</v>
+      </c>
+      <c r="DJ8">
+        <v>0</v>
+      </c>
+      <c r="DK8">
+        <v>0</v>
+      </c>
+      <c r="DL8">
+        <v>0</v>
+      </c>
+      <c r="DM8">
+        <v>0</v>
+      </c>
+      <c r="DN8">
+        <v>0</v>
+      </c>
+      <c r="DO8">
+        <v>93</v>
+      </c>
+      <c r="DP8">
+        <v>45</v>
+      </c>
+      <c r="DQ8">
+        <v>19</v>
+      </c>
+      <c r="DR8">
+        <v>6</v>
+      </c>
+      <c r="DS8">
+        <v>236</v>
+      </c>
+      <c r="DT8">
+        <v>226</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>822496</v>
       </c>
@@ -98964,8 +101770,344 @@
       <c r="L9" s="14" t="s">
         <v>920</v>
       </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>495</v>
+      </c>
+      <c r="R9">
+        <v>495</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>12</v>
+      </c>
+      <c r="AC9">
+        <v>5</v>
+      </c>
+      <c r="AD9">
+        <v>7</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+      <c r="AF9">
+        <v>1</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>4</v>
+      </c>
+      <c r="AI9">
+        <v>4</v>
+      </c>
+      <c r="AJ9">
+        <v>1</v>
+      </c>
+      <c r="AK9">
+        <v>194</v>
+      </c>
+      <c r="AL9">
+        <v>161</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>12</v>
+      </c>
+      <c r="AP9">
+        <v>2</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>84</v>
+      </c>
+      <c r="AT9">
+        <v>54</v>
+      </c>
+      <c r="AU9">
+        <v>1</v>
+      </c>
+      <c r="AV9">
+        <v>1</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>98</v>
+      </c>
+      <c r="BB9">
+        <v>95</v>
+      </c>
+      <c r="BC9">
+        <v>64</v>
+      </c>
+      <c r="BD9">
+        <v>36</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>19</v>
+      </c>
+      <c r="BH9">
+        <v>26</v>
+      </c>
+      <c r="BI9">
+        <v>20</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
+      <c r="BL9">
+        <v>0</v>
+      </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <v>0</v>
+      </c>
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9">
+        <v>0</v>
+      </c>
+      <c r="BQ9">
+        <v>0</v>
+      </c>
+      <c r="BR9">
+        <v>0</v>
+      </c>
+      <c r="BS9">
+        <v>0</v>
+      </c>
+      <c r="BT9">
+        <v>0</v>
+      </c>
+      <c r="BU9">
+        <v>0</v>
+      </c>
+      <c r="BV9">
+        <v>0</v>
+      </c>
+      <c r="BW9">
+        <v>0</v>
+      </c>
+      <c r="BX9">
+        <v>0</v>
+      </c>
+      <c r="BY9">
+        <v>0</v>
+      </c>
+      <c r="BZ9">
+        <v>0</v>
+      </c>
+      <c r="CA9">
+        <v>34</v>
+      </c>
+      <c r="CB9">
+        <v>0</v>
+      </c>
+      <c r="CC9">
+        <v>0</v>
+      </c>
+      <c r="CD9">
+        <v>36</v>
+      </c>
+      <c r="CE9">
+        <v>21</v>
+      </c>
+      <c r="CF9">
+        <v>4</v>
+      </c>
+      <c r="CG9">
+        <v>0</v>
+      </c>
+      <c r="CH9">
+        <v>0</v>
+      </c>
+      <c r="CI9" t="s">
+        <v>1002</v>
+      </c>
+      <c r="CJ9">
+        <v>130</v>
+      </c>
+      <c r="CK9">
+        <v>0</v>
+      </c>
+      <c r="CL9">
+        <v>0</v>
+      </c>
+      <c r="CM9">
+        <v>0</v>
+      </c>
+      <c r="CN9">
+        <v>5</v>
+      </c>
+      <c r="CO9">
+        <v>0</v>
+      </c>
+      <c r="CP9">
+        <v>0</v>
+      </c>
+      <c r="CQ9">
+        <v>0</v>
+      </c>
+      <c r="CR9">
+        <v>0</v>
+      </c>
+      <c r="CS9">
+        <v>46</v>
+      </c>
+      <c r="CT9">
+        <v>6</v>
+      </c>
+      <c r="CU9">
+        <v>0</v>
+      </c>
+      <c r="CV9">
+        <v>29</v>
+      </c>
+      <c r="CW9">
+        <v>6</v>
+      </c>
+      <c r="CX9">
+        <v>1</v>
+      </c>
+      <c r="CY9">
+        <v>23</v>
+      </c>
+      <c r="CZ9">
+        <v>6</v>
+      </c>
+      <c r="DA9">
+        <v>0</v>
+      </c>
+      <c r="DB9">
+        <v>23</v>
+      </c>
+      <c r="DC9">
+        <v>0</v>
+      </c>
+      <c r="DD9">
+        <v>25</v>
+      </c>
+      <c r="DE9">
+        <v>0</v>
+      </c>
+      <c r="DF9">
+        <v>0</v>
+      </c>
+      <c r="DG9">
+        <v>0</v>
+      </c>
+      <c r="DH9">
+        <v>15</v>
+      </c>
+      <c r="DI9">
+        <v>37</v>
+      </c>
+      <c r="DJ9">
+        <v>13</v>
+      </c>
+      <c r="DK9">
+        <v>0</v>
+      </c>
+      <c r="DL9">
+        <v>4</v>
+      </c>
+      <c r="DM9">
+        <v>4</v>
+      </c>
+      <c r="DN9">
+        <v>22</v>
+      </c>
+      <c r="DO9">
+        <v>5</v>
+      </c>
+      <c r="DP9">
+        <v>1</v>
+      </c>
+      <c r="DQ9">
+        <v>0</v>
+      </c>
+      <c r="DR9">
+        <v>0</v>
+      </c>
+      <c r="DS9">
+        <v>98</v>
+      </c>
+      <c r="DT9">
+        <v>95</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>1068477</v>
       </c>
@@ -99001,8 +102143,344 @@
       <c r="L10" s="14" t="s">
         <v>918</v>
       </c>
+      <c r="M10">
+        <v>13</v>
+      </c>
+      <c r="N10">
+        <v>9</v>
+      </c>
+      <c r="O10">
+        <v>8</v>
+      </c>
+      <c r="P10">
+        <v>4</v>
+      </c>
+      <c r="Q10">
+        <v>762</v>
+      </c>
+      <c r="R10">
+        <v>762</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>10</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>8</v>
+      </c>
+      <c r="AB10">
+        <v>155</v>
+      </c>
+      <c r="AC10">
+        <v>69</v>
+      </c>
+      <c r="AD10">
+        <v>44</v>
+      </c>
+      <c r="AE10">
+        <v>12</v>
+      </c>
+      <c r="AF10">
+        <v>99</v>
+      </c>
+      <c r="AG10">
+        <v>53</v>
+      </c>
+      <c r="AH10">
+        <v>8</v>
+      </c>
+      <c r="AI10">
+        <v>3</v>
+      </c>
+      <c r="AJ10">
+        <v>4</v>
+      </c>
+      <c r="AK10">
+        <v>176</v>
+      </c>
+      <c r="AL10">
+        <v>118</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>12</v>
+      </c>
+      <c r="AP10">
+        <v>7</v>
+      </c>
+      <c r="AQ10">
+        <v>23</v>
+      </c>
+      <c r="AR10">
+        <v>6</v>
+      </c>
+      <c r="AS10">
+        <v>48</v>
+      </c>
+      <c r="AT10">
+        <v>27</v>
+      </c>
+      <c r="AU10">
+        <v>45</v>
+      </c>
+      <c r="AV10">
+        <v>39</v>
+      </c>
+      <c r="AW10">
+        <v>1</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>2</v>
+      </c>
+      <c r="AZ10">
+        <v>2</v>
+      </c>
+      <c r="BA10">
+        <v>55</v>
+      </c>
+      <c r="BB10">
+        <v>37</v>
+      </c>
+      <c r="BC10">
+        <v>7</v>
+      </c>
+      <c r="BD10">
+        <v>4</v>
+      </c>
+      <c r="BE10">
+        <v>54</v>
+      </c>
+      <c r="BF10">
+        <v>43</v>
+      </c>
+      <c r="BG10">
+        <v>23</v>
+      </c>
+      <c r="BH10">
+        <v>67</v>
+      </c>
+      <c r="BI10">
+        <v>52</v>
+      </c>
+      <c r="BJ10">
+        <v>87</v>
+      </c>
+      <c r="BK10">
+        <v>36</v>
+      </c>
+      <c r="BL10">
+        <v>0</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <v>0</v>
+      </c>
+      <c r="BO10">
+        <v>0</v>
+      </c>
+      <c r="BP10">
+        <v>0</v>
+      </c>
+      <c r="BQ10">
+        <v>0</v>
+      </c>
+      <c r="BR10">
+        <v>6</v>
+      </c>
+      <c r="BS10">
+        <v>3</v>
+      </c>
+      <c r="BT10">
+        <v>0</v>
+      </c>
+      <c r="BU10">
+        <v>0</v>
+      </c>
+      <c r="BV10">
+        <v>4</v>
+      </c>
+      <c r="BW10">
+        <v>1</v>
+      </c>
+      <c r="BX10">
+        <v>2</v>
+      </c>
+      <c r="BY10">
+        <v>5</v>
+      </c>
+      <c r="BZ10">
+        <v>2</v>
+      </c>
+      <c r="CA10">
+        <v>34</v>
+      </c>
+      <c r="CB10">
+        <v>13</v>
+      </c>
+      <c r="CC10">
+        <v>2</v>
+      </c>
+      <c r="CD10">
+        <v>82</v>
+      </c>
+      <c r="CE10">
+        <v>23</v>
+      </c>
+      <c r="CF10">
+        <v>4</v>
+      </c>
+      <c r="CG10" t="s">
+        <v>457</v>
+      </c>
+      <c r="CH10" t="s">
+        <v>805</v>
+      </c>
+      <c r="CI10">
+        <v>0</v>
+      </c>
+      <c r="CJ10">
+        <v>136</v>
+      </c>
+      <c r="CK10">
+        <v>25</v>
+      </c>
+      <c r="CL10">
+        <v>38</v>
+      </c>
+      <c r="CM10">
+        <v>1</v>
+      </c>
+      <c r="CN10">
+        <v>2</v>
+      </c>
+      <c r="CO10">
+        <v>0</v>
+      </c>
+      <c r="CP10">
+        <v>0</v>
+      </c>
+      <c r="CQ10">
+        <v>2</v>
+      </c>
+      <c r="CR10">
+        <v>5</v>
+      </c>
+      <c r="CS10">
+        <v>32</v>
+      </c>
+      <c r="CT10">
+        <v>14</v>
+      </c>
+      <c r="CU10">
+        <v>0</v>
+      </c>
+      <c r="CV10">
+        <v>0</v>
+      </c>
+      <c r="CW10">
+        <v>9</v>
+      </c>
+      <c r="CX10">
+        <v>3</v>
+      </c>
+      <c r="CY10">
+        <v>0</v>
+      </c>
+      <c r="CZ10">
+        <v>0</v>
+      </c>
+      <c r="DA10">
+        <v>3</v>
+      </c>
+      <c r="DB10">
+        <v>21</v>
+      </c>
+      <c r="DC10">
+        <v>0</v>
+      </c>
+      <c r="DD10">
+        <v>0</v>
+      </c>
+      <c r="DE10">
+        <v>8</v>
+      </c>
+      <c r="DF10">
+        <v>3</v>
+      </c>
+      <c r="DG10">
+        <v>0</v>
+      </c>
+      <c r="DH10">
+        <v>0</v>
+      </c>
+      <c r="DI10">
+        <v>0</v>
+      </c>
+      <c r="DJ10">
+        <v>0</v>
+      </c>
+      <c r="DK10">
+        <v>0</v>
+      </c>
+      <c r="DL10">
+        <v>0</v>
+      </c>
+      <c r="DM10">
+        <v>0</v>
+      </c>
+      <c r="DN10">
+        <v>0</v>
+      </c>
+      <c r="DO10">
+        <v>71</v>
+      </c>
+      <c r="DP10">
+        <v>29</v>
+      </c>
+      <c r="DQ10">
+        <v>38</v>
+      </c>
+      <c r="DR10">
+        <v>27</v>
+      </c>
+      <c r="DS10">
+        <v>55</v>
+      </c>
+      <c r="DT10">
+        <v>37</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>766311</v>
       </c>
@@ -99038,8 +102516,344 @@
       <c r="L11" s="14" t="s">
         <v>919</v>
       </c>
+      <c r="M11">
+        <v>6</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="P11">
+        <v>4</v>
+      </c>
+      <c r="Q11">
+        <v>250</v>
+      </c>
+      <c r="R11">
+        <v>250</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>2</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>57</v>
+      </c>
+      <c r="AC11">
+        <v>19</v>
+      </c>
+      <c r="AD11">
+        <v>28</v>
+      </c>
+      <c r="AE11">
+        <v>8</v>
+      </c>
+      <c r="AF11">
+        <v>19</v>
+      </c>
+      <c r="AG11">
+        <v>5</v>
+      </c>
+      <c r="AH11">
+        <v>7</v>
+      </c>
+      <c r="AI11">
+        <v>4</v>
+      </c>
+      <c r="AJ11">
+        <v>4</v>
+      </c>
+      <c r="AK11">
+        <v>74</v>
+      </c>
+      <c r="AL11">
+        <v>50</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>9</v>
+      </c>
+      <c r="AP11">
+        <v>4</v>
+      </c>
+      <c r="AQ11">
+        <v>6</v>
+      </c>
+      <c r="AR11">
+        <v>1</v>
+      </c>
+      <c r="AS11">
+        <v>31</v>
+      </c>
+      <c r="AT11">
+        <v>19</v>
+      </c>
+      <c r="AU11">
+        <v>20</v>
+      </c>
+      <c r="AV11">
+        <v>19</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>1</v>
+      </c>
+      <c r="AZ11">
+        <v>1</v>
+      </c>
+      <c r="BA11">
+        <v>12</v>
+      </c>
+      <c r="BB11">
+        <v>8</v>
+      </c>
+      <c r="BC11">
+        <v>6</v>
+      </c>
+      <c r="BD11">
+        <v>2</v>
+      </c>
+      <c r="BE11">
+        <v>4</v>
+      </c>
+      <c r="BF11">
+        <v>3</v>
+      </c>
+      <c r="BG11">
+        <v>14</v>
+      </c>
+      <c r="BH11">
+        <v>44</v>
+      </c>
+      <c r="BI11">
+        <v>35</v>
+      </c>
+      <c r="BJ11">
+        <v>12</v>
+      </c>
+      <c r="BK11">
+        <v>4</v>
+      </c>
+      <c r="BL11">
+        <v>0</v>
+      </c>
+      <c r="BM11">
+        <v>0</v>
+      </c>
+      <c r="BN11">
+        <v>0</v>
+      </c>
+      <c r="BO11">
+        <v>0</v>
+      </c>
+      <c r="BP11">
+        <v>0</v>
+      </c>
+      <c r="BQ11">
+        <v>0</v>
+      </c>
+      <c r="BR11">
+        <v>0</v>
+      </c>
+      <c r="BS11">
+        <v>0</v>
+      </c>
+      <c r="BT11">
+        <v>0</v>
+      </c>
+      <c r="BU11">
+        <v>0</v>
+      </c>
+      <c r="BV11">
+        <v>3</v>
+      </c>
+      <c r="BW11">
+        <v>2</v>
+      </c>
+      <c r="BX11">
+        <v>2</v>
+      </c>
+      <c r="BY11">
+        <v>1</v>
+      </c>
+      <c r="BZ11">
+        <v>1</v>
+      </c>
+      <c r="CA11">
+        <v>23</v>
+      </c>
+      <c r="CB11">
+        <v>9</v>
+      </c>
+      <c r="CC11">
+        <v>2</v>
+      </c>
+      <c r="CD11">
+        <v>36</v>
+      </c>
+      <c r="CE11">
+        <v>19</v>
+      </c>
+      <c r="CF11">
+        <v>3</v>
+      </c>
+      <c r="CG11" t="s">
+        <v>539</v>
+      </c>
+      <c r="CH11" t="s">
+        <v>1003</v>
+      </c>
+      <c r="CI11">
+        <v>0</v>
+      </c>
+      <c r="CJ11">
+        <v>49</v>
+      </c>
+      <c r="CK11">
+        <v>4</v>
+      </c>
+      <c r="CL11">
+        <v>6</v>
+      </c>
+      <c r="CM11">
+        <v>0</v>
+      </c>
+      <c r="CN11">
+        <v>11</v>
+      </c>
+      <c r="CO11">
+        <v>0</v>
+      </c>
+      <c r="CP11">
+        <v>0</v>
+      </c>
+      <c r="CQ11">
+        <v>0</v>
+      </c>
+      <c r="CR11">
+        <v>1</v>
+      </c>
+      <c r="CS11">
+        <v>19</v>
+      </c>
+      <c r="CT11">
+        <v>11</v>
+      </c>
+      <c r="CU11">
+        <v>2</v>
+      </c>
+      <c r="CV11">
+        <v>0</v>
+      </c>
+      <c r="CW11">
+        <v>12</v>
+      </c>
+      <c r="CX11">
+        <v>6</v>
+      </c>
+      <c r="CY11">
+        <v>0</v>
+      </c>
+      <c r="CZ11">
+        <v>0</v>
+      </c>
+      <c r="DA11">
+        <v>1</v>
+      </c>
+      <c r="DB11">
+        <v>10</v>
+      </c>
+      <c r="DC11">
+        <v>2</v>
+      </c>
+      <c r="DD11">
+        <v>0</v>
+      </c>
+      <c r="DE11">
+        <v>7</v>
+      </c>
+      <c r="DF11">
+        <v>4</v>
+      </c>
+      <c r="DG11">
+        <v>0</v>
+      </c>
+      <c r="DH11">
+        <v>0</v>
+      </c>
+      <c r="DI11">
+        <v>0</v>
+      </c>
+      <c r="DJ11">
+        <v>0</v>
+      </c>
+      <c r="DK11">
+        <v>0</v>
+      </c>
+      <c r="DL11">
+        <v>0</v>
+      </c>
+      <c r="DM11">
+        <v>0</v>
+      </c>
+      <c r="DN11">
+        <v>0</v>
+      </c>
+      <c r="DO11">
+        <v>30</v>
+      </c>
+      <c r="DP11">
+        <v>19</v>
+      </c>
+      <c r="DQ11">
+        <v>5</v>
+      </c>
+      <c r="DR11">
+        <v>2</v>
+      </c>
+      <c r="DS11">
+        <v>12</v>
+      </c>
+      <c r="DT11">
+        <v>8</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>915831</v>
       </c>
@@ -99077,8 +102891,344 @@
       <c r="L12" s="14" t="s">
         <v>920</v>
       </c>
+      <c r="M12">
+        <v>14</v>
+      </c>
+      <c r="N12">
+        <v>13</v>
+      </c>
+      <c r="O12">
+        <v>5</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1219</v>
+      </c>
+      <c r="R12">
+        <v>1219</v>
+      </c>
+      <c r="S12">
+        <v>3</v>
+      </c>
+      <c r="T12">
+        <v>7</v>
+      </c>
+      <c r="U12">
+        <v>17</v>
+      </c>
+      <c r="V12">
+        <v>3</v>
+      </c>
+      <c r="W12">
+        <v>2</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>17</v>
+      </c>
+      <c r="AB12">
+        <v>400</v>
+      </c>
+      <c r="AC12">
+        <v>155</v>
+      </c>
+      <c r="AD12">
+        <v>103</v>
+      </c>
+      <c r="AE12">
+        <v>23</v>
+      </c>
+      <c r="AF12">
+        <v>219</v>
+      </c>
+      <c r="AG12">
+        <v>105</v>
+      </c>
+      <c r="AH12">
+        <v>25</v>
+      </c>
+      <c r="AI12">
+        <v>4</v>
+      </c>
+      <c r="AJ12">
+        <v>21</v>
+      </c>
+      <c r="AK12">
+        <v>415</v>
+      </c>
+      <c r="AL12">
+        <v>328</v>
+      </c>
+      <c r="AM12">
+        <v>4</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
+        <v>35</v>
+      </c>
+      <c r="AP12">
+        <v>21</v>
+      </c>
+      <c r="AQ12">
+        <v>16</v>
+      </c>
+      <c r="AR12">
+        <v>5</v>
+      </c>
+      <c r="AS12">
+        <v>91</v>
+      </c>
+      <c r="AT12">
+        <v>59</v>
+      </c>
+      <c r="AU12">
+        <v>111</v>
+      </c>
+      <c r="AV12">
+        <v>104</v>
+      </c>
+      <c r="AW12">
+        <v>4</v>
+      </c>
+      <c r="AX12">
+        <v>1</v>
+      </c>
+      <c r="AY12">
+        <v>7</v>
+      </c>
+      <c r="AZ12">
+        <v>7</v>
+      </c>
+      <c r="BA12">
+        <v>143</v>
+      </c>
+      <c r="BB12">
+        <v>116</v>
+      </c>
+      <c r="BC12">
+        <v>17</v>
+      </c>
+      <c r="BD12">
+        <v>8</v>
+      </c>
+      <c r="BE12">
+        <v>61</v>
+      </c>
+      <c r="BF12">
+        <v>40</v>
+      </c>
+      <c r="BG12">
+        <v>29</v>
+      </c>
+      <c r="BH12">
+        <v>132</v>
+      </c>
+      <c r="BI12">
+        <v>98</v>
+      </c>
+      <c r="BJ12">
+        <v>98</v>
+      </c>
+      <c r="BK12">
+        <v>45</v>
+      </c>
+      <c r="BL12">
+        <v>3</v>
+      </c>
+      <c r="BM12">
+        <v>2</v>
+      </c>
+      <c r="BN12">
+        <v>0</v>
+      </c>
+      <c r="BO12">
+        <v>0</v>
+      </c>
+      <c r="BP12">
+        <v>28</v>
+      </c>
+      <c r="BQ12">
+        <v>0</v>
+      </c>
+      <c r="BR12">
+        <v>13</v>
+      </c>
+      <c r="BS12">
+        <v>6</v>
+      </c>
+      <c r="BT12">
+        <v>4</v>
+      </c>
+      <c r="BU12">
+        <v>0</v>
+      </c>
+      <c r="BV12">
+        <v>53</v>
+      </c>
+      <c r="BW12">
+        <v>23</v>
+      </c>
+      <c r="BX12">
+        <v>10</v>
+      </c>
+      <c r="BY12">
+        <v>16</v>
+      </c>
+      <c r="BZ12">
+        <v>7</v>
+      </c>
+      <c r="CA12">
+        <v>76</v>
+      </c>
+      <c r="CB12">
+        <v>38</v>
+      </c>
+      <c r="CC12">
+        <v>3</v>
+      </c>
+      <c r="CD12">
+        <v>156</v>
+      </c>
+      <c r="CE12">
+        <v>49</v>
+      </c>
+      <c r="CF12">
+        <v>4</v>
+      </c>
+      <c r="CG12" s="1">
+        <v>47150</v>
+      </c>
+      <c r="CH12" s="1">
+        <v>31048</v>
+      </c>
+      <c r="CI12">
+        <v>0</v>
+      </c>
+      <c r="CJ12">
+        <v>273</v>
+      </c>
+      <c r="CK12">
+        <v>41</v>
+      </c>
+      <c r="CL12">
+        <v>40</v>
+      </c>
+      <c r="CM12">
+        <v>7</v>
+      </c>
+      <c r="CN12">
+        <v>1</v>
+      </c>
+      <c r="CO12">
+        <v>2</v>
+      </c>
+      <c r="CP12">
+        <v>2</v>
+      </c>
+      <c r="CQ12">
+        <v>5</v>
+      </c>
+      <c r="CR12">
+        <v>30</v>
+      </c>
+      <c r="CS12">
+        <v>62</v>
+      </c>
+      <c r="CT12">
+        <v>39</v>
+      </c>
+      <c r="CU12">
+        <v>0</v>
+      </c>
+      <c r="CV12">
+        <v>0</v>
+      </c>
+      <c r="CW12">
+        <v>14</v>
+      </c>
+      <c r="CX12">
+        <v>8</v>
+      </c>
+      <c r="CY12">
+        <v>0</v>
+      </c>
+      <c r="CZ12">
+        <v>0</v>
+      </c>
+      <c r="DA12">
+        <v>10</v>
+      </c>
+      <c r="DB12">
+        <v>42</v>
+      </c>
+      <c r="DC12">
+        <v>0</v>
+      </c>
+      <c r="DD12">
+        <v>0</v>
+      </c>
+      <c r="DE12">
+        <v>25</v>
+      </c>
+      <c r="DF12">
+        <v>4</v>
+      </c>
+      <c r="DG12">
+        <v>0</v>
+      </c>
+      <c r="DH12">
+        <v>0</v>
+      </c>
+      <c r="DI12">
+        <v>0</v>
+      </c>
+      <c r="DJ12">
+        <v>0</v>
+      </c>
+      <c r="DK12">
+        <v>0</v>
+      </c>
+      <c r="DL12">
+        <v>0</v>
+      </c>
+      <c r="DM12">
+        <v>0</v>
+      </c>
+      <c r="DN12">
+        <v>0</v>
+      </c>
+      <c r="DO12">
+        <v>173</v>
+      </c>
+      <c r="DP12">
+        <v>69</v>
+      </c>
+      <c r="DQ12">
+        <v>77</v>
+      </c>
+      <c r="DR12">
+        <v>29</v>
+      </c>
+      <c r="DS12">
+        <v>143</v>
+      </c>
+      <c r="DT12">
+        <v>116</v>
+      </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>959719</v>
       </c>
@@ -99114,8 +103264,344 @@
       <c r="L13" s="14" t="s">
         <v>918</v>
       </c>
+      <c r="M13">
+        <v>13</v>
+      </c>
+      <c r="N13">
+        <v>13</v>
+      </c>
+      <c r="O13">
+        <v>9</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1015</v>
+      </c>
+      <c r="R13">
+        <v>1015</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>3</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>161</v>
+      </c>
+      <c r="AC13">
+        <v>62</v>
+      </c>
+      <c r="AD13">
+        <v>76</v>
+      </c>
+      <c r="AE13">
+        <v>19</v>
+      </c>
+      <c r="AF13">
+        <v>47</v>
+      </c>
+      <c r="AG13">
+        <v>26</v>
+      </c>
+      <c r="AH13">
+        <v>13</v>
+      </c>
+      <c r="AI13">
+        <v>7</v>
+      </c>
+      <c r="AJ13">
+        <v>12</v>
+      </c>
+      <c r="AK13">
+        <v>322</v>
+      </c>
+      <c r="AL13">
+        <v>270</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>30</v>
+      </c>
+      <c r="AP13">
+        <v>23</v>
+      </c>
+      <c r="AQ13">
+        <v>7</v>
+      </c>
+      <c r="AR13">
+        <v>4</v>
+      </c>
+      <c r="AS13">
+        <v>93</v>
+      </c>
+      <c r="AT13">
+        <v>65</v>
+      </c>
+      <c r="AU13">
+        <v>57</v>
+      </c>
+      <c r="AV13">
+        <v>54</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>2</v>
+      </c>
+      <c r="AZ13">
+        <v>2</v>
+      </c>
+      <c r="BA13">
+        <v>127</v>
+      </c>
+      <c r="BB13">
+        <v>114</v>
+      </c>
+      <c r="BC13">
+        <v>29</v>
+      </c>
+      <c r="BD13">
+        <v>19</v>
+      </c>
+      <c r="BE13">
+        <v>13</v>
+      </c>
+      <c r="BF13">
+        <v>8</v>
+      </c>
+      <c r="BG13">
+        <v>56</v>
+      </c>
+      <c r="BH13">
+        <v>138</v>
+      </c>
+      <c r="BI13">
+        <v>117</v>
+      </c>
+      <c r="BJ13">
+        <v>21</v>
+      </c>
+      <c r="BK13">
+        <v>11</v>
+      </c>
+      <c r="BL13">
+        <v>0</v>
+      </c>
+      <c r="BM13">
+        <v>0</v>
+      </c>
+      <c r="BN13">
+        <v>0</v>
+      </c>
+      <c r="BO13">
+        <v>0</v>
+      </c>
+      <c r="BP13">
+        <v>0</v>
+      </c>
+      <c r="BQ13">
+        <v>0</v>
+      </c>
+      <c r="BR13">
+        <v>0</v>
+      </c>
+      <c r="BS13">
+        <v>0</v>
+      </c>
+      <c r="BT13">
+        <v>4</v>
+      </c>
+      <c r="BU13">
+        <v>0</v>
+      </c>
+      <c r="BV13">
+        <v>25</v>
+      </c>
+      <c r="BW13">
+        <v>10</v>
+      </c>
+      <c r="BX13">
+        <v>8</v>
+      </c>
+      <c r="BY13">
+        <v>5</v>
+      </c>
+      <c r="BZ13">
+        <v>2</v>
+      </c>
+      <c r="CA13">
+        <v>101</v>
+      </c>
+      <c r="CB13">
+        <v>41</v>
+      </c>
+      <c r="CC13">
+        <v>3</v>
+      </c>
+      <c r="CD13">
+        <v>84</v>
+      </c>
+      <c r="CE13">
+        <v>41</v>
+      </c>
+      <c r="CF13">
+        <v>9</v>
+      </c>
+      <c r="CG13" t="s">
+        <v>264</v>
+      </c>
+      <c r="CH13" t="s">
+        <v>561</v>
+      </c>
+      <c r="CI13">
+        <v>0</v>
+      </c>
+      <c r="CJ13">
+        <v>194</v>
+      </c>
+      <c r="CK13">
+        <v>7</v>
+      </c>
+      <c r="CL13">
+        <v>6</v>
+      </c>
+      <c r="CM13">
+        <v>1</v>
+      </c>
+      <c r="CN13">
+        <v>11</v>
+      </c>
+      <c r="CO13">
+        <v>0</v>
+      </c>
+      <c r="CP13">
+        <v>0</v>
+      </c>
+      <c r="CQ13">
+        <v>7</v>
+      </c>
+      <c r="CR13">
+        <v>9</v>
+      </c>
+      <c r="CS13">
+        <v>60</v>
+      </c>
+      <c r="CT13">
+        <v>48</v>
+      </c>
+      <c r="CU13">
+        <v>6</v>
+      </c>
+      <c r="CV13">
+        <v>0</v>
+      </c>
+      <c r="CW13">
+        <v>15</v>
+      </c>
+      <c r="CX13">
+        <v>10</v>
+      </c>
+      <c r="CY13">
+        <v>0</v>
+      </c>
+      <c r="CZ13">
+        <v>0</v>
+      </c>
+      <c r="DA13">
+        <v>1</v>
+      </c>
+      <c r="DB13">
+        <v>40</v>
+      </c>
+      <c r="DC13">
+        <v>2</v>
+      </c>
+      <c r="DD13">
+        <v>0</v>
+      </c>
+      <c r="DE13">
+        <v>13</v>
+      </c>
+      <c r="DF13">
+        <v>7</v>
+      </c>
+      <c r="DG13">
+        <v>0</v>
+      </c>
+      <c r="DH13">
+        <v>0</v>
+      </c>
+      <c r="DI13">
+        <v>0</v>
+      </c>
+      <c r="DJ13">
+        <v>0</v>
+      </c>
+      <c r="DK13">
+        <v>0</v>
+      </c>
+      <c r="DL13">
+        <v>0</v>
+      </c>
+      <c r="DM13">
+        <v>0</v>
+      </c>
+      <c r="DN13">
+        <v>0</v>
+      </c>
+      <c r="DO13">
+        <v>94</v>
+      </c>
+      <c r="DP13">
+        <v>55</v>
+      </c>
+      <c r="DQ13">
+        <v>22</v>
+      </c>
+      <c r="DR13">
+        <v>6</v>
+      </c>
+      <c r="DS13">
+        <v>127</v>
+      </c>
+      <c r="DT13">
+        <v>114</v>
+      </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>1075459</v>
       </c>
@@ -99149,8 +103635,344 @@
       <c r="L14" s="14" t="s">
         <v>920</v>
       </c>
+      <c r="M14">
+        <v>8</v>
+      </c>
+      <c r="N14">
+        <v>6</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>2</v>
+      </c>
+      <c r="Q14">
+        <v>592</v>
+      </c>
+      <c r="R14">
+        <v>592</v>
+      </c>
+      <c r="S14">
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>3</v>
+      </c>
+      <c r="V14">
+        <v>3</v>
+      </c>
+      <c r="W14">
+        <v>2</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>62</v>
+      </c>
+      <c r="AC14">
+        <v>26</v>
+      </c>
+      <c r="AD14">
+        <v>34</v>
+      </c>
+      <c r="AE14">
+        <v>10</v>
+      </c>
+      <c r="AF14">
+        <v>6</v>
+      </c>
+      <c r="AG14">
+        <v>2</v>
+      </c>
+      <c r="AH14">
+        <v>13</v>
+      </c>
+      <c r="AI14">
+        <v>8</v>
+      </c>
+      <c r="AJ14">
+        <v>6</v>
+      </c>
+      <c r="AK14">
+        <v>353</v>
+      </c>
+      <c r="AL14">
+        <v>293</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>33</v>
+      </c>
+      <c r="AP14">
+        <v>18</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>133</v>
+      </c>
+      <c r="AT14">
+        <v>80</v>
+      </c>
+      <c r="AU14">
+        <v>19</v>
+      </c>
+      <c r="AV14">
+        <v>18</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>182</v>
+      </c>
+      <c r="BB14">
+        <v>178</v>
+      </c>
+      <c r="BC14">
+        <v>55</v>
+      </c>
+      <c r="BD14">
+        <v>24</v>
+      </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
+      <c r="BF14">
+        <v>0</v>
+      </c>
+      <c r="BG14">
+        <v>39</v>
+      </c>
+      <c r="BH14">
+        <v>75</v>
+      </c>
+      <c r="BI14">
+        <v>67</v>
+      </c>
+      <c r="BJ14">
+        <v>3</v>
+      </c>
+      <c r="BK14">
+        <v>2</v>
+      </c>
+      <c r="BL14">
+        <v>0</v>
+      </c>
+      <c r="BM14">
+        <v>0</v>
+      </c>
+      <c r="BN14">
+        <v>0</v>
+      </c>
+      <c r="BO14">
+        <v>0</v>
+      </c>
+      <c r="BP14">
+        <v>0</v>
+      </c>
+      <c r="BQ14">
+        <v>0</v>
+      </c>
+      <c r="BR14">
+        <v>0</v>
+      </c>
+      <c r="BS14">
+        <v>0</v>
+      </c>
+      <c r="BT14">
+        <v>0</v>
+      </c>
+      <c r="BU14">
+        <v>0</v>
+      </c>
+      <c r="BV14">
+        <v>9</v>
+      </c>
+      <c r="BW14">
+        <v>6</v>
+      </c>
+      <c r="BX14">
+        <v>2</v>
+      </c>
+      <c r="BY14">
+        <v>0</v>
+      </c>
+      <c r="BZ14">
+        <v>0</v>
+      </c>
+      <c r="CA14">
+        <v>52</v>
+      </c>
+      <c r="CB14">
+        <v>6</v>
+      </c>
+      <c r="CC14">
+        <v>0</v>
+      </c>
+      <c r="CD14">
+        <v>67</v>
+      </c>
+      <c r="CE14">
+        <v>37</v>
+      </c>
+      <c r="CF14">
+        <v>3</v>
+      </c>
+      <c r="CG14" t="s">
+        <v>789</v>
+      </c>
+      <c r="CH14">
+        <v>0</v>
+      </c>
+      <c r="CI14">
+        <v>0</v>
+      </c>
+      <c r="CJ14">
+        <v>234</v>
+      </c>
+      <c r="CK14">
+        <v>7</v>
+      </c>
+      <c r="CL14">
+        <v>2</v>
+      </c>
+      <c r="CM14">
+        <v>1</v>
+      </c>
+      <c r="CN14">
+        <v>23</v>
+      </c>
+      <c r="CO14">
+        <v>0</v>
+      </c>
+      <c r="CP14">
+        <v>0</v>
+      </c>
+      <c r="CQ14">
+        <v>6</v>
+      </c>
+      <c r="CR14">
+        <v>2</v>
+      </c>
+      <c r="CS14">
+        <v>60</v>
+      </c>
+      <c r="CT14">
+        <v>23</v>
+      </c>
+      <c r="CU14">
+        <v>2</v>
+      </c>
+      <c r="CV14">
+        <v>1</v>
+      </c>
+      <c r="CW14">
+        <v>7</v>
+      </c>
+      <c r="CX14">
+        <v>4</v>
+      </c>
+      <c r="CY14">
+        <v>1</v>
+      </c>
+      <c r="CZ14">
+        <v>0</v>
+      </c>
+      <c r="DA14">
+        <v>2</v>
+      </c>
+      <c r="DB14">
+        <v>30</v>
+      </c>
+      <c r="DC14">
+        <v>1</v>
+      </c>
+      <c r="DD14">
+        <v>1</v>
+      </c>
+      <c r="DE14">
+        <v>13</v>
+      </c>
+      <c r="DF14">
+        <v>8</v>
+      </c>
+      <c r="DG14">
+        <v>0</v>
+      </c>
+      <c r="DH14">
+        <v>0</v>
+      </c>
+      <c r="DI14">
+        <v>0</v>
+      </c>
+      <c r="DJ14">
+        <v>0</v>
+      </c>
+      <c r="DK14">
+        <v>0</v>
+      </c>
+      <c r="DL14">
+        <v>0</v>
+      </c>
+      <c r="DM14">
+        <v>0</v>
+      </c>
+      <c r="DN14">
+        <v>0</v>
+      </c>
+      <c r="DO14">
+        <v>42</v>
+      </c>
+      <c r="DP14">
+        <v>26</v>
+      </c>
+      <c r="DQ14">
+        <v>2</v>
+      </c>
+      <c r="DR14">
+        <v>0</v>
+      </c>
+      <c r="DS14">
+        <v>182</v>
+      </c>
+      <c r="DT14">
+        <v>178</v>
+      </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>1169173</v>
       </c>
@@ -99188,8 +104010,344 @@
       <c r="L15" s="14" t="s">
         <v>919</v>
       </c>
+      <c r="M15">
+        <v>11</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <v>8</v>
+      </c>
+      <c r="Q15">
+        <v>432</v>
+      </c>
+      <c r="R15">
+        <v>432</v>
+      </c>
+      <c r="S15">
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>5</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AB15">
+        <v>100</v>
+      </c>
+      <c r="AC15">
+        <v>25</v>
+      </c>
+      <c r="AD15">
+        <v>15</v>
+      </c>
+      <c r="AE15">
+        <v>2</v>
+      </c>
+      <c r="AF15">
+        <v>47</v>
+      </c>
+      <c r="AG15">
+        <v>14</v>
+      </c>
+      <c r="AH15">
+        <v>18</v>
+      </c>
+      <c r="AI15">
+        <v>2</v>
+      </c>
+      <c r="AJ15">
+        <v>9</v>
+      </c>
+      <c r="AK15">
+        <v>81</v>
+      </c>
+      <c r="AL15">
+        <v>64</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>6</v>
+      </c>
+      <c r="AP15">
+        <v>6</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>10</v>
+      </c>
+      <c r="AT15">
+        <v>6</v>
+      </c>
+      <c r="AU15">
+        <v>39</v>
+      </c>
+      <c r="AV15">
+        <v>35</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>13</v>
+      </c>
+      <c r="BB15">
+        <v>10</v>
+      </c>
+      <c r="BC15">
+        <v>0</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BE15">
+        <v>6</v>
+      </c>
+      <c r="BF15">
+        <v>2</v>
+      </c>
+      <c r="BG15">
+        <v>4</v>
+      </c>
+      <c r="BH15">
+        <v>19</v>
+      </c>
+      <c r="BI15">
+        <v>11</v>
+      </c>
+      <c r="BJ15">
+        <v>11</v>
+      </c>
+      <c r="BK15">
+        <v>4</v>
+      </c>
+      <c r="BL15">
+        <v>0</v>
+      </c>
+      <c r="BM15">
+        <v>0</v>
+      </c>
+      <c r="BN15">
+        <v>0</v>
+      </c>
+      <c r="BO15">
+        <v>0</v>
+      </c>
+      <c r="BP15">
+        <v>0</v>
+      </c>
+      <c r="BQ15">
+        <v>0</v>
+      </c>
+      <c r="BR15">
+        <v>1</v>
+      </c>
+      <c r="BS15">
+        <v>0</v>
+      </c>
+      <c r="BT15">
+        <v>3</v>
+      </c>
+      <c r="BU15">
+        <v>0</v>
+      </c>
+      <c r="BV15">
+        <v>20</v>
+      </c>
+      <c r="BW15">
+        <v>7</v>
+      </c>
+      <c r="BX15">
+        <v>1</v>
+      </c>
+      <c r="BY15">
+        <v>1</v>
+      </c>
+      <c r="BZ15">
+        <v>0</v>
+      </c>
+      <c r="CA15">
+        <v>10</v>
+      </c>
+      <c r="CB15">
+        <v>4</v>
+      </c>
+      <c r="CC15">
+        <v>0</v>
+      </c>
+      <c r="CD15">
+        <v>41</v>
+      </c>
+      <c r="CE15">
+        <v>11</v>
+      </c>
+      <c r="CF15">
+        <v>1</v>
+      </c>
+      <c r="CG15" t="s">
+        <v>1004</v>
+      </c>
+      <c r="CH15" t="s">
+        <v>178</v>
+      </c>
+      <c r="CI15">
+        <v>0</v>
+      </c>
+      <c r="CJ15">
+        <v>41</v>
+      </c>
+      <c r="CK15">
+        <v>11</v>
+      </c>
+      <c r="CL15">
+        <v>1</v>
+      </c>
+      <c r="CM15">
+        <v>8</v>
+      </c>
+      <c r="CN15">
+        <v>0</v>
+      </c>
+      <c r="CO15">
+        <v>1</v>
+      </c>
+      <c r="CP15">
+        <v>1</v>
+      </c>
+      <c r="CQ15">
+        <v>0</v>
+      </c>
+      <c r="CR15">
+        <v>7</v>
+      </c>
+      <c r="CS15">
+        <v>9</v>
+      </c>
+      <c r="CT15">
+        <v>6</v>
+      </c>
+      <c r="CU15">
+        <v>0</v>
+      </c>
+      <c r="CV15">
+        <v>0</v>
+      </c>
+      <c r="CW15">
+        <v>1</v>
+      </c>
+      <c r="CX15">
+        <v>1</v>
+      </c>
+      <c r="CY15">
+        <v>0</v>
+      </c>
+      <c r="CZ15">
+        <v>0</v>
+      </c>
+      <c r="DA15">
+        <v>4</v>
+      </c>
+      <c r="DB15">
+        <v>5</v>
+      </c>
+      <c r="DC15">
+        <v>0</v>
+      </c>
+      <c r="DD15">
+        <v>0</v>
+      </c>
+      <c r="DE15">
+        <v>18</v>
+      </c>
+      <c r="DF15">
+        <v>2</v>
+      </c>
+      <c r="DG15">
+        <v>0</v>
+      </c>
+      <c r="DH15">
+        <v>0</v>
+      </c>
+      <c r="DI15">
+        <v>0</v>
+      </c>
+      <c r="DJ15">
+        <v>0</v>
+      </c>
+      <c r="DK15">
+        <v>0</v>
+      </c>
+      <c r="DL15">
+        <v>0</v>
+      </c>
+      <c r="DM15">
+        <v>0</v>
+      </c>
+      <c r="DN15">
+        <v>0</v>
+      </c>
+      <c r="DO15">
+        <v>25</v>
+      </c>
+      <c r="DP15">
+        <v>7</v>
+      </c>
+      <c r="DQ15">
+        <v>9</v>
+      </c>
+      <c r="DR15">
+        <v>0</v>
+      </c>
+      <c r="DS15">
+        <v>13</v>
+      </c>
+      <c r="DT15">
+        <v>10</v>
+      </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>766318</v>
       </c>
@@ -99225,8 +104383,344 @@
       <c r="L16" s="14" t="s">
         <v>919</v>
       </c>
+      <c r="M16">
+        <v>13</v>
+      </c>
+      <c r="N16">
+        <v>9</v>
+      </c>
+      <c r="O16">
+        <v>8</v>
+      </c>
+      <c r="P16">
+        <v>4</v>
+      </c>
+      <c r="Q16">
+        <v>762</v>
+      </c>
+      <c r="R16">
+        <v>762</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>10</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>8</v>
+      </c>
+      <c r="AB16">
+        <v>155</v>
+      </c>
+      <c r="AC16">
+        <v>69</v>
+      </c>
+      <c r="AD16">
+        <v>44</v>
+      </c>
+      <c r="AE16">
+        <v>12</v>
+      </c>
+      <c r="AF16">
+        <v>99</v>
+      </c>
+      <c r="AG16">
+        <v>53</v>
+      </c>
+      <c r="AH16">
+        <v>8</v>
+      </c>
+      <c r="AI16">
+        <v>3</v>
+      </c>
+      <c r="AJ16">
+        <v>4</v>
+      </c>
+      <c r="AK16">
+        <v>176</v>
+      </c>
+      <c r="AL16">
+        <v>118</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>12</v>
+      </c>
+      <c r="AP16">
+        <v>7</v>
+      </c>
+      <c r="AQ16">
+        <v>23</v>
+      </c>
+      <c r="AR16">
+        <v>6</v>
+      </c>
+      <c r="AS16">
+        <v>48</v>
+      </c>
+      <c r="AT16">
+        <v>27</v>
+      </c>
+      <c r="AU16">
+        <v>45</v>
+      </c>
+      <c r="AV16">
+        <v>39</v>
+      </c>
+      <c r="AW16">
+        <v>1</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>2</v>
+      </c>
+      <c r="AZ16">
+        <v>2</v>
+      </c>
+      <c r="BA16">
+        <v>55</v>
+      </c>
+      <c r="BB16">
+        <v>37</v>
+      </c>
+      <c r="BC16">
+        <v>7</v>
+      </c>
+      <c r="BD16">
+        <v>4</v>
+      </c>
+      <c r="BE16">
+        <v>54</v>
+      </c>
+      <c r="BF16">
+        <v>43</v>
+      </c>
+      <c r="BG16">
+        <v>23</v>
+      </c>
+      <c r="BH16">
+        <v>67</v>
+      </c>
+      <c r="BI16">
+        <v>52</v>
+      </c>
+      <c r="BJ16">
+        <v>87</v>
+      </c>
+      <c r="BK16">
+        <v>36</v>
+      </c>
+      <c r="BL16">
+        <v>0</v>
+      </c>
+      <c r="BM16">
+        <v>0</v>
+      </c>
+      <c r="BN16">
+        <v>0</v>
+      </c>
+      <c r="BO16">
+        <v>0</v>
+      </c>
+      <c r="BP16">
+        <v>0</v>
+      </c>
+      <c r="BQ16">
+        <v>0</v>
+      </c>
+      <c r="BR16">
+        <v>6</v>
+      </c>
+      <c r="BS16">
+        <v>3</v>
+      </c>
+      <c r="BT16">
+        <v>0</v>
+      </c>
+      <c r="BU16">
+        <v>0</v>
+      </c>
+      <c r="BV16">
+        <v>4</v>
+      </c>
+      <c r="BW16">
+        <v>1</v>
+      </c>
+      <c r="BX16">
+        <v>2</v>
+      </c>
+      <c r="BY16">
+        <v>5</v>
+      </c>
+      <c r="BZ16">
+        <v>2</v>
+      </c>
+      <c r="CA16">
+        <v>34</v>
+      </c>
+      <c r="CB16">
+        <v>13</v>
+      </c>
+      <c r="CC16">
+        <v>2</v>
+      </c>
+      <c r="CD16">
+        <v>82</v>
+      </c>
+      <c r="CE16">
+        <v>23</v>
+      </c>
+      <c r="CF16">
+        <v>4</v>
+      </c>
+      <c r="CG16" t="s">
+        <v>457</v>
+      </c>
+      <c r="CH16" t="s">
+        <v>805</v>
+      </c>
+      <c r="CI16">
+        <v>0</v>
+      </c>
+      <c r="CJ16">
+        <v>136</v>
+      </c>
+      <c r="CK16">
+        <v>25</v>
+      </c>
+      <c r="CL16">
+        <v>38</v>
+      </c>
+      <c r="CM16">
+        <v>1</v>
+      </c>
+      <c r="CN16">
+        <v>2</v>
+      </c>
+      <c r="CO16">
+        <v>0</v>
+      </c>
+      <c r="CP16">
+        <v>0</v>
+      </c>
+      <c r="CQ16">
+        <v>2</v>
+      </c>
+      <c r="CR16">
+        <v>5</v>
+      </c>
+      <c r="CS16">
+        <v>32</v>
+      </c>
+      <c r="CT16">
+        <v>14</v>
+      </c>
+      <c r="CU16">
+        <v>0</v>
+      </c>
+      <c r="CV16">
+        <v>0</v>
+      </c>
+      <c r="CW16">
+        <v>9</v>
+      </c>
+      <c r="CX16">
+        <v>3</v>
+      </c>
+      <c r="CY16">
+        <v>0</v>
+      </c>
+      <c r="CZ16">
+        <v>0</v>
+      </c>
+      <c r="DA16">
+        <v>3</v>
+      </c>
+      <c r="DB16">
+        <v>21</v>
+      </c>
+      <c r="DC16">
+        <v>0</v>
+      </c>
+      <c r="DD16">
+        <v>0</v>
+      </c>
+      <c r="DE16">
+        <v>8</v>
+      </c>
+      <c r="DF16">
+        <v>3</v>
+      </c>
+      <c r="DG16">
+        <v>0</v>
+      </c>
+      <c r="DH16">
+        <v>0</v>
+      </c>
+      <c r="DI16">
+        <v>0</v>
+      </c>
+      <c r="DJ16">
+        <v>0</v>
+      </c>
+      <c r="DK16">
+        <v>0</v>
+      </c>
+      <c r="DL16">
+        <v>0</v>
+      </c>
+      <c r="DM16">
+        <v>0</v>
+      </c>
+      <c r="DN16">
+        <v>0</v>
+      </c>
+      <c r="DO16">
+        <v>71</v>
+      </c>
+      <c r="DP16">
+        <v>29</v>
+      </c>
+      <c r="DQ16">
+        <v>38</v>
+      </c>
+      <c r="DR16">
+        <v>27</v>
+      </c>
+      <c r="DS16">
+        <v>55</v>
+      </c>
+      <c r="DT16">
+        <v>37</v>
+      </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>1094888</v>
       </c>
@@ -99262,8 +104756,344 @@
       <c r="L17" s="14" t="s">
         <v>918</v>
       </c>
+      <c r="M17">
+        <v>14</v>
+      </c>
+      <c r="N17">
+        <v>12</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17">
+        <v>2</v>
+      </c>
+      <c r="Q17">
+        <v>1177</v>
+      </c>
+      <c r="R17">
+        <v>1177</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>10</v>
+      </c>
+      <c r="V17">
+        <v>2</v>
+      </c>
+      <c r="W17">
+        <v>2</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>230</v>
+      </c>
+      <c r="AC17">
+        <v>76</v>
+      </c>
+      <c r="AD17">
+        <v>93</v>
+      </c>
+      <c r="AE17">
+        <v>24</v>
+      </c>
+      <c r="AF17">
+        <v>60</v>
+      </c>
+      <c r="AG17">
+        <v>22</v>
+      </c>
+      <c r="AH17">
+        <v>44</v>
+      </c>
+      <c r="AI17">
+        <v>18</v>
+      </c>
+      <c r="AJ17">
+        <v>16</v>
+      </c>
+      <c r="AK17">
+        <v>330</v>
+      </c>
+      <c r="AL17">
+        <v>247</v>
+      </c>
+      <c r="AM17">
+        <v>1</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
+        <v>41</v>
+      </c>
+      <c r="AP17">
+        <v>26</v>
+      </c>
+      <c r="AQ17">
+        <v>3</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>101</v>
+      </c>
+      <c r="AT17">
+        <v>60</v>
+      </c>
+      <c r="AU17">
+        <v>67</v>
+      </c>
+      <c r="AV17">
+        <v>60</v>
+      </c>
+      <c r="AW17">
+        <v>2</v>
+      </c>
+      <c r="AX17">
+        <v>1</v>
+      </c>
+      <c r="AY17">
+        <v>4</v>
+      </c>
+      <c r="AZ17">
+        <v>4</v>
+      </c>
+      <c r="BA17">
+        <v>101</v>
+      </c>
+      <c r="BB17">
+        <v>76</v>
+      </c>
+      <c r="BC17">
+        <v>21</v>
+      </c>
+      <c r="BD17">
+        <v>8</v>
+      </c>
+      <c r="BE17">
+        <v>6</v>
+      </c>
+      <c r="BF17">
+        <v>3</v>
+      </c>
+      <c r="BG17">
+        <v>34</v>
+      </c>
+      <c r="BH17">
+        <v>129</v>
+      </c>
+      <c r="BI17">
+        <v>98</v>
+      </c>
+      <c r="BJ17">
+        <v>20</v>
+      </c>
+      <c r="BK17">
+        <v>10</v>
+      </c>
+      <c r="BL17">
+        <v>0</v>
+      </c>
+      <c r="BM17">
+        <v>0</v>
+      </c>
+      <c r="BN17">
+        <v>0</v>
+      </c>
+      <c r="BO17">
+        <v>0</v>
+      </c>
+      <c r="BP17">
+        <v>0</v>
+      </c>
+      <c r="BQ17">
+        <v>0</v>
+      </c>
+      <c r="BR17">
+        <v>0</v>
+      </c>
+      <c r="BS17">
+        <v>0</v>
+      </c>
+      <c r="BT17">
+        <v>5</v>
+      </c>
+      <c r="BU17">
+        <v>0</v>
+      </c>
+      <c r="BV17">
+        <v>33</v>
+      </c>
+      <c r="BW17">
+        <v>12</v>
+      </c>
+      <c r="BX17">
+        <v>6</v>
+      </c>
+      <c r="BY17">
+        <v>8</v>
+      </c>
+      <c r="BZ17">
+        <v>4</v>
+      </c>
+      <c r="CA17">
+        <v>89</v>
+      </c>
+      <c r="CB17">
+        <v>35</v>
+      </c>
+      <c r="CC17">
+        <v>5</v>
+      </c>
+      <c r="CD17">
+        <v>128</v>
+      </c>
+      <c r="CE17">
+        <v>46</v>
+      </c>
+      <c r="CF17">
+        <v>5</v>
+      </c>
+      <c r="CG17" s="4">
+        <v>46357</v>
+      </c>
+      <c r="CH17" t="s">
+        <v>647</v>
+      </c>
+      <c r="CI17">
+        <v>0</v>
+      </c>
+      <c r="CJ17">
+        <v>205</v>
+      </c>
+      <c r="CK17">
+        <v>14</v>
+      </c>
+      <c r="CL17">
+        <v>14</v>
+      </c>
+      <c r="CM17">
+        <v>1</v>
+      </c>
+      <c r="CN17">
+        <v>10</v>
+      </c>
+      <c r="CO17">
+        <v>0</v>
+      </c>
+      <c r="CP17">
+        <v>0</v>
+      </c>
+      <c r="CQ17">
+        <v>5</v>
+      </c>
+      <c r="CR17">
+        <v>17</v>
+      </c>
+      <c r="CS17">
+        <v>46</v>
+      </c>
+      <c r="CT17">
+        <v>58</v>
+      </c>
+      <c r="CU17">
+        <v>2</v>
+      </c>
+      <c r="CV17">
+        <v>0</v>
+      </c>
+      <c r="CW17">
+        <v>21</v>
+      </c>
+      <c r="CX17">
+        <v>7</v>
+      </c>
+      <c r="CY17">
+        <v>0</v>
+      </c>
+      <c r="CZ17">
+        <v>0</v>
+      </c>
+      <c r="DA17">
+        <v>7</v>
+      </c>
+      <c r="DB17">
+        <v>19</v>
+      </c>
+      <c r="DC17">
+        <v>2</v>
+      </c>
+      <c r="DD17">
+        <v>0</v>
+      </c>
+      <c r="DE17">
+        <v>44</v>
+      </c>
+      <c r="DF17">
+        <v>18</v>
+      </c>
+      <c r="DG17">
+        <v>0</v>
+      </c>
+      <c r="DH17">
+        <v>0</v>
+      </c>
+      <c r="DI17">
+        <v>0</v>
+      </c>
+      <c r="DJ17">
+        <v>0</v>
+      </c>
+      <c r="DK17">
+        <v>0</v>
+      </c>
+      <c r="DL17">
+        <v>0</v>
+      </c>
+      <c r="DM17">
+        <v>0</v>
+      </c>
+      <c r="DN17">
+        <v>0</v>
+      </c>
+      <c r="DO17">
+        <v>112</v>
+      </c>
+      <c r="DP17">
+        <v>62</v>
+      </c>
+      <c r="DQ17">
+        <v>20</v>
+      </c>
+      <c r="DR17">
+        <v>2</v>
+      </c>
+      <c r="DS17">
+        <v>101</v>
+      </c>
+      <c r="DT17">
+        <v>76</v>
+      </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>813420</v>
       </c>
@@ -99301,8 +105131,344 @@
       <c r="L18" s="14" t="s">
         <v>998</v>
       </c>
+      <c r="M18">
+        <v>9</v>
+      </c>
+      <c r="N18">
+        <v>9</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>864</v>
+      </c>
+      <c r="R18">
+        <v>864</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>8</v>
+      </c>
+      <c r="AC18">
+        <v>6</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>5</v>
+      </c>
+      <c r="AI18">
+        <v>4</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>346</v>
+      </c>
+      <c r="AL18">
+        <v>299</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>7</v>
+      </c>
+      <c r="AP18">
+        <v>2</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>141</v>
+      </c>
+      <c r="AT18">
+        <v>103</v>
+      </c>
+      <c r="AU18">
+        <v>1</v>
+      </c>
+      <c r="AV18">
+        <v>1</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>190</v>
+      </c>
+      <c r="BB18">
+        <v>184</v>
+      </c>
+      <c r="BC18">
+        <v>91</v>
+      </c>
+      <c r="BD18">
+        <v>60</v>
+      </c>
+      <c r="BE18">
+        <v>0</v>
+      </c>
+      <c r="BF18">
+        <v>0</v>
+      </c>
+      <c r="BG18">
+        <v>28</v>
+      </c>
+      <c r="BH18">
+        <v>28</v>
+      </c>
+      <c r="BI18">
+        <v>28</v>
+      </c>
+      <c r="BJ18">
+        <v>0</v>
+      </c>
+      <c r="BK18">
+        <v>0</v>
+      </c>
+      <c r="BL18">
+        <v>1</v>
+      </c>
+      <c r="BM18">
+        <v>1</v>
+      </c>
+      <c r="BN18">
+        <v>0</v>
+      </c>
+      <c r="BO18">
+        <v>0</v>
+      </c>
+      <c r="BP18">
+        <v>0</v>
+      </c>
+      <c r="BQ18">
+        <v>0</v>
+      </c>
+      <c r="BR18">
+        <v>0</v>
+      </c>
+      <c r="BS18">
+        <v>0</v>
+      </c>
+      <c r="BT18">
+        <v>0</v>
+      </c>
+      <c r="BU18">
+        <v>0</v>
+      </c>
+      <c r="BV18">
+        <v>3</v>
+      </c>
+      <c r="BW18">
+        <v>2</v>
+      </c>
+      <c r="BX18">
+        <v>0</v>
+      </c>
+      <c r="BY18">
+        <v>1</v>
+      </c>
+      <c r="BZ18">
+        <v>0</v>
+      </c>
+      <c r="CA18">
+        <v>70</v>
+      </c>
+      <c r="CB18">
+        <v>0</v>
+      </c>
+      <c r="CC18">
+        <v>0</v>
+      </c>
+      <c r="CD18">
+        <v>41</v>
+      </c>
+      <c r="CE18">
+        <v>27</v>
+      </c>
+      <c r="CF18">
+        <v>7</v>
+      </c>
+      <c r="CG18">
+        <v>0</v>
+      </c>
+      <c r="CH18" t="s">
+        <v>320</v>
+      </c>
+      <c r="CI18" t="s">
+        <v>1005</v>
+      </c>
+      <c r="CJ18">
+        <v>217</v>
+      </c>
+      <c r="CK18">
+        <v>0</v>
+      </c>
+      <c r="CL18">
+        <v>0</v>
+      </c>
+      <c r="CM18">
+        <v>0</v>
+      </c>
+      <c r="CN18">
+        <v>1</v>
+      </c>
+      <c r="CO18">
+        <v>0</v>
+      </c>
+      <c r="CP18">
+        <v>0</v>
+      </c>
+      <c r="CQ18">
+        <v>0</v>
+      </c>
+      <c r="CR18">
+        <v>0</v>
+      </c>
+      <c r="CS18">
+        <v>63</v>
+      </c>
+      <c r="CT18">
+        <v>3</v>
+      </c>
+      <c r="CU18">
+        <v>0</v>
+      </c>
+      <c r="CV18">
+        <v>75</v>
+      </c>
+      <c r="CW18">
+        <v>0</v>
+      </c>
+      <c r="CX18">
+        <v>0</v>
+      </c>
+      <c r="CY18">
+        <v>57</v>
+      </c>
+      <c r="CZ18">
+        <v>18</v>
+      </c>
+      <c r="DA18">
+        <v>0</v>
+      </c>
+      <c r="DB18">
+        <v>31</v>
+      </c>
+      <c r="DC18">
+        <v>0</v>
+      </c>
+      <c r="DD18">
+        <v>71</v>
+      </c>
+      <c r="DE18">
+        <v>0</v>
+      </c>
+      <c r="DF18">
+        <v>0</v>
+      </c>
+      <c r="DG18">
+        <v>1</v>
+      </c>
+      <c r="DH18">
+        <v>20</v>
+      </c>
+      <c r="DI18">
+        <v>58</v>
+      </c>
+      <c r="DJ18">
+        <v>13</v>
+      </c>
+      <c r="DK18">
+        <v>0</v>
+      </c>
+      <c r="DL18">
+        <v>5</v>
+      </c>
+      <c r="DM18">
+        <v>4</v>
+      </c>
+      <c r="DN18">
+        <v>38</v>
+      </c>
+      <c r="DO18">
+        <v>6</v>
+      </c>
+      <c r="DP18">
+        <v>0</v>
+      </c>
+      <c r="DQ18">
+        <v>0</v>
+      </c>
+      <c r="DR18">
+        <v>0</v>
+      </c>
+      <c r="DS18">
+        <v>190</v>
+      </c>
+      <c r="DT18">
+        <v>184</v>
+      </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>897263</v>
       </c>
@@ -99340,8 +105506,344 @@
       <c r="L19" s="14" t="s">
         <v>918</v>
       </c>
+      <c r="M19">
+        <v>12</v>
+      </c>
+      <c r="N19">
+        <v>12</v>
+      </c>
+      <c r="O19">
+        <v>3</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1043</v>
+      </c>
+      <c r="R19">
+        <v>1043</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>3</v>
+      </c>
+      <c r="U19">
+        <v>11</v>
+      </c>
+      <c r="V19">
+        <v>3</v>
+      </c>
+      <c r="W19">
+        <v>8</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>267</v>
+      </c>
+      <c r="AC19">
+        <v>88</v>
+      </c>
+      <c r="AD19">
+        <v>131</v>
+      </c>
+      <c r="AE19">
+        <v>29</v>
+      </c>
+      <c r="AF19">
+        <v>91</v>
+      </c>
+      <c r="AG19">
+        <v>41</v>
+      </c>
+      <c r="AH19">
+        <v>17</v>
+      </c>
+      <c r="AI19">
+        <v>7</v>
+      </c>
+      <c r="AJ19">
+        <v>23</v>
+      </c>
+      <c r="AK19">
+        <v>460</v>
+      </c>
+      <c r="AL19">
+        <v>335</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>51</v>
+      </c>
+      <c r="AP19">
+        <v>32</v>
+      </c>
+      <c r="AQ19">
+        <v>31</v>
+      </c>
+      <c r="AR19">
+        <v>10</v>
+      </c>
+      <c r="AS19">
+        <v>152</v>
+      </c>
+      <c r="AT19">
+        <v>93</v>
+      </c>
+      <c r="AU19">
+        <v>101</v>
+      </c>
+      <c r="AV19">
+        <v>95</v>
+      </c>
+      <c r="AW19">
+        <v>6</v>
+      </c>
+      <c r="AX19">
+        <v>3</v>
+      </c>
+      <c r="AY19">
+        <v>6</v>
+      </c>
+      <c r="AZ19">
+        <v>6</v>
+      </c>
+      <c r="BA19">
+        <v>117</v>
+      </c>
+      <c r="BB19">
+        <v>80</v>
+      </c>
+      <c r="BC19">
+        <v>42</v>
+      </c>
+      <c r="BD19">
+        <v>14</v>
+      </c>
+      <c r="BE19">
+        <v>34</v>
+      </c>
+      <c r="BF19">
+        <v>18</v>
+      </c>
+      <c r="BG19">
+        <v>64</v>
+      </c>
+      <c r="BH19">
+        <v>199</v>
+      </c>
+      <c r="BI19">
+        <v>145</v>
+      </c>
+      <c r="BJ19">
+        <v>76</v>
+      </c>
+      <c r="BK19">
+        <v>29</v>
+      </c>
+      <c r="BL19">
+        <v>3</v>
+      </c>
+      <c r="BM19">
+        <v>1</v>
+      </c>
+      <c r="BN19">
+        <v>1</v>
+      </c>
+      <c r="BO19">
+        <v>0</v>
+      </c>
+      <c r="BP19">
+        <v>0</v>
+      </c>
+      <c r="BQ19">
+        <v>0</v>
+      </c>
+      <c r="BR19">
+        <v>0</v>
+      </c>
+      <c r="BS19">
+        <v>4</v>
+      </c>
+      <c r="BT19">
+        <v>1</v>
+      </c>
+      <c r="BU19">
+        <v>0</v>
+      </c>
+      <c r="BV19">
+        <v>28</v>
+      </c>
+      <c r="BW19">
+        <v>11</v>
+      </c>
+      <c r="BX19">
+        <v>15</v>
+      </c>
+      <c r="BY19">
+        <v>13</v>
+      </c>
+      <c r="BZ19">
+        <v>6</v>
+      </c>
+      <c r="CA19">
+        <v>96</v>
+      </c>
+      <c r="CB19">
+        <v>29</v>
+      </c>
+      <c r="CC19">
+        <v>5</v>
+      </c>
+      <c r="CD19">
+        <v>176</v>
+      </c>
+      <c r="CE19">
+        <v>62</v>
+      </c>
+      <c r="CF19">
+        <v>4</v>
+      </c>
+      <c r="CG19" t="s">
+        <v>506</v>
+      </c>
+      <c r="CH19" s="1">
+        <v>28856</v>
+      </c>
+      <c r="CI19">
+        <v>0</v>
+      </c>
+      <c r="CJ19">
+        <v>342</v>
+      </c>
+      <c r="CK19">
+        <v>27</v>
+      </c>
+      <c r="CL19">
+        <v>24</v>
+      </c>
+      <c r="CM19">
+        <v>10</v>
+      </c>
+      <c r="CN19">
+        <v>24</v>
+      </c>
+      <c r="CO19">
+        <v>1</v>
+      </c>
+      <c r="CP19">
+        <v>1</v>
+      </c>
+      <c r="CQ19">
+        <v>1</v>
+      </c>
+      <c r="CR19">
+        <v>11</v>
+      </c>
+      <c r="CS19">
+        <v>98</v>
+      </c>
+      <c r="CT19">
+        <v>41</v>
+      </c>
+      <c r="CU19">
+        <v>4</v>
+      </c>
+      <c r="CV19">
+        <v>0</v>
+      </c>
+      <c r="CW19">
+        <v>39</v>
+      </c>
+      <c r="CX19">
+        <v>17</v>
+      </c>
+      <c r="CY19">
+        <v>0</v>
+      </c>
+      <c r="CZ19">
+        <v>0</v>
+      </c>
+      <c r="DA19">
+        <v>4</v>
+      </c>
+      <c r="DB19">
+        <v>63</v>
+      </c>
+      <c r="DC19">
+        <v>3</v>
+      </c>
+      <c r="DD19">
+        <v>0</v>
+      </c>
+      <c r="DE19">
+        <v>17</v>
+      </c>
+      <c r="DF19">
+        <v>7</v>
+      </c>
+      <c r="DG19">
+        <v>0</v>
+      </c>
+      <c r="DH19">
+        <v>0</v>
+      </c>
+      <c r="DI19">
+        <v>0</v>
+      </c>
+      <c r="DJ19">
+        <v>0</v>
+      </c>
+      <c r="DK19">
+        <v>0</v>
+      </c>
+      <c r="DL19">
+        <v>0</v>
+      </c>
+      <c r="DM19">
+        <v>0</v>
+      </c>
+      <c r="DN19">
+        <v>0</v>
+      </c>
+      <c r="DO19">
+        <v>129</v>
+      </c>
+      <c r="DP19">
+        <v>77</v>
+      </c>
+      <c r="DQ19">
+        <v>34</v>
+      </c>
+      <c r="DR19">
+        <v>15</v>
+      </c>
+      <c r="DS19">
+        <v>117</v>
+      </c>
+      <c r="DT19">
+        <v>80</v>
+      </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>846741</v>
       </c>
@@ -99375,8 +105877,344 @@
       <c r="L20" s="14" t="s">
         <v>919</v>
       </c>
+      <c r="M20">
+        <v>14</v>
+      </c>
+      <c r="N20">
+        <v>13</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1313</v>
+      </c>
+      <c r="R20">
+        <v>1313</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>6</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>191</v>
+      </c>
+      <c r="AC20">
+        <v>80</v>
+      </c>
+      <c r="AD20">
+        <v>95</v>
+      </c>
+      <c r="AE20">
+        <v>23</v>
+      </c>
+      <c r="AF20">
+        <v>53</v>
+      </c>
+      <c r="AG20">
+        <v>31</v>
+      </c>
+      <c r="AH20">
+        <v>19</v>
+      </c>
+      <c r="AI20">
+        <v>13</v>
+      </c>
+      <c r="AJ20">
+        <v>11</v>
+      </c>
+      <c r="AK20">
+        <v>716</v>
+      </c>
+      <c r="AL20">
+        <v>572</v>
+      </c>
+      <c r="AM20">
+        <v>1</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>110</v>
+      </c>
+      <c r="AP20">
+        <v>82</v>
+      </c>
+      <c r="AQ20">
+        <v>10</v>
+      </c>
+      <c r="AR20">
+        <v>6</v>
+      </c>
+      <c r="AS20">
+        <v>338</v>
+      </c>
+      <c r="AT20">
+        <v>241</v>
+      </c>
+      <c r="AU20">
+        <v>52</v>
+      </c>
+      <c r="AV20">
+        <v>48</v>
+      </c>
+      <c r="AW20">
+        <v>9</v>
+      </c>
+      <c r="AX20">
+        <v>1</v>
+      </c>
+      <c r="AY20">
+        <v>2</v>
+      </c>
+      <c r="AZ20">
+        <v>1</v>
+      </c>
+      <c r="BA20">
+        <v>264</v>
+      </c>
+      <c r="BB20">
+        <v>236</v>
+      </c>
+      <c r="BC20">
+        <v>96</v>
+      </c>
+      <c r="BD20">
+        <v>45</v>
+      </c>
+      <c r="BE20">
+        <v>15</v>
+      </c>
+      <c r="BF20">
+        <v>12</v>
+      </c>
+      <c r="BG20">
+        <v>61</v>
+      </c>
+      <c r="BH20">
+        <v>159</v>
+      </c>
+      <c r="BI20">
+        <v>131</v>
+      </c>
+      <c r="BJ20">
+        <v>32</v>
+      </c>
+      <c r="BK20">
+        <v>18</v>
+      </c>
+      <c r="BL20">
+        <v>0</v>
+      </c>
+      <c r="BM20">
+        <v>0</v>
+      </c>
+      <c r="BN20">
+        <v>0</v>
+      </c>
+      <c r="BO20">
+        <v>0</v>
+      </c>
+      <c r="BP20">
+        <v>0</v>
+      </c>
+      <c r="BQ20">
+        <v>0</v>
+      </c>
+      <c r="BR20">
+        <v>0</v>
+      </c>
+      <c r="BS20">
+        <v>2</v>
+      </c>
+      <c r="BT20">
+        <v>0</v>
+      </c>
+      <c r="BU20">
+        <v>0</v>
+      </c>
+      <c r="BV20">
+        <v>24</v>
+      </c>
+      <c r="BW20">
+        <v>13</v>
+      </c>
+      <c r="BX20">
+        <v>2</v>
+      </c>
+      <c r="BY20">
+        <v>3</v>
+      </c>
+      <c r="BZ20">
+        <v>2</v>
+      </c>
+      <c r="CA20">
+        <v>120</v>
+      </c>
+      <c r="CB20">
+        <v>22</v>
+      </c>
+      <c r="CC20">
+        <v>1</v>
+      </c>
+      <c r="CD20">
+        <v>163</v>
+      </c>
+      <c r="CE20">
+        <v>92</v>
+      </c>
+      <c r="CF20">
+        <v>14</v>
+      </c>
+      <c r="CG20" t="s">
+        <v>1006</v>
+      </c>
+      <c r="CH20" t="s">
+        <v>1007</v>
+      </c>
+      <c r="CI20">
+        <v>0</v>
+      </c>
+      <c r="CJ20">
+        <v>507</v>
+      </c>
+      <c r="CK20">
+        <v>7</v>
+      </c>
+      <c r="CL20">
+        <v>23</v>
+      </c>
+      <c r="CM20">
+        <v>0</v>
+      </c>
+      <c r="CN20">
+        <v>32</v>
+      </c>
+      <c r="CO20">
+        <v>2</v>
+      </c>
+      <c r="CP20">
+        <v>0</v>
+      </c>
+      <c r="CQ20">
+        <v>8</v>
+      </c>
+      <c r="CR20">
+        <v>8</v>
+      </c>
+      <c r="CS20">
+        <v>193</v>
+      </c>
+      <c r="CT20">
+        <v>37</v>
+      </c>
+      <c r="CU20">
+        <v>3</v>
+      </c>
+      <c r="CV20">
+        <v>0</v>
+      </c>
+      <c r="CW20">
+        <v>38</v>
+      </c>
+      <c r="CX20">
+        <v>21</v>
+      </c>
+      <c r="CY20">
+        <v>0</v>
+      </c>
+      <c r="CZ20">
+        <v>0</v>
+      </c>
+      <c r="DA20">
+        <v>2</v>
+      </c>
+      <c r="DB20">
+        <v>125</v>
+      </c>
+      <c r="DC20">
+        <v>2</v>
+      </c>
+      <c r="DD20">
+        <v>0</v>
+      </c>
+      <c r="DE20">
+        <v>19</v>
+      </c>
+      <c r="DF20">
+        <v>13</v>
+      </c>
+      <c r="DG20">
+        <v>0</v>
+      </c>
+      <c r="DH20">
+        <v>0</v>
+      </c>
+      <c r="DI20">
+        <v>0</v>
+      </c>
+      <c r="DJ20">
+        <v>0</v>
+      </c>
+      <c r="DK20">
+        <v>0</v>
+      </c>
+      <c r="DL20">
+        <v>0</v>
+      </c>
+      <c r="DM20">
+        <v>0</v>
+      </c>
+      <c r="DN20">
+        <v>0</v>
+      </c>
+      <c r="DO20">
+        <v>123</v>
+      </c>
+      <c r="DP20">
+        <v>67</v>
+      </c>
+      <c r="DQ20">
+        <v>30</v>
+      </c>
+      <c r="DR20">
+        <v>10</v>
+      </c>
+      <c r="DS20">
+        <v>264</v>
+      </c>
+      <c r="DT20">
+        <v>236</v>
+      </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A21" s="20">
         <v>840</v>
       </c>
@@ -99408,8 +106246,344 @@
       <c r="L21" s="14" t="s">
         <v>920</v>
       </c>
+      <c r="M21">
+        <v>14</v>
+      </c>
+      <c r="N21">
+        <v>13</v>
+      </c>
+      <c r="O21">
+        <v>4</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1198</v>
+      </c>
+      <c r="R21">
+        <v>1198</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>2</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>114</v>
+      </c>
+      <c r="AC21">
+        <v>35</v>
+      </c>
+      <c r="AD21">
+        <v>76</v>
+      </c>
+      <c r="AE21">
+        <v>19</v>
+      </c>
+      <c r="AF21">
+        <v>14</v>
+      </c>
+      <c r="AG21">
+        <v>4</v>
+      </c>
+      <c r="AH21">
+        <v>11</v>
+      </c>
+      <c r="AI21">
+        <v>5</v>
+      </c>
+      <c r="AJ21">
+        <v>9</v>
+      </c>
+      <c r="AK21">
+        <v>613</v>
+      </c>
+      <c r="AL21">
+        <v>502</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>88</v>
+      </c>
+      <c r="AP21">
+        <v>57</v>
+      </c>
+      <c r="AQ21">
+        <v>2</v>
+      </c>
+      <c r="AR21">
+        <v>2</v>
+      </c>
+      <c r="AS21">
+        <v>268</v>
+      </c>
+      <c r="AT21">
+        <v>198</v>
+      </c>
+      <c r="AU21">
+        <v>51</v>
+      </c>
+      <c r="AV21">
+        <v>45</v>
+      </c>
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <v>1</v>
+      </c>
+      <c r="AZ21">
+        <v>1</v>
+      </c>
+      <c r="BA21">
+        <v>248</v>
+      </c>
+      <c r="BB21">
+        <v>226</v>
+      </c>
+      <c r="BC21">
+        <v>101</v>
+      </c>
+      <c r="BD21">
+        <v>44</v>
+      </c>
+      <c r="BE21">
+        <v>1</v>
+      </c>
+      <c r="BF21">
+        <v>0</v>
+      </c>
+      <c r="BG21">
+        <v>63</v>
+      </c>
+      <c r="BH21">
+        <v>139</v>
+      </c>
+      <c r="BI21">
+        <v>116</v>
+      </c>
+      <c r="BJ21">
+        <v>5</v>
+      </c>
+      <c r="BK21">
+        <v>2</v>
+      </c>
+      <c r="BL21">
+        <v>0</v>
+      </c>
+      <c r="BM21">
+        <v>0</v>
+      </c>
+      <c r="BN21">
+        <v>0</v>
+      </c>
+      <c r="BO21">
+        <v>0</v>
+      </c>
+      <c r="BP21">
+        <v>0</v>
+      </c>
+      <c r="BQ21">
+        <v>0</v>
+      </c>
+      <c r="BR21">
+        <v>0</v>
+      </c>
+      <c r="BS21">
+        <v>0</v>
+      </c>
+      <c r="BT21">
+        <v>1</v>
+      </c>
+      <c r="BU21">
+        <v>0</v>
+      </c>
+      <c r="BV21">
+        <v>13</v>
+      </c>
+      <c r="BW21">
+        <v>7</v>
+      </c>
+      <c r="BX21">
+        <v>2</v>
+      </c>
+      <c r="BY21">
+        <v>0</v>
+      </c>
+      <c r="BZ21">
+        <v>1</v>
+      </c>
+      <c r="CA21">
+        <v>98</v>
+      </c>
+      <c r="CB21">
+        <v>15</v>
+      </c>
+      <c r="CC21">
+        <v>1</v>
+      </c>
+      <c r="CD21">
+        <v>127</v>
+      </c>
+      <c r="CE21">
+        <v>68</v>
+      </c>
+      <c r="CF21">
+        <v>13</v>
+      </c>
+      <c r="CG21" t="s">
+        <v>178</v>
+      </c>
+      <c r="CH21">
+        <v>0</v>
+      </c>
+      <c r="CI21">
+        <v>0</v>
+      </c>
+      <c r="CJ21">
+        <v>454</v>
+      </c>
+      <c r="CK21">
+        <v>3</v>
+      </c>
+      <c r="CL21">
+        <v>7</v>
+      </c>
+      <c r="CM21">
+        <v>0</v>
+      </c>
+      <c r="CN21">
+        <v>44</v>
+      </c>
+      <c r="CO21">
+        <v>0</v>
+      </c>
+      <c r="CP21">
+        <v>0</v>
+      </c>
+      <c r="CQ21">
+        <v>8</v>
+      </c>
+      <c r="CR21">
+        <v>4</v>
+      </c>
+      <c r="CS21">
+        <v>135</v>
+      </c>
+      <c r="CT21">
+        <v>28</v>
+      </c>
+      <c r="CU21">
+        <v>0</v>
+      </c>
+      <c r="CV21">
+        <v>15</v>
+      </c>
+      <c r="CW21">
+        <v>23</v>
+      </c>
+      <c r="CX21">
+        <v>8</v>
+      </c>
+      <c r="CY21">
+        <v>15</v>
+      </c>
+      <c r="CZ21">
+        <v>0</v>
+      </c>
+      <c r="DA21">
+        <v>0</v>
+      </c>
+      <c r="DB21">
+        <v>84</v>
+      </c>
+      <c r="DC21">
+        <v>0</v>
+      </c>
+      <c r="DD21">
+        <v>15</v>
+      </c>
+      <c r="DE21">
+        <v>11</v>
+      </c>
+      <c r="DF21">
+        <v>5</v>
+      </c>
+      <c r="DG21">
+        <v>0</v>
+      </c>
+      <c r="DH21">
+        <v>0</v>
+      </c>
+      <c r="DI21">
+        <v>0</v>
+      </c>
+      <c r="DJ21">
+        <v>0</v>
+      </c>
+      <c r="DK21">
+        <v>0</v>
+      </c>
+      <c r="DL21">
+        <v>0</v>
+      </c>
+      <c r="DM21">
+        <v>0</v>
+      </c>
+      <c r="DN21">
+        <v>0</v>
+      </c>
+      <c r="DO21">
+        <v>69</v>
+      </c>
+      <c r="DP21">
+        <v>53</v>
+      </c>
+      <c r="DQ21">
+        <v>4</v>
+      </c>
+      <c r="DR21">
+        <v>0</v>
+      </c>
+      <c r="DS21">
+        <v>248</v>
+      </c>
+      <c r="DT21">
+        <v>226</v>
+      </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A22" s="20">
         <v>841</v>
       </c>
@@ -99445,8 +106619,344 @@
       <c r="L22" s="14" t="s">
         <v>920</v>
       </c>
+      <c r="M22">
+        <v>10</v>
+      </c>
+      <c r="N22">
+        <v>4</v>
+      </c>
+      <c r="O22">
+        <v>4</v>
+      </c>
+      <c r="P22">
+        <v>6</v>
+      </c>
+      <c r="Q22">
+        <v>522</v>
+      </c>
+      <c r="R22">
+        <v>522</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>9</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>3</v>
+      </c>
+      <c r="AB22">
+        <v>78</v>
+      </c>
+      <c r="AC22">
+        <v>22</v>
+      </c>
+      <c r="AD22">
+        <v>36</v>
+      </c>
+      <c r="AE22">
+        <v>6</v>
+      </c>
+      <c r="AF22">
+        <v>28</v>
+      </c>
+      <c r="AG22">
+        <v>9</v>
+      </c>
+      <c r="AH22">
+        <v>5</v>
+      </c>
+      <c r="AI22">
+        <v>1</v>
+      </c>
+      <c r="AJ22">
+        <v>5</v>
+      </c>
+      <c r="AK22">
+        <v>186</v>
+      </c>
+      <c r="AL22">
+        <v>150</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>16</v>
+      </c>
+      <c r="AP22">
+        <v>10</v>
+      </c>
+      <c r="AQ22">
+        <v>9</v>
+      </c>
+      <c r="AR22">
+        <v>5</v>
+      </c>
+      <c r="AS22">
+        <v>51</v>
+      </c>
+      <c r="AT22">
+        <v>29</v>
+      </c>
+      <c r="AU22">
+        <v>37</v>
+      </c>
+      <c r="AV22">
+        <v>34</v>
+      </c>
+      <c r="AW22">
+        <v>3</v>
+      </c>
+      <c r="AX22">
+        <v>1</v>
+      </c>
+      <c r="AY22">
+        <v>3</v>
+      </c>
+      <c r="AZ22">
+        <v>3</v>
+      </c>
+      <c r="BA22">
+        <v>70</v>
+      </c>
+      <c r="BB22">
+        <v>61</v>
+      </c>
+      <c r="BC22">
+        <v>16</v>
+      </c>
+      <c r="BD22">
+        <v>5</v>
+      </c>
+      <c r="BE22">
+        <v>7</v>
+      </c>
+      <c r="BF22">
+        <v>3</v>
+      </c>
+      <c r="BG22">
+        <v>11</v>
+      </c>
+      <c r="BH22">
+        <v>49</v>
+      </c>
+      <c r="BI22">
+        <v>35</v>
+      </c>
+      <c r="BJ22">
+        <v>25</v>
+      </c>
+      <c r="BK22">
+        <v>9</v>
+      </c>
+      <c r="BL22">
+        <v>3</v>
+      </c>
+      <c r="BM22">
+        <v>1</v>
+      </c>
+      <c r="BN22">
+        <v>0</v>
+      </c>
+      <c r="BO22">
+        <v>0</v>
+      </c>
+      <c r="BP22">
+        <v>2</v>
+      </c>
+      <c r="BQ22">
+        <v>0</v>
+      </c>
+      <c r="BR22">
+        <v>1</v>
+      </c>
+      <c r="BS22">
+        <v>0</v>
+      </c>
+      <c r="BT22">
+        <v>1</v>
+      </c>
+      <c r="BU22">
+        <v>0</v>
+      </c>
+      <c r="BV22">
+        <v>9</v>
+      </c>
+      <c r="BW22">
+        <v>6</v>
+      </c>
+      <c r="BX22">
+        <v>6</v>
+      </c>
+      <c r="BY22">
+        <v>6</v>
+      </c>
+      <c r="BZ22">
+        <v>3</v>
+      </c>
+      <c r="CA22">
+        <v>23</v>
+      </c>
+      <c r="CB22">
+        <v>9</v>
+      </c>
+      <c r="CC22">
+        <v>1</v>
+      </c>
+      <c r="CD22">
+        <v>57</v>
+      </c>
+      <c r="CE22">
+        <v>19</v>
+      </c>
+      <c r="CF22">
+        <v>6</v>
+      </c>
+      <c r="CG22" t="s">
+        <v>1008</v>
+      </c>
+      <c r="CH22" t="s">
+        <v>1009</v>
+      </c>
+      <c r="CI22">
+        <v>0</v>
+      </c>
+      <c r="CJ22">
+        <v>134</v>
+      </c>
+      <c r="CK22">
+        <v>7</v>
+      </c>
+      <c r="CL22">
+        <v>4</v>
+      </c>
+      <c r="CM22">
+        <v>2</v>
+      </c>
+      <c r="CN22">
+        <v>8</v>
+      </c>
+      <c r="CO22">
+        <v>1</v>
+      </c>
+      <c r="CP22">
+        <v>0</v>
+      </c>
+      <c r="CQ22">
+        <v>0</v>
+      </c>
+      <c r="CR22">
+        <v>6</v>
+      </c>
+      <c r="CS22">
+        <v>21</v>
+      </c>
+      <c r="CT22">
+        <v>11</v>
+      </c>
+      <c r="CU22">
+        <v>2</v>
+      </c>
+      <c r="CV22">
+        <v>0</v>
+      </c>
+      <c r="CW22">
+        <v>8</v>
+      </c>
+      <c r="CX22">
+        <v>5</v>
+      </c>
+      <c r="CY22">
+        <v>0</v>
+      </c>
+      <c r="CZ22">
+        <v>0</v>
+      </c>
+      <c r="DA22">
+        <v>3</v>
+      </c>
+      <c r="DB22">
+        <v>13</v>
+      </c>
+      <c r="DC22">
+        <v>0</v>
+      </c>
+      <c r="DD22">
+        <v>0</v>
+      </c>
+      <c r="DE22">
+        <v>5</v>
+      </c>
+      <c r="DF22">
+        <v>1</v>
+      </c>
+      <c r="DG22">
+        <v>0</v>
+      </c>
+      <c r="DH22">
+        <v>0</v>
+      </c>
+      <c r="DI22">
+        <v>0</v>
+      </c>
+      <c r="DJ22">
+        <v>0</v>
+      </c>
+      <c r="DK22">
+        <v>0</v>
+      </c>
+      <c r="DL22">
+        <v>0</v>
+      </c>
+      <c r="DM22">
+        <v>0</v>
+      </c>
+      <c r="DN22">
+        <v>0</v>
+      </c>
+      <c r="DO22">
+        <v>35</v>
+      </c>
+      <c r="DP22">
+        <v>22</v>
+      </c>
+      <c r="DQ22">
+        <v>6</v>
+      </c>
+      <c r="DR22">
+        <v>1</v>
+      </c>
+      <c r="DS22">
+        <v>70</v>
+      </c>
+      <c r="DT22">
+        <v>61</v>
+      </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A23" s="20">
         <v>842</v>
       </c>
@@ -99482,8 +106992,344 @@
       <c r="L23" s="14" t="s">
         <v>918</v>
       </c>
+      <c r="M23">
+        <v>13</v>
+      </c>
+      <c r="N23">
+        <v>8</v>
+      </c>
+      <c r="O23">
+        <v>5</v>
+      </c>
+      <c r="P23">
+        <v>5</v>
+      </c>
+      <c r="Q23">
+        <v>856</v>
+      </c>
+      <c r="R23">
+        <v>856</v>
+      </c>
+      <c r="S23">
+        <v>5</v>
+      </c>
+      <c r="T23">
+        <v>2</v>
+      </c>
+      <c r="U23">
+        <v>26</v>
+      </c>
+      <c r="V23">
+        <v>5</v>
+      </c>
+      <c r="W23">
+        <v>2</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+      <c r="AA23">
+        <v>14</v>
+      </c>
+      <c r="AB23">
+        <v>267</v>
+      </c>
+      <c r="AC23">
+        <v>88</v>
+      </c>
+      <c r="AD23">
+        <v>57</v>
+      </c>
+      <c r="AE23">
+        <v>13</v>
+      </c>
+      <c r="AF23">
+        <v>131</v>
+      </c>
+      <c r="AG23">
+        <v>42</v>
+      </c>
+      <c r="AH23">
+        <v>24</v>
+      </c>
+      <c r="AI23">
+        <v>12</v>
+      </c>
+      <c r="AJ23">
+        <v>25</v>
+      </c>
+      <c r="AK23">
+        <v>168</v>
+      </c>
+      <c r="AL23">
+        <v>132</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>21</v>
+      </c>
+      <c r="AP23">
+        <v>14</v>
+      </c>
+      <c r="AQ23">
+        <v>4</v>
+      </c>
+      <c r="AR23">
+        <v>2</v>
+      </c>
+      <c r="AS23">
+        <v>46</v>
+      </c>
+      <c r="AT23">
+        <v>33</v>
+      </c>
+      <c r="AU23">
+        <v>44</v>
+      </c>
+      <c r="AV23">
+        <v>35</v>
+      </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23">
+        <v>3</v>
+      </c>
+      <c r="AZ23">
+        <v>3</v>
+      </c>
+      <c r="BA23">
+        <v>38</v>
+      </c>
+      <c r="BB23">
+        <v>28</v>
+      </c>
+      <c r="BC23">
+        <v>7</v>
+      </c>
+      <c r="BD23">
+        <v>3</v>
+      </c>
+      <c r="BE23">
+        <v>25</v>
+      </c>
+      <c r="BF23">
+        <v>16</v>
+      </c>
+      <c r="BG23">
+        <v>27</v>
+      </c>
+      <c r="BH23">
+        <v>86</v>
+      </c>
+      <c r="BI23">
+        <v>57</v>
+      </c>
+      <c r="BJ23">
+        <v>55</v>
+      </c>
+      <c r="BK23">
+        <v>28</v>
+      </c>
+      <c r="BL23">
+        <v>0</v>
+      </c>
+      <c r="BM23">
+        <v>0</v>
+      </c>
+      <c r="BN23">
+        <v>0</v>
+      </c>
+      <c r="BO23">
+        <v>0</v>
+      </c>
+      <c r="BP23">
+        <v>0</v>
+      </c>
+      <c r="BQ23">
+        <v>1</v>
+      </c>
+      <c r="BR23">
+        <v>6</v>
+      </c>
+      <c r="BS23">
+        <v>2</v>
+      </c>
+      <c r="BT23">
+        <v>20</v>
+      </c>
+      <c r="BU23">
+        <v>0</v>
+      </c>
+      <c r="BV23">
+        <v>55</v>
+      </c>
+      <c r="BW23">
+        <v>21</v>
+      </c>
+      <c r="BX23">
+        <v>13</v>
+      </c>
+      <c r="BY23">
+        <v>10</v>
+      </c>
+      <c r="BZ23">
+        <v>3</v>
+      </c>
+      <c r="CA23">
+        <v>39</v>
+      </c>
+      <c r="CB23">
+        <v>26</v>
+      </c>
+      <c r="CC23">
+        <v>4</v>
+      </c>
+      <c r="CD23">
+        <v>113</v>
+      </c>
+      <c r="CE23">
+        <v>22</v>
+      </c>
+      <c r="CF23">
+        <v>1</v>
+      </c>
+      <c r="CG23" s="1">
+        <v>15067</v>
+      </c>
+      <c r="CH23" s="4">
+        <v>46327</v>
+      </c>
+      <c r="CI23">
+        <v>0</v>
+      </c>
+      <c r="CJ23">
+        <v>118</v>
+      </c>
+      <c r="CK23">
+        <v>46</v>
+      </c>
+      <c r="CL23">
+        <v>16</v>
+      </c>
+      <c r="CM23">
+        <v>5</v>
+      </c>
+      <c r="CN23">
+        <v>1</v>
+      </c>
+      <c r="CO23">
+        <v>0</v>
+      </c>
+      <c r="CP23">
+        <v>0</v>
+      </c>
+      <c r="CQ23">
+        <v>2</v>
+      </c>
+      <c r="CR23">
+        <v>14</v>
+      </c>
+      <c r="CS23">
+        <v>14</v>
+      </c>
+      <c r="CT23">
+        <v>23</v>
+      </c>
+      <c r="CU23">
+        <v>2</v>
+      </c>
+      <c r="CV23">
+        <v>0</v>
+      </c>
+      <c r="CW23">
+        <v>1</v>
+      </c>
+      <c r="CX23">
+        <v>0</v>
+      </c>
+      <c r="CY23">
+        <v>0</v>
+      </c>
+      <c r="CZ23">
+        <v>0</v>
+      </c>
+      <c r="DA23">
+        <v>15</v>
+      </c>
+      <c r="DB23">
+        <v>9</v>
+      </c>
+      <c r="DC23">
+        <v>0</v>
+      </c>
+      <c r="DD23">
+        <v>0</v>
+      </c>
+      <c r="DE23">
+        <v>24</v>
+      </c>
+      <c r="DF23">
+        <v>12</v>
+      </c>
+      <c r="DG23">
+        <v>0</v>
+      </c>
+      <c r="DH23">
+        <v>0</v>
+      </c>
+      <c r="DI23">
+        <v>0</v>
+      </c>
+      <c r="DJ23">
+        <v>0</v>
+      </c>
+      <c r="DK23">
+        <v>0</v>
+      </c>
+      <c r="DL23">
+        <v>0</v>
+      </c>
+      <c r="DM23">
+        <v>0</v>
+      </c>
+      <c r="DN23">
+        <v>0</v>
+      </c>
+      <c r="DO23">
+        <v>93</v>
+      </c>
+      <c r="DP23">
+        <v>28</v>
+      </c>
+      <c r="DQ23">
+        <v>32</v>
+      </c>
+      <c r="DR23">
+        <v>11</v>
+      </c>
+      <c r="DS23">
+        <v>38</v>
+      </c>
+      <c r="DT23">
+        <v>28</v>
+      </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A24" s="20">
         <v>843</v>
       </c>
@@ -99521,8 +107367,344 @@
       <c r="L24" s="14" t="s">
         <v>918</v>
       </c>
+      <c r="M24">
+        <v>8</v>
+      </c>
+      <c r="N24">
+        <v>6</v>
+      </c>
+      <c r="O24">
+        <v>2</v>
+      </c>
+      <c r="P24">
+        <v>2</v>
+      </c>
+      <c r="Q24">
+        <v>553</v>
+      </c>
+      <c r="R24">
+        <v>553</v>
+      </c>
+      <c r="S24">
+        <v>3</v>
+      </c>
+      <c r="T24">
+        <v>2</v>
+      </c>
+      <c r="U24">
+        <v>10</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="Z24">
+        <v>2</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>101</v>
+      </c>
+      <c r="AC24">
+        <v>34</v>
+      </c>
+      <c r="AD24">
+        <v>35</v>
+      </c>
+      <c r="AE24">
+        <v>7</v>
+      </c>
+      <c r="AF24">
+        <v>40</v>
+      </c>
+      <c r="AG24">
+        <v>15</v>
+      </c>
+      <c r="AH24">
+        <v>11</v>
+      </c>
+      <c r="AI24">
+        <v>7</v>
+      </c>
+      <c r="AJ24">
+        <v>5</v>
+      </c>
+      <c r="AK24">
+        <v>283</v>
+      </c>
+      <c r="AL24">
+        <v>227</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>37</v>
+      </c>
+      <c r="AP24">
+        <v>22</v>
+      </c>
+      <c r="AQ24">
+        <v>18</v>
+      </c>
+      <c r="AR24">
+        <v>5</v>
+      </c>
+      <c r="AS24">
+        <v>87</v>
+      </c>
+      <c r="AT24">
+        <v>57</v>
+      </c>
+      <c r="AU24">
+        <v>42</v>
+      </c>
+      <c r="AV24">
+        <v>42</v>
+      </c>
+      <c r="AW24">
+        <v>0</v>
+      </c>
+      <c r="AX24">
+        <v>0</v>
+      </c>
+      <c r="AY24">
+        <v>2</v>
+      </c>
+      <c r="AZ24">
+        <v>2</v>
+      </c>
+      <c r="BA24">
+        <v>106</v>
+      </c>
+      <c r="BB24">
+        <v>92</v>
+      </c>
+      <c r="BC24">
+        <v>40</v>
+      </c>
+      <c r="BD24">
+        <v>23</v>
+      </c>
+      <c r="BE24">
+        <v>12</v>
+      </c>
+      <c r="BF24">
+        <v>7</v>
+      </c>
+      <c r="BG24">
+        <v>32</v>
+      </c>
+      <c r="BH24">
+        <v>69</v>
+      </c>
+      <c r="BI24">
+        <v>52</v>
+      </c>
+      <c r="BJ24">
+        <v>40</v>
+      </c>
+      <c r="BK24">
+        <v>16</v>
+      </c>
+      <c r="BL24">
+        <v>7</v>
+      </c>
+      <c r="BM24">
+        <v>3</v>
+      </c>
+      <c r="BN24">
+        <v>3</v>
+      </c>
+      <c r="BO24">
+        <v>0</v>
+      </c>
+      <c r="BP24">
+        <v>15</v>
+      </c>
+      <c r="BQ24">
+        <v>2</v>
+      </c>
+      <c r="BR24">
+        <v>0</v>
+      </c>
+      <c r="BS24">
+        <v>0</v>
+      </c>
+      <c r="BT24">
+        <v>2</v>
+      </c>
+      <c r="BU24">
+        <v>0</v>
+      </c>
+      <c r="BV24">
+        <v>15</v>
+      </c>
+      <c r="BW24">
+        <v>5</v>
+      </c>
+      <c r="BX24">
+        <v>2</v>
+      </c>
+      <c r="BY24">
+        <v>7</v>
+      </c>
+      <c r="BZ24">
+        <v>2</v>
+      </c>
+      <c r="CA24">
+        <v>50</v>
+      </c>
+      <c r="CB24">
+        <v>13</v>
+      </c>
+      <c r="CC24">
+        <v>3</v>
+      </c>
+      <c r="CD24">
+        <v>88</v>
+      </c>
+      <c r="CE24">
+        <v>28</v>
+      </c>
+      <c r="CF24">
+        <v>0</v>
+      </c>
+      <c r="CG24" s="1">
+        <v>42401</v>
+      </c>
+      <c r="CH24" s="4">
+        <v>46113</v>
+      </c>
+      <c r="CI24">
+        <v>0</v>
+      </c>
+      <c r="CJ24">
+        <v>217</v>
+      </c>
+      <c r="CK24">
+        <v>12</v>
+      </c>
+      <c r="CL24">
+        <v>14</v>
+      </c>
+      <c r="CM24">
+        <v>4</v>
+      </c>
+      <c r="CN24">
+        <v>14</v>
+      </c>
+      <c r="CO24">
+        <v>0</v>
+      </c>
+      <c r="CP24">
+        <v>0</v>
+      </c>
+      <c r="CQ24">
+        <v>2</v>
+      </c>
+      <c r="CR24">
+        <v>5</v>
+      </c>
+      <c r="CS24">
+        <v>48</v>
+      </c>
+      <c r="CT24">
+        <v>17</v>
+      </c>
+      <c r="CU24">
+        <v>2</v>
+      </c>
+      <c r="CV24">
+        <v>0</v>
+      </c>
+      <c r="CW24">
+        <v>14</v>
+      </c>
+      <c r="CX24">
+        <v>5</v>
+      </c>
+      <c r="CY24">
+        <v>0</v>
+      </c>
+      <c r="CZ24">
+        <v>0</v>
+      </c>
+      <c r="DA24">
+        <v>4</v>
+      </c>
+      <c r="DB24">
+        <v>36</v>
+      </c>
+      <c r="DC24">
+        <v>0</v>
+      </c>
+      <c r="DD24">
+        <v>0</v>
+      </c>
+      <c r="DE24">
+        <v>11</v>
+      </c>
+      <c r="DF24">
+        <v>7</v>
+      </c>
+      <c r="DG24">
+        <v>0</v>
+      </c>
+      <c r="DH24">
+        <v>0</v>
+      </c>
+      <c r="DI24">
+        <v>0</v>
+      </c>
+      <c r="DJ24">
+        <v>0</v>
+      </c>
+      <c r="DK24">
+        <v>0</v>
+      </c>
+      <c r="DL24">
+        <v>0</v>
+      </c>
+      <c r="DM24">
+        <v>0</v>
+      </c>
+      <c r="DN24">
+        <v>0</v>
+      </c>
+      <c r="DO24">
+        <v>48</v>
+      </c>
+      <c r="DP24">
+        <v>18</v>
+      </c>
+      <c r="DQ24">
+        <v>18</v>
+      </c>
+      <c r="DR24">
+        <v>7</v>
+      </c>
+      <c r="DS24">
+        <v>106</v>
+      </c>
+      <c r="DT24">
+        <v>92</v>
+      </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A25" s="20">
         <v>844</v>
       </c>
@@ -99554,8 +107736,344 @@
       <c r="L25" s="14" t="s">
         <v>919</v>
       </c>
+      <c r="M25">
+        <v>14</v>
+      </c>
+      <c r="N25">
+        <v>12</v>
+      </c>
+      <c r="O25">
+        <v>9</v>
+      </c>
+      <c r="P25">
+        <v>2</v>
+      </c>
+      <c r="Q25">
+        <v>1016</v>
+      </c>
+      <c r="R25">
+        <v>1016</v>
+      </c>
+      <c r="S25">
+        <v>7</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>36</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>3</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>14</v>
+      </c>
+      <c r="AB25">
+        <v>228</v>
+      </c>
+      <c r="AC25">
+        <v>95</v>
+      </c>
+      <c r="AD25">
+        <v>31</v>
+      </c>
+      <c r="AE25">
+        <v>3</v>
+      </c>
+      <c r="AF25">
+        <v>145</v>
+      </c>
+      <c r="AG25">
+        <v>66</v>
+      </c>
+      <c r="AH25">
+        <v>14</v>
+      </c>
+      <c r="AI25">
+        <v>9</v>
+      </c>
+      <c r="AJ25">
+        <v>13</v>
+      </c>
+      <c r="AK25">
+        <v>227</v>
+      </c>
+      <c r="AL25">
+        <v>181</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>28</v>
+      </c>
+      <c r="AP25">
+        <v>13</v>
+      </c>
+      <c r="AQ25">
+        <v>8</v>
+      </c>
+      <c r="AR25">
+        <v>3</v>
+      </c>
+      <c r="AS25">
+        <v>50</v>
+      </c>
+      <c r="AT25">
+        <v>30</v>
+      </c>
+      <c r="AU25">
+        <v>61</v>
+      </c>
+      <c r="AV25">
+        <v>56</v>
+      </c>
+      <c r="AW25">
+        <v>2</v>
+      </c>
+      <c r="AX25">
+        <v>1</v>
+      </c>
+      <c r="AY25">
+        <v>2</v>
+      </c>
+      <c r="AZ25">
+        <v>2</v>
+      </c>
+      <c r="BA25">
+        <v>82</v>
+      </c>
+      <c r="BB25">
+        <v>67</v>
+      </c>
+      <c r="BC25">
+        <v>25</v>
+      </c>
+      <c r="BD25">
+        <v>13</v>
+      </c>
+      <c r="BE25">
+        <v>29</v>
+      </c>
+      <c r="BF25">
+        <v>21</v>
+      </c>
+      <c r="BG25">
+        <v>10</v>
+      </c>
+      <c r="BH25">
+        <v>42</v>
+      </c>
+      <c r="BI25">
+        <v>25</v>
+      </c>
+      <c r="BJ25">
+        <v>73</v>
+      </c>
+      <c r="BK25">
+        <v>34</v>
+      </c>
+      <c r="BL25">
+        <v>9</v>
+      </c>
+      <c r="BM25">
+        <v>3</v>
+      </c>
+      <c r="BN25">
+        <v>5</v>
+      </c>
+      <c r="BO25">
+        <v>2</v>
+      </c>
+      <c r="BP25">
+        <v>4</v>
+      </c>
+      <c r="BQ25">
+        <v>0</v>
+      </c>
+      <c r="BR25">
+        <v>9</v>
+      </c>
+      <c r="BS25">
+        <v>1</v>
+      </c>
+      <c r="BT25">
+        <v>11</v>
+      </c>
+      <c r="BU25">
+        <v>0</v>
+      </c>
+      <c r="BV25">
+        <v>38</v>
+      </c>
+      <c r="BW25">
+        <v>17</v>
+      </c>
+      <c r="BX25">
+        <v>5</v>
+      </c>
+      <c r="BY25">
+        <v>7</v>
+      </c>
+      <c r="BZ25">
+        <v>2</v>
+      </c>
+      <c r="CA25">
+        <v>29</v>
+      </c>
+      <c r="CB25">
+        <v>15</v>
+      </c>
+      <c r="CC25">
+        <v>2</v>
+      </c>
+      <c r="CD25">
+        <v>98</v>
+      </c>
+      <c r="CE25">
+        <v>19</v>
+      </c>
+      <c r="CF25">
+        <v>1</v>
+      </c>
+      <c r="CG25" s="1">
+        <v>44593</v>
+      </c>
+      <c r="CH25" t="s">
+        <v>1010</v>
+      </c>
+      <c r="CI25">
+        <v>0</v>
+      </c>
+      <c r="CJ25">
+        <v>139</v>
+      </c>
+      <c r="CK25">
+        <v>26</v>
+      </c>
+      <c r="CL25">
+        <v>12</v>
+      </c>
+      <c r="CM25">
+        <v>5</v>
+      </c>
+      <c r="CN25">
+        <v>5</v>
+      </c>
+      <c r="CO25">
+        <v>1</v>
+      </c>
+      <c r="CP25">
+        <v>0</v>
+      </c>
+      <c r="CQ25">
+        <v>2</v>
+      </c>
+      <c r="CR25">
+        <v>27</v>
+      </c>
+      <c r="CS25">
+        <v>23</v>
+      </c>
+      <c r="CT25">
+        <v>15</v>
+      </c>
+      <c r="CU25">
+        <v>1</v>
+      </c>
+      <c r="CV25">
+        <v>0</v>
+      </c>
+      <c r="CW25">
+        <v>3</v>
+      </c>
+      <c r="CX25">
+        <v>0</v>
+      </c>
+      <c r="CY25">
+        <v>0</v>
+      </c>
+      <c r="CZ25">
+        <v>0</v>
+      </c>
+      <c r="DA25">
+        <v>17</v>
+      </c>
+      <c r="DB25">
+        <v>19</v>
+      </c>
+      <c r="DC25">
+        <v>0</v>
+      </c>
+      <c r="DD25">
+        <v>0</v>
+      </c>
+      <c r="DE25">
+        <v>14</v>
+      </c>
+      <c r="DF25">
+        <v>9</v>
+      </c>
+      <c r="DG25">
+        <v>0</v>
+      </c>
+      <c r="DH25">
+        <v>0</v>
+      </c>
+      <c r="DI25">
+        <v>0</v>
+      </c>
+      <c r="DJ25">
+        <v>0</v>
+      </c>
+      <c r="DK25">
+        <v>0</v>
+      </c>
+      <c r="DL25">
+        <v>0</v>
+      </c>
+      <c r="DM25">
+        <v>0</v>
+      </c>
+      <c r="DN25">
+        <v>0</v>
+      </c>
+      <c r="DO25">
+        <v>94</v>
+      </c>
+      <c r="DP25">
+        <v>14</v>
+      </c>
+      <c r="DQ25">
+        <v>54</v>
+      </c>
+      <c r="DR25">
+        <v>14</v>
+      </c>
+      <c r="DS25">
+        <v>82</v>
+      </c>
+      <c r="DT25">
+        <v>67</v>
+      </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A26" s="20">
         <v>845</v>
       </c>
@@ -99590,6 +108108,342 @@
       </c>
       <c r="L26" s="17" t="s">
         <v>919</v>
+      </c>
+      <c r="M26">
+        <v>13</v>
+      </c>
+      <c r="N26">
+        <v>6</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>2</v>
+      </c>
+      <c r="Q26">
+        <v>592</v>
+      </c>
+      <c r="R26">
+        <v>592</v>
+      </c>
+      <c r="S26">
+        <v>2</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>3</v>
+      </c>
+      <c r="V26">
+        <v>3</v>
+      </c>
+      <c r="W26">
+        <v>2</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>62</v>
+      </c>
+      <c r="AC26">
+        <v>26</v>
+      </c>
+      <c r="AD26">
+        <v>34</v>
+      </c>
+      <c r="AE26">
+        <v>10</v>
+      </c>
+      <c r="AF26">
+        <v>6</v>
+      </c>
+      <c r="AG26">
+        <v>2</v>
+      </c>
+      <c r="AH26">
+        <v>13</v>
+      </c>
+      <c r="AI26">
+        <v>8</v>
+      </c>
+      <c r="AJ26">
+        <v>6</v>
+      </c>
+      <c r="AK26">
+        <v>353</v>
+      </c>
+      <c r="AL26">
+        <v>293</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>33</v>
+      </c>
+      <c r="AP26">
+        <v>18</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
+        <v>133</v>
+      </c>
+      <c r="AT26">
+        <v>80</v>
+      </c>
+      <c r="AU26">
+        <v>19</v>
+      </c>
+      <c r="AV26">
+        <v>18</v>
+      </c>
+      <c r="AW26">
+        <v>0</v>
+      </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <v>0</v>
+      </c>
+      <c r="AZ26">
+        <v>0</v>
+      </c>
+      <c r="BA26">
+        <v>182</v>
+      </c>
+      <c r="BB26">
+        <v>178</v>
+      </c>
+      <c r="BC26">
+        <v>55</v>
+      </c>
+      <c r="BD26">
+        <v>24</v>
+      </c>
+      <c r="BE26">
+        <v>0</v>
+      </c>
+      <c r="BF26">
+        <v>0</v>
+      </c>
+      <c r="BG26">
+        <v>39</v>
+      </c>
+      <c r="BH26">
+        <v>75</v>
+      </c>
+      <c r="BI26">
+        <v>67</v>
+      </c>
+      <c r="BJ26">
+        <v>3</v>
+      </c>
+      <c r="BK26">
+        <v>2</v>
+      </c>
+      <c r="BL26">
+        <v>0</v>
+      </c>
+      <c r="BM26">
+        <v>0</v>
+      </c>
+      <c r="BN26">
+        <v>0</v>
+      </c>
+      <c r="BO26">
+        <v>0</v>
+      </c>
+      <c r="BP26">
+        <v>0</v>
+      </c>
+      <c r="BQ26">
+        <v>0</v>
+      </c>
+      <c r="BR26">
+        <v>0</v>
+      </c>
+      <c r="BS26">
+        <v>0</v>
+      </c>
+      <c r="BT26">
+        <v>0</v>
+      </c>
+      <c r="BU26">
+        <v>0</v>
+      </c>
+      <c r="BV26">
+        <v>9</v>
+      </c>
+      <c r="BW26">
+        <v>6</v>
+      </c>
+      <c r="BX26">
+        <v>2</v>
+      </c>
+      <c r="BY26">
+        <v>0</v>
+      </c>
+      <c r="BZ26">
+        <v>0</v>
+      </c>
+      <c r="CA26">
+        <v>52</v>
+      </c>
+      <c r="CB26">
+        <v>6</v>
+      </c>
+      <c r="CC26">
+        <v>0</v>
+      </c>
+      <c r="CD26">
+        <v>67</v>
+      </c>
+      <c r="CE26">
+        <v>37</v>
+      </c>
+      <c r="CF26">
+        <v>3</v>
+      </c>
+      <c r="CG26" t="s">
+        <v>789</v>
+      </c>
+      <c r="CH26">
+        <v>0</v>
+      </c>
+      <c r="CI26">
+        <v>0</v>
+      </c>
+      <c r="CJ26">
+        <v>234</v>
+      </c>
+      <c r="CK26">
+        <v>7</v>
+      </c>
+      <c r="CL26">
+        <v>2</v>
+      </c>
+      <c r="CM26">
+        <v>1</v>
+      </c>
+      <c r="CN26">
+        <v>23</v>
+      </c>
+      <c r="CO26">
+        <v>0</v>
+      </c>
+      <c r="CP26">
+        <v>0</v>
+      </c>
+      <c r="CQ26">
+        <v>6</v>
+      </c>
+      <c r="CR26">
+        <v>2</v>
+      </c>
+      <c r="CS26">
+        <v>60</v>
+      </c>
+      <c r="CT26">
+        <v>23</v>
+      </c>
+      <c r="CU26">
+        <v>2</v>
+      </c>
+      <c r="CV26">
+        <v>1</v>
+      </c>
+      <c r="CW26">
+        <v>7</v>
+      </c>
+      <c r="CX26">
+        <v>4</v>
+      </c>
+      <c r="CY26">
+        <v>1</v>
+      </c>
+      <c r="CZ26">
+        <v>0</v>
+      </c>
+      <c r="DA26">
+        <v>2</v>
+      </c>
+      <c r="DB26">
+        <v>30</v>
+      </c>
+      <c r="DC26">
+        <v>1</v>
+      </c>
+      <c r="DD26">
+        <v>1</v>
+      </c>
+      <c r="DE26">
+        <v>13</v>
+      </c>
+      <c r="DF26">
+        <v>8</v>
+      </c>
+      <c r="DG26">
+        <v>0</v>
+      </c>
+      <c r="DH26">
+        <v>0</v>
+      </c>
+      <c r="DI26">
+        <v>0</v>
+      </c>
+      <c r="DJ26">
+        <v>0</v>
+      </c>
+      <c r="DK26">
+        <v>0</v>
+      </c>
+      <c r="DL26">
+        <v>0</v>
+      </c>
+      <c r="DM26">
+        <v>0</v>
+      </c>
+      <c r="DN26">
+        <v>0</v>
+      </c>
+      <c r="DO26">
+        <v>42</v>
+      </c>
+      <c r="DP26">
+        <v>26</v>
+      </c>
+      <c r="DQ26">
+        <v>2</v>
+      </c>
+      <c r="DR26">
+        <v>0</v>
+      </c>
+      <c r="DS26">
+        <v>182</v>
+      </c>
+      <c r="DT26">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -99605,8 +108459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB5CC042-7A75-A548-AB82-06D110DF2783}">
   <dimension ref="A1:DN26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:DN26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
